--- a/Data/Documentation Master File Final.xlsx
+++ b/Data/Documentation Master File Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cas\Desktop\Harvard\Final Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08C90CD-8E96-46B9-9906-79A781E4C21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0630EF2B-D681-428A-8602-0359638EC107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="2" r:id="rId1"/>
@@ -7655,69 +7655,6 @@
           </cell>
         </row>
         <row r="3">
-          <cell r="B3">
-            <v>0</v>
-          </cell>
-          <cell r="C3">
-            <v>0</v>
-          </cell>
-          <cell r="D3">
-            <v>0</v>
-          </cell>
-          <cell r="E3">
-            <v>0</v>
-          </cell>
-          <cell r="F3">
-            <v>0</v>
-          </cell>
-          <cell r="G3">
-            <v>0</v>
-          </cell>
-          <cell r="H3">
-            <v>0</v>
-          </cell>
-          <cell r="I3">
-            <v>72484377.091890693</v>
-          </cell>
-          <cell r="J3">
-            <v>71731564.967042297</v>
-          </cell>
-          <cell r="K3">
-            <v>71966640.718910307</v>
-          </cell>
-          <cell r="L3">
-            <v>70242672.282253996</v>
-          </cell>
-          <cell r="M3">
-            <v>72196826.934210598</v>
-          </cell>
-          <cell r="N3">
-            <v>72354218.425861493</v>
-          </cell>
-          <cell r="O3">
-            <v>72620520.514616698</v>
-          </cell>
-          <cell r="P3">
-            <v>69782268.831006601</v>
-          </cell>
-          <cell r="Q3">
-            <v>68451960.146435499</v>
-          </cell>
-          <cell r="R3">
-            <v>67098851.729051702</v>
-          </cell>
-          <cell r="S3">
-            <v>64662029.880932502</v>
-          </cell>
-          <cell r="T3">
-            <v>57543442.3193608</v>
-          </cell>
-          <cell r="U3">
-            <v>50847486.582352601</v>
-          </cell>
-          <cell r="V3">
-            <v>45900215</v>
-          </cell>
           <cell r="W3">
             <v>0</v>
           </cell>
@@ -10300,8 +10237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP669"/>
   <sheetViews>
-    <sheetView topLeftCell="I662" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C669" sqref="C669"/>
+    <sheetView tabSelected="1" topLeftCell="K577" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K578" sqref="K578:AE578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10317,6 +10254,7 @@
     <col min="9" max="9" width="21.68359375" style="1" customWidth="1"/>
     <col min="10" max="10" width="52.68359375" style="1" customWidth="1"/>
     <col min="11" max="11" width="11.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.20703125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -43359,88 +43297,88 @@
         <v>451</v>
       </c>
       <c r="K578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!B$3</f>
-        <v>0</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!B$4</f>
+        <v>156716600</v>
       </c>
       <c r="L578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!C$3</f>
-        <v>0</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!C$4</f>
+        <v>167976040</v>
       </c>
       <c r="M578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!D$3</f>
-        <v>0</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!D$4</f>
+        <v>183715880</v>
       </c>
       <c r="N578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!E$3</f>
-        <v>0</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!E$4</f>
+        <v>187651428</v>
       </c>
       <c r="O578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!F$3</f>
-        <v>0</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!F$4</f>
+        <v>194953119</v>
       </c>
       <c r="P578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!G$3</f>
-        <v>0</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!G$4</f>
+        <v>204027579</v>
       </c>
       <c r="Q578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!H$3</f>
-        <v>0</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!H$4</f>
+        <v>211944467</v>
       </c>
       <c r="R578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!I$3</f>
-        <v>72484377.091890693</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!I$4</f>
+        <v>224458726</v>
       </c>
       <c r="S578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!J$3</f>
-        <v>71731564.967042297</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!J$4</f>
+        <v>237583497</v>
       </c>
       <c r="T578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!K$3</f>
-        <v>71966640.718910307</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!K$4</f>
+        <v>246965271</v>
       </c>
       <c r="U578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!L$3</f>
-        <v>70242672.282253996</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!L$4</f>
+        <v>253048448</v>
       </c>
       <c r="V578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!M$3</f>
-        <v>72196826.934210598</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!M$4</f>
+        <v>259934115</v>
       </c>
       <c r="W578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!N$3</f>
-        <v>72354218.425861493</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!N$4</f>
+        <v>260625937</v>
       </c>
       <c r="X578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!O$3</f>
-        <v>72620520.514616698</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!O$4</f>
+        <v>263067911</v>
       </c>
       <c r="Y578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!P$3</f>
-        <v>69782268.831006601</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!P$4</f>
+        <v>253919348</v>
       </c>
       <c r="Z578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!Q$3</f>
-        <v>68451960.146435499</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!Q$4</f>
+        <v>246326325</v>
       </c>
       <c r="AA578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!R$3</f>
-        <v>67098851.729051702</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!R$4</f>
+        <v>229140550</v>
       </c>
       <c r="AB578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!S$3</f>
-        <v>64662029.880932502</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!S$4</f>
+        <v>217313967</v>
       </c>
       <c r="AC578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!T$3</f>
-        <v>57543442.3193608</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!T$4</f>
+        <v>193782638</v>
       </c>
       <c r="AD578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!U$3</f>
-        <v>50847486.582352601</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!U$4</f>
+        <v>169863949</v>
       </c>
       <c r="AE578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!V$3</f>
-        <v>45900215</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!V$4</f>
+        <v>154658303</v>
       </c>
       <c r="AF578" s="10">
         <f>'[1]Opioid Rx Data IQVIA SH'!W$3</f>
@@ -48885,8 +48823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C440A3E-6950-48E2-BC1D-E1D7F3E9B137}">
   <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -49686,87 +49624,87 @@
       </c>
       <c r="B9" s="28">
         <f>VLOOKUP(A:A,Variables!B:AP,10,FALSE)</f>
-        <v>0</v>
+        <v>156716600</v>
       </c>
       <c r="C9" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,11,FALSE)</f>
-        <v>0</v>
+        <v>167976040</v>
       </c>
       <c r="D9" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,12,FALSE)</f>
-        <v>0</v>
+        <v>183715880</v>
       </c>
       <c r="E9" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,13,FALSE)</f>
-        <v>0</v>
+        <v>187651428</v>
       </c>
       <c r="F9" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,14,FALSE)</f>
-        <v>0</v>
+        <v>194953119</v>
       </c>
       <c r="G9" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,15,FALSE)</f>
-        <v>0</v>
+        <v>204027579</v>
       </c>
       <c r="H9" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,16,FALSE)</f>
-        <v>0</v>
+        <v>211944467</v>
       </c>
       <c r="I9" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,17,FALSE)</f>
-        <v>72484377.091890693</v>
+        <v>224458726</v>
       </c>
       <c r="J9" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,18,FALSE)</f>
-        <v>71731564.967042297</v>
+        <v>237583497</v>
       </c>
       <c r="K9" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,19,FALSE)</f>
-        <v>71966640.718910307</v>
+        <v>246965271</v>
       </c>
       <c r="L9" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,20,FALSE)</f>
-        <v>70242672.282253996</v>
+        <v>253048448</v>
       </c>
       <c r="M9" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,21,FALSE)</f>
-        <v>72196826.934210598</v>
+        <v>259934115</v>
       </c>
       <c r="N9" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,22,FALSE)</f>
-        <v>72354218.425861493</v>
+        <v>260625937</v>
       </c>
       <c r="O9" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,23,FALSE)</f>
-        <v>72620520.514616698</v>
+        <v>263067911</v>
       </c>
       <c r="P9" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,24,FALSE)</f>
-        <v>69782268.831006601</v>
+        <v>253919348</v>
       </c>
       <c r="Q9" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,25,FALSE)</f>
-        <v>68451960.146435499</v>
+        <v>246326325</v>
       </c>
       <c r="R9" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,26,FALSE)</f>
-        <v>67098851.729051702</v>
+        <v>229140550</v>
       </c>
       <c r="S9" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,27,FALSE)</f>
-        <v>64662029.880932502</v>
+        <v>217313967</v>
       </c>
       <c r="T9" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,28,FALSE)</f>
-        <v>57543442.3193608</v>
+        <v>193782638</v>
       </c>
       <c r="U9" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,29,FALSE)</f>
-        <v>50847486.582352601</v>
+        <v>169863949</v>
       </c>
       <c r="V9" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,30,FALSE)</f>
-        <v>45900215</v>
+        <v>154658303</v>
       </c>
       <c r="W9" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,31,FALSE)</f>
@@ -57709,9 +57647,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -57932,19 +57873,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69EF2185-4296-4909-B119-96ADB2CF9632}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9C64007-5076-4DDD-B6B0-33978E9411D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -57969,9 +57906,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9C64007-5076-4DDD-B6B0-33978E9411D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69EF2185-4296-4909-B119-96ADB2CF9632}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Data/Documentation Master File Final.xlsx
+++ b/Data/Documentation Master File Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cas\Desktop\Harvard\Final Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0630EF2B-D681-428A-8602-0359638EC107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF16721-C5D0-45CA-98FC-49CDD9957E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7071,7 +7071,7 @@
       <sheetName val="Projections using 2019"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="B2">
@@ -7654,11 +7654,6 @@
             <v>78456550.964611903</v>
           </cell>
         </row>
-        <row r="3">
-          <cell r="W3">
-            <v>0</v>
-          </cell>
-        </row>
         <row r="4">
           <cell r="B4">
             <v>156716600</v>
@@ -7793,6 +7788,74 @@
           </cell>
           <cell r="W5">
             <v>110314545203</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0</v>
+          </cell>
+          <cell r="C6">
+            <v>0</v>
+          </cell>
+          <cell r="D6">
+            <v>0</v>
+          </cell>
+          <cell r="E6">
+            <v>0</v>
+          </cell>
+          <cell r="F6">
+            <v>0</v>
+          </cell>
+          <cell r="G6">
+            <v>0</v>
+          </cell>
+          <cell r="H6">
+            <v>0</v>
+          </cell>
+          <cell r="I6">
+            <v>0</v>
+          </cell>
+          <cell r="J6">
+            <v>0</v>
+          </cell>
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+          <cell r="L6">
+            <v>1.2868150677794213E-4</v>
+          </cell>
+          <cell r="M6">
+            <v>3.0440046129983321E-2</v>
+          </cell>
+          <cell r="N6">
+            <v>0.10357235362782942</v>
+          </cell>
+          <cell r="O6">
+            <v>9.0387600251146713E-2</v>
+          </cell>
+          <cell r="P6">
+            <v>8.5121503878147764E-2</v>
+          </cell>
+          <cell r="Q6">
+            <v>7.9822156563950336E-2</v>
+          </cell>
+          <cell r="R6">
+            <v>7.5699132306866743E-2</v>
+          </cell>
+          <cell r="S6">
+            <v>7.0648063363307451E-2</v>
+          </cell>
+          <cell r="T6">
+            <v>6.5304469508482815E-2</v>
+          </cell>
+          <cell r="U6">
+            <v>6.2178924571006849E-2</v>
+          </cell>
+          <cell r="V6">
+            <v>5.5745186078936089E-2</v>
+          </cell>
+          <cell r="W6">
+            <v>4.9272336100354815E-2</v>
           </cell>
         </row>
         <row r="7">
@@ -9137,8 +9200,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10237,8 +10300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP669"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K577" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K578" sqref="K578:AE578"/>
+    <sheetView tabSelected="1" topLeftCell="G664" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K669" sqref="K669"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10253,7 +10316,7 @@
     <col min="8" max="8" width="54.41796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="21.68359375" style="1" customWidth="1"/>
     <col min="10" max="10" width="52.68359375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.68359375" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.20703125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13" bestFit="1" customWidth="1"/>
   </cols>
@@ -10631,92 +10694,92 @@
         <v>164</v>
       </c>
       <c r="K6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!B$5</f>
-        <v>83860335346.247116</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!B$6</f>
+        <v>0</v>
       </c>
       <c r="L6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!C$5</f>
-        <v>88243037645.415298</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!C$6</f>
+        <v>0</v>
       </c>
       <c r="M6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!D$5</f>
-        <v>104432410000.00002</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!D$6</f>
+        <v>0</v>
       </c>
       <c r="N6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!E$5</f>
-        <v>113914397673</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!E$6</f>
+        <v>0</v>
       </c>
       <c r="O6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!F$5</f>
-        <v>128182380208</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!F$6</f>
+        <v>0</v>
       </c>
       <c r="P6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!G$5</f>
-        <v>141266597589</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!G$6</f>
+        <v>0</v>
       </c>
       <c r="Q6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!H$5</f>
-        <v>152741116253</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!H$6</f>
+        <v>0</v>
       </c>
       <c r="R6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!I$5</f>
-        <v>172377484435</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!I$6</f>
+        <v>0</v>
       </c>
       <c r="S6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!J$5</f>
-        <v>194816933897</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!J$6</f>
+        <v>0</v>
       </c>
       <c r="T6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!K$5</f>
-        <v>214803554568</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!K$6</f>
+        <v>0</v>
       </c>
       <c r="U6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!L$5</f>
-        <v>227757668789</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!L$6</f>
+        <v>1.2868150677794213E-4</v>
       </c>
       <c r="V6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!M$5</f>
-        <v>245404960604</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!M$6</f>
+        <v>3.0440046129983321E-2</v>
       </c>
       <c r="W6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!N$5</f>
-        <v>246463188398</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!N$6</f>
+        <v>0.10357235362782942</v>
       </c>
       <c r="X6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!O$5</f>
-        <v>239867616739</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!O$6</f>
+        <v>9.0387600251146713E-2</v>
       </c>
       <c r="Y6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!P$5</f>
-        <v>228965844787</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!P$6</f>
+        <v>8.5121503878147764E-2</v>
       </c>
       <c r="Z6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!Q$5</f>
-        <v>221271525079</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!Q$6</f>
+        <v>7.9822156563950336E-2</v>
       </c>
       <c r="AA6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!R$5</f>
-        <v>209409702158</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!R$6</f>
+        <v>7.5699132306866743E-2</v>
       </c>
       <c r="AB6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!S$5</f>
-        <v>197124327717</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!S$6</f>
+        <v>7.0648063363307451E-2</v>
       </c>
       <c r="AC6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!T$5</f>
-        <v>170285611746</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!T$6</f>
+        <v>6.5304469508482815E-2</v>
       </c>
       <c r="AD6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!U$5</f>
-        <v>141100706124</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!U$6</f>
+        <v>6.2178924571006849E-2</v>
       </c>
       <c r="AE6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!V$5</f>
-        <v>120407890118</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!V$6</f>
+        <v>5.5745186078936089E-2</v>
       </c>
       <c r="AF6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!W$5</f>
-        <v>110314545203</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!W$6</f>
+        <v>4.9272336100354815E-2</v>
       </c>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
@@ -43381,8 +43444,8 @@
         <v>154658303</v>
       </c>
       <c r="AF578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!W$3</f>
-        <v>0</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!W$4</f>
+        <v>144174733</v>
       </c>
       <c r="AG578" s="1"/>
       <c r="AH578" s="1"/>
@@ -43710,92 +43773,92 @@
         <v>451</v>
       </c>
       <c r="K583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!B$4</f>
-        <v>156716600</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!B$5</f>
+        <v>83860335346.247116</v>
       </c>
       <c r="L583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!C$4</f>
-        <v>167976040</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!C$5</f>
+        <v>88243037645.415298</v>
       </c>
       <c r="M583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!D$4</f>
-        <v>183715880</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!D$5</f>
+        <v>104432410000.00002</v>
       </c>
       <c r="N583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!E$4</f>
-        <v>187651428</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!E$5</f>
+        <v>113914397673</v>
       </c>
       <c r="O583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!F$4</f>
-        <v>194953119</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!F$5</f>
+        <v>128182380208</v>
       </c>
       <c r="P583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!G$4</f>
-        <v>204027579</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!G$5</f>
+        <v>141266597589</v>
       </c>
       <c r="Q583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!H$4</f>
-        <v>211944467</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!H$5</f>
+        <v>152741116253</v>
       </c>
       <c r="R583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!I$4</f>
-        <v>224458726</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!I$5</f>
+        <v>172377484435</v>
       </c>
       <c r="S583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!J$4</f>
-        <v>237583497</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!J$5</f>
+        <v>194816933897</v>
       </c>
       <c r="T583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!K$4</f>
-        <v>246965271</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!K$5</f>
+        <v>214803554568</v>
       </c>
       <c r="U583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!L$4</f>
-        <v>253048448</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!L$5</f>
+        <v>227757668789</v>
       </c>
       <c r="V583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!M$4</f>
-        <v>259934115</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!M$5</f>
+        <v>245404960604</v>
       </c>
       <c r="W583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!N$4</f>
-        <v>260625937</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!N$5</f>
+        <v>246463188398</v>
       </c>
       <c r="X583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!O$4</f>
-        <v>263067911</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!O$5</f>
+        <v>239867616739</v>
       </c>
       <c r="Y583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!P$4</f>
-        <v>253919348</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!P$5</f>
+        <v>228965844787</v>
       </c>
       <c r="Z583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!Q$4</f>
-        <v>246326325</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!Q$5</f>
+        <v>221271525079</v>
       </c>
       <c r="AA583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!R$4</f>
-        <v>229140550</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!R$5</f>
+        <v>209409702158</v>
       </c>
       <c r="AB583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!S$4</f>
-        <v>217313967</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!S$5</f>
+        <v>197124327717</v>
       </c>
       <c r="AC583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!T$4</f>
-        <v>193782638</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!T$5</f>
+        <v>170285611746</v>
       </c>
       <c r="AD583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!U$4</f>
-        <v>169863949</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!U$5</f>
+        <v>141100706124</v>
       </c>
       <c r="AE583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!V$4</f>
-        <v>154658303</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!V$5</f>
+        <v>120407890118</v>
       </c>
       <c r="AF583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!W$4</f>
-        <v>144174733</v>
+        <f>'[1]Opioid Rx Data IQVIA SH'!W$5</f>
+        <v>110314545203</v>
       </c>
       <c r="AG583" s="1"/>
       <c r="AH583" s="1"/>
@@ -49531,91 +49594,91 @@
       </c>
       <c r="B8" s="28">
         <f>VLOOKUP(A:A,Variables!B:AP,10,FALSE)</f>
-        <v>156716600</v>
+        <v>83860335346.247116</v>
       </c>
       <c r="C8" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,11,FALSE)</f>
-        <v>167976040</v>
+        <v>88243037645.415298</v>
       </c>
       <c r="D8" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,12,FALSE)</f>
-        <v>183715880</v>
+        <v>104432410000.00002</v>
       </c>
       <c r="E8" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,13,FALSE)</f>
-        <v>187651428</v>
+        <v>113914397673</v>
       </c>
       <c r="F8" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,14,FALSE)</f>
-        <v>194953119</v>
+        <v>128182380208</v>
       </c>
       <c r="G8" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,15,FALSE)</f>
-        <v>204027579</v>
+        <v>141266597589</v>
       </c>
       <c r="H8" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,16,FALSE)</f>
-        <v>211944467</v>
+        <v>152741116253</v>
       </c>
       <c r="I8" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,17,FALSE)</f>
-        <v>224458726</v>
+        <v>172377484435</v>
       </c>
       <c r="J8" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,18,FALSE)</f>
-        <v>237583497</v>
+        <v>194816933897</v>
       </c>
       <c r="K8" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,19,FALSE)</f>
-        <v>246965271</v>
+        <v>214803554568</v>
       </c>
       <c r="L8" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,20,FALSE)</f>
-        <v>253048448</v>
+        <v>227757668789</v>
       </c>
       <c r="M8" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,21,FALSE)</f>
-        <v>259934115</v>
+        <v>245404960604</v>
       </c>
       <c r="N8" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,22,FALSE)</f>
-        <v>260625937</v>
+        <v>246463188398</v>
       </c>
       <c r="O8" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,23,FALSE)</f>
-        <v>263067911</v>
+        <v>239867616739</v>
       </c>
       <c r="P8" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,24,FALSE)</f>
-        <v>253919348</v>
+        <v>228965844787</v>
       </c>
       <c r="Q8" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,25,FALSE)</f>
-        <v>246326325</v>
+        <v>221271525079</v>
       </c>
       <c r="R8" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,26,FALSE)</f>
-        <v>229140550</v>
+        <v>209409702158</v>
       </c>
       <c r="S8" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,27,FALSE)</f>
-        <v>217313967</v>
+        <v>197124327717</v>
       </c>
       <c r="T8" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,28,FALSE)</f>
-        <v>193782638</v>
+        <v>170285611746</v>
       </c>
       <c r="U8" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,29,FALSE)</f>
-        <v>169863949</v>
+        <v>141100706124</v>
       </c>
       <c r="V8" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,30,FALSE)</f>
-        <v>154658303</v>
+        <v>120407890118</v>
       </c>
       <c r="W8" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,31,FALSE)</f>
-        <v>144174733</v>
+        <v>110314545203</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.55000000000000004">
@@ -49708,7 +49771,7 @@
       </c>
       <c r="W9" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,31,FALSE)</f>
-        <v>0</v>
+        <v>144174733</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.55000000000000004">
@@ -49717,91 +49780,91 @@
       </c>
       <c r="B10" s="27">
         <f>VLOOKUP(A:A,Variables!B:AP,10,FALSE)</f>
-        <v>83860335346.247116</v>
+        <v>0</v>
       </c>
       <c r="C10" s="27">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,11,FALSE)</f>
-        <v>88243037645.415298</v>
+        <v>0</v>
       </c>
       <c r="D10" s="27">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,12,FALSE)</f>
-        <v>104432410000.00002</v>
+        <v>0</v>
       </c>
       <c r="E10" s="27">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,13,FALSE)</f>
-        <v>113914397673</v>
+        <v>0</v>
       </c>
       <c r="F10" s="27">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,14,FALSE)</f>
-        <v>128182380208</v>
+        <v>0</v>
       </c>
       <c r="G10" s="27">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,15,FALSE)</f>
-        <v>141266597589</v>
+        <v>0</v>
       </c>
       <c r="H10" s="27">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,16,FALSE)</f>
-        <v>152741116253</v>
+        <v>0</v>
       </c>
       <c r="I10" s="27">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,17,FALSE)</f>
-        <v>172377484435</v>
+        <v>0</v>
       </c>
       <c r="J10" s="27">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,18,FALSE)</f>
-        <v>194816933897</v>
+        <v>0</v>
       </c>
       <c r="K10" s="27">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,19,FALSE)</f>
-        <v>214803554568</v>
+        <v>0</v>
       </c>
       <c r="L10" s="27">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,20,FALSE)</f>
-        <v>227757668789</v>
+        <v>1.2868150677794213E-4</v>
       </c>
       <c r="M10" s="27">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,21,FALSE)</f>
-        <v>245404960604</v>
+        <v>3.0440046129983321E-2</v>
       </c>
       <c r="N10" s="27">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,22,FALSE)</f>
-        <v>246463188398</v>
+        <v>0.10357235362782942</v>
       </c>
       <c r="O10" s="27">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,23,FALSE)</f>
-        <v>239867616739</v>
+        <v>9.0387600251146713E-2</v>
       </c>
       <c r="P10" s="27">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,24,FALSE)</f>
-        <v>228965844787</v>
+        <v>8.5121503878147764E-2</v>
       </c>
       <c r="Q10" s="27">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,25,FALSE)</f>
-        <v>221271525079</v>
+        <v>7.9822156563950336E-2</v>
       </c>
       <c r="R10" s="27">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,26,FALSE)</f>
-        <v>209409702158</v>
+        <v>7.5699132306866743E-2</v>
       </c>
       <c r="S10" s="27">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,27,FALSE)</f>
-        <v>197124327717</v>
+        <v>7.0648063363307451E-2</v>
       </c>
       <c r="T10" s="27">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,28,FALSE)</f>
-        <v>170285611746</v>
+        <v>6.5304469508482815E-2</v>
       </c>
       <c r="U10" s="27">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,29,FALSE)</f>
-        <v>141100706124</v>
+        <v>6.2178924571006849E-2</v>
       </c>
       <c r="V10" s="27">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,30,FALSE)</f>
-        <v>120407890118</v>
+        <v>5.5745186078936089E-2</v>
       </c>
       <c r="W10" s="27">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,31,FALSE)</f>
-        <v>110314545203</v>
+        <v>4.9272336100354815E-2</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.55000000000000004">
@@ -57656,6 +57719,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A183296C2D9DE541958AD9D9A6E59D08" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ef9e81cc8ea135f7dd7143deedbca767">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="12e73323-2992-4b61-9f89-f2ff99442528" xmlns:ns3="60bd3312-76b2-43ff-ab1e-17ba520e0d12" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f6f209b185d7905ebfc3951605bf0c4b" ns2:_="" ns3:_="">
     <xsd:import namespace="12e73323-2992-4b61-9f89-f2ff99442528"/>
@@ -57872,12 +57941,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9C64007-5076-4DDD-B6B0-33978E9411D2}">
   <ds:schemaRefs>
@@ -57887,6 +57950,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69EF2185-4296-4909-B119-96ADB2CF9632}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028F4AF9-4E75-413A-803A-46FE3EDDF7A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -57903,13 +57975,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69EF2185-4296-4909-B119-96ADB2CF9632}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Data/Documentation Master File Final.xlsx
+++ b/Data/Documentation Master File Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cas\Desktop\Harvard\Final Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://partnershealthcare.sharepoint.com/sites/FDAOpioidmodelingteam/Shared Documents/Opioid Model/GitHub/PROMISE/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF16721-C5D0-45CA-98FC-49CDD9957E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{8CF16721-C5D0-45CA-98FC-49CDD9957E13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E138910-A690-4B0A-8DC3-2D0515E61D40}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2505" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="2" r:id="rId1"/>
@@ -26,12 +26,23 @@
   <definedNames>
     <definedName name="QLVariableType" localSheetId="0">Introduction!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4858" uniqueCount="1987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4860" uniqueCount="1988">
   <si>
     <t>SPREADSHEET SUMMARY</t>
   </si>
@@ -6210,6 +6221,9 @@
   </si>
   <si>
     <t>Total overdose deaths heroin combined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used for sensitivity test assuming that HUD did not fall after 2017 as indicated in NSDUH. 2018 and 2019 values are held constant at 2017 values. </t>
   </si>
 </sst>
 </file>
@@ -7068,10 +7082,9 @@
       <sheetName val="NSDUH OUD HUD estimates"/>
       <sheetName val="RAND Adjusted Estimates"/>
       <sheetName val="Projections using 2020"/>
-      <sheetName val="Projections using 2019"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="B2">
@@ -7654,272 +7667,272 @@
             <v>78456550.964611903</v>
           </cell>
         </row>
+        <row r="3">
+          <cell r="B3">
+            <v>156716600</v>
+          </cell>
+          <cell r="C3">
+            <v>167976040</v>
+          </cell>
+          <cell r="D3">
+            <v>183715880</v>
+          </cell>
+          <cell r="E3">
+            <v>187651428</v>
+          </cell>
+          <cell r="F3">
+            <v>194953119</v>
+          </cell>
+          <cell r="G3">
+            <v>204027579</v>
+          </cell>
+          <cell r="H3">
+            <v>211944467</v>
+          </cell>
+          <cell r="I3">
+            <v>224458726</v>
+          </cell>
+          <cell r="J3">
+            <v>237583497</v>
+          </cell>
+          <cell r="K3">
+            <v>246965271</v>
+          </cell>
+          <cell r="L3">
+            <v>253048448</v>
+          </cell>
+          <cell r="M3">
+            <v>259934115</v>
+          </cell>
+          <cell r="N3">
+            <v>260625937</v>
+          </cell>
+          <cell r="O3">
+            <v>263067911</v>
+          </cell>
+          <cell r="P3">
+            <v>253919348</v>
+          </cell>
+          <cell r="Q3">
+            <v>246326325</v>
+          </cell>
+          <cell r="R3">
+            <v>229140550</v>
+          </cell>
+          <cell r="S3">
+            <v>217313967</v>
+          </cell>
+          <cell r="T3">
+            <v>193782638</v>
+          </cell>
+          <cell r="U3">
+            <v>169863949</v>
+          </cell>
+          <cell r="V3">
+            <v>154658303</v>
+          </cell>
+          <cell r="W3">
+            <v>144174733</v>
+          </cell>
+        </row>
         <row r="4">
           <cell r="B4">
-            <v>156716600</v>
+            <v>83860335346.247116</v>
           </cell>
           <cell r="C4">
-            <v>167976040</v>
+            <v>88243037645.415298</v>
           </cell>
           <cell r="D4">
-            <v>183715880</v>
+            <v>104432410000.00002</v>
           </cell>
           <cell r="E4">
-            <v>187651428</v>
+            <v>113914397673</v>
           </cell>
           <cell r="F4">
-            <v>194953119</v>
+            <v>128182380208</v>
           </cell>
           <cell r="G4">
-            <v>204027579</v>
+            <v>141266597589</v>
           </cell>
           <cell r="H4">
-            <v>211944467</v>
+            <v>152741116253</v>
           </cell>
           <cell r="I4">
-            <v>224458726</v>
+            <v>172377484435</v>
           </cell>
           <cell r="J4">
-            <v>237583497</v>
+            <v>194816933897</v>
           </cell>
           <cell r="K4">
-            <v>246965271</v>
+            <v>214803554568</v>
           </cell>
           <cell r="L4">
-            <v>253048448</v>
+            <v>227757668789</v>
           </cell>
           <cell r="M4">
-            <v>259934115</v>
+            <v>245404960604</v>
           </cell>
           <cell r="N4">
-            <v>260625937</v>
+            <v>246463188398</v>
           </cell>
           <cell r="O4">
-            <v>263067911</v>
+            <v>239867616739</v>
           </cell>
           <cell r="P4">
-            <v>253919348</v>
+            <v>228965844787</v>
           </cell>
           <cell r="Q4">
-            <v>246326325</v>
+            <v>221271525079</v>
           </cell>
           <cell r="R4">
-            <v>229140550</v>
+            <v>209409702158</v>
           </cell>
           <cell r="S4">
-            <v>217313967</v>
+            <v>197124327717</v>
           </cell>
           <cell r="T4">
-            <v>193782638</v>
+            <v>170285611746</v>
           </cell>
           <cell r="U4">
-            <v>169863949</v>
+            <v>141100706124</v>
           </cell>
           <cell r="V4">
-            <v>154658303</v>
+            <v>120407890118</v>
           </cell>
           <cell r="W4">
-            <v>144174733</v>
+            <v>110314545203</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>83860335346.247116</v>
+            <v>0</v>
           </cell>
           <cell r="C5">
-            <v>88243037645.415298</v>
+            <v>0</v>
           </cell>
           <cell r="D5">
-            <v>104432410000.00002</v>
+            <v>0</v>
           </cell>
           <cell r="E5">
-            <v>113914397673</v>
+            <v>0</v>
           </cell>
           <cell r="F5">
-            <v>128182380208</v>
+            <v>0</v>
           </cell>
           <cell r="G5">
-            <v>141266597589</v>
+            <v>0</v>
           </cell>
           <cell r="H5">
-            <v>152741116253</v>
+            <v>0</v>
           </cell>
           <cell r="I5">
-            <v>172377484435</v>
+            <v>0</v>
           </cell>
           <cell r="J5">
-            <v>194816933897</v>
+            <v>0</v>
           </cell>
           <cell r="K5">
-            <v>214803554568</v>
+            <v>0</v>
           </cell>
           <cell r="L5">
-            <v>227757668789</v>
+            <v>1.2868150677794213E-4</v>
           </cell>
           <cell r="M5">
-            <v>245404960604</v>
+            <v>3.0440046129983321E-2</v>
           </cell>
           <cell r="N5">
-            <v>246463188398</v>
+            <v>0.10357235362782942</v>
           </cell>
           <cell r="O5">
-            <v>239867616739</v>
+            <v>9.0387600251146713E-2</v>
           </cell>
           <cell r="P5">
-            <v>228965844787</v>
+            <v>8.5121503878147764E-2</v>
           </cell>
           <cell r="Q5">
-            <v>221271525079</v>
+            <v>7.9822156563950336E-2</v>
           </cell>
           <cell r="R5">
-            <v>209409702158</v>
+            <v>7.5699132306866743E-2</v>
           </cell>
           <cell r="S5">
-            <v>197124327717</v>
+            <v>7.0648063363307451E-2</v>
           </cell>
           <cell r="T5">
-            <v>170285611746</v>
+            <v>6.5304469508482815E-2</v>
           </cell>
           <cell r="U5">
-            <v>141100706124</v>
+            <v>6.2178924571006849E-2</v>
           </cell>
           <cell r="V5">
-            <v>120407890118</v>
+            <v>5.5745186078936089E-2</v>
           </cell>
           <cell r="W5">
-            <v>110314545203</v>
+            <v>4.9272336100354815E-2</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>0</v>
+            <v>50608436.274199456</v>
           </cell>
           <cell r="C6">
-            <v>0</v>
+            <v>54244443.255739212</v>
           </cell>
           <cell r="D6">
-            <v>0</v>
+            <v>59327304.226472974</v>
           </cell>
           <cell r="E6">
-            <v>0</v>
+            <v>60598209.351788692</v>
           </cell>
           <cell r="F6">
-            <v>0</v>
+            <v>62956141.84692575</v>
           </cell>
           <cell r="G6">
-            <v>0</v>
+            <v>65886554.008960731</v>
           </cell>
           <cell r="H6">
-            <v>0</v>
+            <v>68443151.853975073</v>
           </cell>
           <cell r="I6">
-            <v>0</v>
+            <v>72484377.091890693</v>
           </cell>
           <cell r="J6">
-            <v>0</v>
+            <v>71731564.967042297</v>
           </cell>
           <cell r="K6">
-            <v>0</v>
+            <v>71966640.718910307</v>
           </cell>
           <cell r="L6">
-            <v>1.2868150677794213E-4</v>
+            <v>70242672.282253996</v>
           </cell>
           <cell r="M6">
-            <v>3.0440046129983321E-2</v>
+            <v>72196826.934210598</v>
           </cell>
           <cell r="N6">
-            <v>0.10357235362782942</v>
+            <v>72354218.425861493</v>
           </cell>
           <cell r="O6">
-            <v>9.0387600251146713E-2</v>
+            <v>72620520.514616698</v>
           </cell>
           <cell r="P6">
-            <v>8.5121503878147764E-2</v>
+            <v>69782268.831006601</v>
           </cell>
           <cell r="Q6">
-            <v>7.9822156563950336E-2</v>
+            <v>68451960.146435499</v>
           </cell>
           <cell r="R6">
-            <v>7.5699132306866743E-2</v>
+            <v>67098851.729051702</v>
           </cell>
           <cell r="S6">
-            <v>7.0648063363307451E-2</v>
+            <v>64662029.880932502</v>
           </cell>
           <cell r="T6">
-            <v>6.5304469508482815E-2</v>
+            <v>57543442.3193608</v>
           </cell>
           <cell r="U6">
-            <v>6.2178924571006849E-2</v>
+            <v>50847486.582352601</v>
           </cell>
           <cell r="V6">
-            <v>5.5745186078936089E-2</v>
-          </cell>
-          <cell r="W6">
-            <v>4.9272336100354815E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>50608436.274199456</v>
-          </cell>
-          <cell r="C7">
-            <v>54244443.255739212</v>
-          </cell>
-          <cell r="D7">
-            <v>59327304.226472974</v>
-          </cell>
-          <cell r="E7">
-            <v>60598209.351788692</v>
-          </cell>
-          <cell r="F7">
-            <v>62956141.84692575</v>
-          </cell>
-          <cell r="G7">
-            <v>65886554.008960731</v>
-          </cell>
-          <cell r="H7">
-            <v>68443151.853975073</v>
-          </cell>
-          <cell r="I7">
-            <v>72484377.091890693</v>
-          </cell>
-          <cell r="J7">
-            <v>71731564.967042297</v>
-          </cell>
-          <cell r="K7">
-            <v>71966640.718910307</v>
-          </cell>
-          <cell r="L7">
-            <v>70242672.282253996</v>
-          </cell>
-          <cell r="M7">
-            <v>72196826.934210598</v>
-          </cell>
-          <cell r="N7">
-            <v>72354218.425861493</v>
-          </cell>
-          <cell r="O7">
-            <v>72620520.514616698</v>
-          </cell>
-          <cell r="P7">
-            <v>69782268.831006601</v>
-          </cell>
-          <cell r="Q7">
-            <v>68451960.146435499</v>
-          </cell>
-          <cell r="R7">
-            <v>67098851.729051702</v>
-          </cell>
-          <cell r="S7">
-            <v>64662029.880932502</v>
-          </cell>
-          <cell r="T7">
-            <v>57543442.3193608</v>
-          </cell>
-          <cell r="U7">
-            <v>50847486.582352601</v>
-          </cell>
-          <cell r="V7">
             <v>45900215</v>
           </cell>
         </row>
@@ -9200,8 +9213,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -9209,7 +9221,21 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AP669" totalsRowShown="0">
-  <autoFilter ref="A1:AP669" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="A1:AP669" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="C"/>
+        <filter val="L"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="ACAL"/>
+        <filter val="ACAL, ASM"/>
+        <filter val="ACAL, ASM, LIT"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="42">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Group"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Variable" dataDxfId="38"/>
@@ -9563,18 +9589,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="117.41796875" customWidth="1"/>
-    <col min="2" max="2" width="62.41796875" customWidth="1"/>
+    <col min="1" max="1" width="117.44140625" customWidth="1"/>
+    <col min="2" max="2" width="62.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="89.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="89.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9582,66 +9608,66 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -9649,80 +9675,80 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="21"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -9730,7 +9756,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -9738,7 +9764,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -9749,7 +9775,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -9760,7 +9786,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -9771,7 +9797,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
@@ -9782,7 +9808,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
@@ -9793,7 +9819,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
@@ -9804,7 +9830,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -9815,7 +9841,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
         <v>53</v>
       </c>
@@ -9826,7 +9852,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
         <v>56</v>
       </c>
@@ -9837,7 +9863,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
@@ -9848,7 +9874,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>62</v>
       </c>
@@ -9859,435 +9885,435 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="23"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="23"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="23"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="23"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="23"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="23"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="23"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="23"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="23"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="23"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="23"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="23"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="23"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="23"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="23"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="23"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="23"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="23"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="23"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="23"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="23"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="23"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="23"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="23"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="23"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="23"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="23"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="23"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="23"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="23"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="23"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="23"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="23"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="23"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="23"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="23"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="23"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="23"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="23"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="23"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="23"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="23"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="23"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="23"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="23"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="23"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="23"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="23"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="23"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="23"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="23"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="23"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="23"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="23"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="23"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="23"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="23"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="23"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="23"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="23"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="23"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="23"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="23"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="23"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="23"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="23"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="23"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="23"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="23"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="23"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="23"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="23"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="23"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="23"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="23"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="23"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="23"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="23"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="23"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="23"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="23"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="23"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="23"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="23"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="23"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="23"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="23"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="23"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="23"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="23"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="23"/>
     </row>
   </sheetData>
@@ -10300,28 +10326,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP669"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G664" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K669" sqref="K669"/>
+    <sheetView tabSelected="1" topLeftCell="A290" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B422" sqref="B422"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.83984375" customWidth="1"/>
-    <col min="2" max="2" width="24.68359375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83984375" customWidth="1"/>
-    <col min="4" max="4" width="8.578125" customWidth="1"/>
-    <col min="5" max="5" width="8.83984375" customWidth="1"/>
-    <col min="6" max="6" width="54.41796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="54.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="19" style="1" customWidth="1"/>
-    <col min="8" max="8" width="54.41796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.68359375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="52.68359375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.20703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="52.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>96</v>
       </c>
@@ -10449,7 +10477,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -10503,7 +10531,7 @@
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
     </row>
-    <row r="3" spans="1:42" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:42" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>138</v>
       </c>
@@ -10557,7 +10585,7 @@
       <c r="AO3" s="1"/>
       <c r="AP3" s="1"/>
     </row>
-    <row r="4" spans="1:42" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:42" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -10614,7 +10642,7 @@
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
     </row>
-    <row r="5" spans="1:42" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:42" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -10668,7 +10696,7 @@
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
     </row>
-    <row r="6" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>155</v>
       </c>
@@ -10694,91 +10722,91 @@
         <v>164</v>
       </c>
       <c r="K6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!B$6</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!B$5</f>
         <v>0</v>
       </c>
       <c r="L6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!C$6</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!C$5</f>
         <v>0</v>
       </c>
       <c r="M6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!D$6</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!D$5</f>
         <v>0</v>
       </c>
       <c r="N6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!E$6</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!E$5</f>
         <v>0</v>
       </c>
       <c r="O6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!F$6</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!F$5</f>
         <v>0</v>
       </c>
       <c r="P6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!G$6</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!G$5</f>
         <v>0</v>
       </c>
       <c r="Q6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!H$6</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!H$5</f>
         <v>0</v>
       </c>
       <c r="R6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!I$6</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!I$5</f>
         <v>0</v>
       </c>
       <c r="S6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!J$6</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!J$5</f>
         <v>0</v>
       </c>
       <c r="T6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!K$6</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!K$5</f>
         <v>0</v>
       </c>
       <c r="U6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!L$6</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!L$5</f>
         <v>1.2868150677794213E-4</v>
       </c>
       <c r="V6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!M$6</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!M$5</f>
         <v>3.0440046129983321E-2</v>
       </c>
       <c r="W6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!N$6</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!N$5</f>
         <v>0.10357235362782942</v>
       </c>
       <c r="X6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!O$6</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!O$5</f>
         <v>9.0387600251146713E-2</v>
       </c>
       <c r="Y6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!P$6</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!P$5</f>
         <v>8.5121503878147764E-2</v>
       </c>
       <c r="Z6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!Q$6</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!Q$5</f>
         <v>7.9822156563950336E-2</v>
       </c>
       <c r="AA6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!R$6</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!R$5</f>
         <v>7.5699132306866743E-2</v>
       </c>
       <c r="AB6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!S$6</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!S$5</f>
         <v>7.0648063363307451E-2</v>
       </c>
       <c r="AC6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!T$6</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!T$5</f>
         <v>6.5304469508482815E-2</v>
       </c>
       <c r="AD6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!U$6</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!U$5</f>
         <v>6.2178924571006849E-2</v>
       </c>
       <c r="AE6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!V$6</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!V$5</f>
         <v>5.5745186078936089E-2</v>
       </c>
       <c r="AF6" s="5">
-        <f>'[1]Opioid Rx Data IQVIA SH'!W$6</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!W$5</f>
         <v>4.9272336100354815E-2</v>
       </c>
       <c r="AG6" s="1"/>
@@ -10792,7 +10820,7 @@
       <c r="AO6" s="1"/>
       <c r="AP6" s="1"/>
     </row>
-    <row r="7" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>138</v>
       </c>
@@ -10849,7 +10877,7 @@
       <c r="AO7" s="1"/>
       <c r="AP7" s="1"/>
     </row>
-    <row r="8" spans="1:42" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:42" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>138</v>
       </c>
@@ -10906,7 +10934,7 @@
       <c r="AO8" s="1"/>
       <c r="AP8" s="1"/>
     </row>
-    <row r="9" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>138</v>
       </c>
@@ -10963,7 +10991,7 @@
       <c r="AO9" s="1"/>
       <c r="AP9" s="1"/>
     </row>
-    <row r="10" spans="1:42" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:42" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>138</v>
       </c>
@@ -11026,7 +11054,7 @@
       <c r="AO10" s="1"/>
       <c r="AP10" s="1"/>
     </row>
-    <row r="11" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>155</v>
       </c>
@@ -11080,7 +11108,7 @@
       <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
     </row>
-    <row r="12" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>138</v>
       </c>
@@ -11134,7 +11162,7 @@
       <c r="AO12" s="1"/>
       <c r="AP12" s="1"/>
     </row>
-    <row r="13" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>138</v>
       </c>
@@ -11188,7 +11216,7 @@
       <c r="AO13" s="1"/>
       <c r="AP13" s="1"/>
     </row>
-    <row r="14" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -11248,7 +11276,7 @@
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
     </row>
-    <row r="15" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>138</v>
       </c>
@@ -11302,7 +11330,7 @@
       <c r="AO15" s="1"/>
       <c r="AP15" s="1"/>
     </row>
-    <row r="16" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -11356,7 +11384,7 @@
       <c r="AO16" s="1"/>
       <c r="AP16" s="1"/>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -11413,7 +11441,7 @@
       <c r="AO17" s="1"/>
       <c r="AP17" s="1"/>
     </row>
-    <row r="18" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>138</v>
       </c>
@@ -11467,7 +11495,7 @@
       <c r="AO18" s="1"/>
       <c r="AP18" s="1"/>
     </row>
-    <row r="19" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>138</v>
       </c>
@@ -11524,7 +11552,7 @@
       <c r="AO19" s="1"/>
       <c r="AP19" s="1"/>
     </row>
-    <row r="20" spans="1:42" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:42" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>138</v>
       </c>
@@ -11584,7 +11612,7 @@
       <c r="AO20" s="1"/>
       <c r="AP20" s="1"/>
     </row>
-    <row r="21" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>138</v>
       </c>
@@ -11638,7 +11666,7 @@
       <c r="AO21" s="1"/>
       <c r="AP21" s="1"/>
     </row>
-    <row r="22" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>138</v>
       </c>
@@ -11698,7 +11726,7 @@
       <c r="AO22" s="1"/>
       <c r="AP22" s="1"/>
     </row>
-    <row r="23" spans="1:42" ht="144" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:42" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>229</v>
       </c>
@@ -11752,7 +11780,7 @@
       <c r="AO23" s="1"/>
       <c r="AP23" s="1"/>
     </row>
-    <row r="24" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>138</v>
       </c>
@@ -11806,7 +11834,7 @@
       <c r="AO24" s="1"/>
       <c r="AP24" s="1"/>
     </row>
-    <row r="25" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -11866,7 +11894,7 @@
       <c r="AO25" s="1"/>
       <c r="AP25" s="1"/>
     </row>
-    <row r="26" spans="1:42" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:42" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>138</v>
       </c>
@@ -11926,7 +11954,7 @@
       <c r="AO26" s="1"/>
       <c r="AP26" s="1"/>
     </row>
-    <row r="27" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -11980,7 +12008,7 @@
       <c r="AO27" s="1"/>
       <c r="AP27" s="1"/>
     </row>
-    <row r="28" spans="1:42" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:42" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>138</v>
       </c>
@@ -12040,7 +12068,7 @@
       <c r="AO28" s="1"/>
       <c r="AP28" s="1"/>
     </row>
-    <row r="29" spans="1:42" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:42" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -12094,7 +12122,7 @@
       <c r="AO29" s="1"/>
       <c r="AP29" s="1"/>
     </row>
-    <row r="30" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>138</v>
       </c>
@@ -12148,7 +12176,7 @@
       <c r="AO30" s="1"/>
       <c r="AP30" s="1"/>
     </row>
-    <row r="31" spans="1:42" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:42" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -12202,7 +12230,7 @@
       <c r="AO31" s="1"/>
       <c r="AP31" s="1"/>
     </row>
-    <row r="32" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>138</v>
       </c>
@@ -12260,7 +12288,7 @@
       <c r="AO32" s="1"/>
       <c r="AP32" s="1"/>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>138</v>
       </c>
@@ -12314,7 +12342,7 @@
       <c r="AO33" s="1"/>
       <c r="AP33" s="1"/>
     </row>
-    <row r="34" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -12368,7 +12396,7 @@
       <c r="AO34" s="1"/>
       <c r="AP34" s="1"/>
     </row>
-    <row r="35" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>155</v>
       </c>
@@ -12422,7 +12450,7 @@
       <c r="AO35" s="1"/>
       <c r="AP35" s="1"/>
     </row>
-    <row r="36" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>155</v>
       </c>
@@ -12546,7 +12574,7 @@
       <c r="AO36" s="1"/>
       <c r="AP36" s="1"/>
     </row>
-    <row r="37" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>138</v>
       </c>
@@ -12603,7 +12631,7 @@
       <c r="AO37" s="1"/>
       <c r="AP37" s="1"/>
     </row>
-    <row r="38" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>138</v>
       </c>
@@ -12657,7 +12685,7 @@
       <c r="AO38" s="1"/>
       <c r="AP38" s="1"/>
     </row>
-    <row r="39" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>138</v>
       </c>
@@ -12711,7 +12739,7 @@
       <c r="AO39" s="1"/>
       <c r="AP39" s="1"/>
     </row>
-    <row r="40" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>138</v>
       </c>
@@ -12768,7 +12796,7 @@
       <c r="AO40" s="1"/>
       <c r="AP40" s="1"/>
     </row>
-    <row r="41" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>138</v>
       </c>
@@ -12819,7 +12847,7 @@
       <c r="AO41" s="1"/>
       <c r="AP41" s="1"/>
     </row>
-    <row r="42" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -12873,7 +12901,7 @@
       <c r="AO42" s="1"/>
       <c r="AP42" s="1"/>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>138</v>
       </c>
@@ -12924,7 +12952,7 @@
       <c r="AO43" s="1"/>
       <c r="AP43" s="1"/>
     </row>
-    <row r="44" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>138</v>
       </c>
@@ -12978,7 +13006,7 @@
       <c r="AO44" s="1"/>
       <c r="AP44" s="1"/>
     </row>
-    <row r="45" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>138</v>
       </c>
@@ -13029,7 +13057,7 @@
       <c r="AO45" s="1"/>
       <c r="AP45" s="1"/>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>138</v>
       </c>
@@ -13083,7 +13111,7 @@
       <c r="AO46" s="1"/>
       <c r="AP46" s="1"/>
     </row>
-    <row r="47" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>138</v>
       </c>
@@ -13131,7 +13159,7 @@
       <c r="AO47" s="1"/>
       <c r="AP47" s="1"/>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>229</v>
       </c>
@@ -13182,7 +13210,7 @@
       <c r="AO48" s="1"/>
       <c r="AP48" s="1"/>
     </row>
-    <row r="49" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>229</v>
       </c>
@@ -13230,7 +13258,7 @@
       <c r="AO49" s="1"/>
       <c r="AP49" s="1"/>
     </row>
-    <row r="50" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>229</v>
       </c>
@@ -13284,7 +13312,7 @@
       <c r="AO50" s="1"/>
       <c r="AP50" s="1"/>
     </row>
-    <row r="51" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>138</v>
       </c>
@@ -13338,7 +13366,7 @@
       <c r="AO51" s="1"/>
       <c r="AP51" s="1"/>
     </row>
-    <row r="52" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>138</v>
       </c>
@@ -13395,7 +13423,7 @@
       <c r="AO52" s="1"/>
       <c r="AP52" s="1"/>
     </row>
-    <row r="53" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>138</v>
       </c>
@@ -13449,7 +13477,7 @@
       <c r="AO53" s="1"/>
       <c r="AP53" s="1"/>
     </row>
-    <row r="54" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>138</v>
       </c>
@@ -13503,7 +13531,7 @@
       <c r="AO54" s="1"/>
       <c r="AP54" s="1"/>
     </row>
-    <row r="55" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>138</v>
       </c>
@@ -13557,7 +13585,7 @@
       <c r="AO55" s="1"/>
       <c r="AP55" s="1"/>
     </row>
-    <row r="56" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>138</v>
       </c>
@@ -13611,7 +13639,7 @@
       <c r="AO56" s="1"/>
       <c r="AP56" s="1"/>
     </row>
-    <row r="57" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>138</v>
       </c>
@@ -13665,7 +13693,7 @@
       <c r="AO57" s="1"/>
       <c r="AP57" s="1"/>
     </row>
-    <row r="58" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>138</v>
       </c>
@@ -13716,7 +13744,7 @@
       <c r="AO58" s="1"/>
       <c r="AP58" s="1"/>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>138</v>
       </c>
@@ -13767,7 +13795,7 @@
       <c r="AO59" s="1"/>
       <c r="AP59" s="1"/>
     </row>
-    <row r="60" spans="1:42" ht="187.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:42" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>138</v>
       </c>
@@ -13830,7 +13858,7 @@
       <c r="AO60" s="1"/>
       <c r="AP60" s="1"/>
     </row>
-    <row r="61" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>138</v>
       </c>
@@ -13884,7 +13912,7 @@
       <c r="AO61" s="1"/>
       <c r="AP61" s="1"/>
     </row>
-    <row r="62" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>138</v>
       </c>
@@ -13938,7 +13966,7 @@
       <c r="AO62" s="1"/>
       <c r="AP62" s="1"/>
     </row>
-    <row r="63" spans="1:42" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:42" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>138</v>
       </c>
@@ -13998,7 +14026,7 @@
       <c r="AO63" s="1"/>
       <c r="AP63" s="1"/>
     </row>
-    <row r="64" spans="1:42" ht="216" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:42" ht="230.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>138</v>
       </c>
@@ -14058,7 +14086,7 @@
       <c r="AO64" s="1"/>
       <c r="AP64" s="1"/>
     </row>
-    <row r="65" spans="1:42" ht="151.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:42" ht="151.94999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>138</v>
       </c>
@@ -14121,7 +14149,7 @@
       <c r="AO65" s="1"/>
       <c r="AP65" s="1"/>
     </row>
-    <row r="66" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>138</v>
       </c>
@@ -14175,7 +14203,7 @@
       <c r="AO66" s="1"/>
       <c r="AP66" s="1"/>
     </row>
-    <row r="67" spans="1:42" ht="28.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:42" ht="28.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>138</v>
       </c>
@@ -14229,7 +14257,7 @@
       <c r="AO67" s="1"/>
       <c r="AP67" s="1"/>
     </row>
-    <row r="68" spans="1:42" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:42" ht="16.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>138</v>
       </c>
@@ -14283,7 +14311,7 @@
       <c r="AO68" s="1"/>
       <c r="AP68" s="1"/>
     </row>
-    <row r="69" spans="1:42" ht="25.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:42" ht="25.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>138</v>
       </c>
@@ -14337,7 +14365,7 @@
       <c r="AO69" s="1"/>
       <c r="AP69" s="1"/>
     </row>
-    <row r="70" spans="1:42" ht="25.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:42" ht="25.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>229</v>
       </c>
@@ -14388,7 +14416,7 @@
       <c r="AO70" s="1"/>
       <c r="AP70" s="1"/>
     </row>
-    <row r="71" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>138</v>
       </c>
@@ -14448,7 +14476,7 @@
       <c r="AO71" s="1"/>
       <c r="AP71" s="1"/>
     </row>
-    <row r="72" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>138</v>
       </c>
@@ -14511,7 +14539,7 @@
       <c r="AO72" s="1"/>
       <c r="AP72" s="1"/>
     </row>
-    <row r="73" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>155</v>
       </c>
@@ -14565,7 +14593,7 @@
       <c r="AO73" s="1"/>
       <c r="AP73" s="1"/>
     </row>
-    <row r="74" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>155</v>
       </c>
@@ -14625,7 +14653,7 @@
       <c r="AO74" s="1"/>
       <c r="AP74" s="1"/>
     </row>
-    <row r="75" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>155</v>
       </c>
@@ -14679,7 +14707,7 @@
       <c r="AO75" s="1"/>
       <c r="AP75" s="1"/>
     </row>
-    <row r="76" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>155</v>
       </c>
@@ -14803,7 +14831,7 @@
       <c r="AO76" s="1"/>
       <c r="AP76" s="1"/>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>402</v>
       </c>
@@ -14857,7 +14885,7 @@
       <c r="AO77" s="1"/>
       <c r="AP77" s="1"/>
     </row>
-    <row r="78" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>138</v>
       </c>
@@ -14911,7 +14939,7 @@
       <c r="AO78" s="1"/>
       <c r="AP78" s="1"/>
     </row>
-    <row r="79" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>138</v>
       </c>
@@ -14968,7 +14996,7 @@
       <c r="AO79" s="1"/>
       <c r="AP79" s="1"/>
     </row>
-    <row r="80" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>138</v>
       </c>
@@ -15022,7 +15050,7 @@
       <c r="AO80" s="1"/>
       <c r="AP80" s="1"/>
     </row>
-    <row r="81" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>412</v>
       </c>
@@ -15079,7 +15107,7 @@
       <c r="AO81" s="1"/>
       <c r="AP81" s="1"/>
     </row>
-    <row r="82" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>138</v>
       </c>
@@ -15133,7 +15161,7 @@
       <c r="AO82" s="1"/>
       <c r="AP82" s="1"/>
     </row>
-    <row r="83" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>412</v>
       </c>
@@ -15190,7 +15218,7 @@
       <c r="AO83" s="1"/>
       <c r="AP83" s="1"/>
     </row>
-    <row r="84" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>138</v>
       </c>
@@ -15244,7 +15272,7 @@
       <c r="AO84" s="1"/>
       <c r="AP84" s="1"/>
     </row>
-    <row r="85" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>412</v>
       </c>
@@ -15301,7 +15329,7 @@
       <c r="AO85" s="1"/>
       <c r="AP85" s="1"/>
     </row>
-    <row r="86" spans="1:42" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:42" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>138</v>
       </c>
@@ -15358,7 +15386,7 @@
       <c r="AO86" s="1"/>
       <c r="AP86" s="1"/>
     </row>
-    <row r="87" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>412</v>
       </c>
@@ -15415,7 +15443,7 @@
       <c r="AO87" s="1"/>
       <c r="AP87" s="1"/>
     </row>
-    <row r="88" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>138</v>
       </c>
@@ -15469,7 +15497,7 @@
       <c r="AO88" s="1"/>
       <c r="AP88" s="1"/>
     </row>
-    <row r="89" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>412</v>
       </c>
@@ -15526,7 +15554,7 @@
       <c r="AO89" s="1"/>
       <c r="AP89" s="1"/>
     </row>
-    <row r="90" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>155</v>
       </c>
@@ -15644,7 +15672,7 @@
       <c r="AO90" s="1"/>
       <c r="AP90" s="1"/>
     </row>
-    <row r="91" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>138</v>
       </c>
@@ -15701,7 +15729,7 @@
       <c r="AO91" s="1"/>
       <c r="AP91" s="1"/>
     </row>
-    <row r="92" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>155</v>
       </c>
@@ -15822,7 +15850,7 @@
       <c r="AO92" s="1"/>
       <c r="AP92" s="1"/>
     </row>
-    <row r="93" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>138</v>
       </c>
@@ -15879,7 +15907,7 @@
       <c r="AO93" s="1"/>
       <c r="AP93" s="1"/>
     </row>
-    <row r="94" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>138</v>
       </c>
@@ -15930,7 +15958,7 @@
       <c r="AO94" s="1"/>
       <c r="AP94" s="1"/>
     </row>
-    <row r="95" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>138</v>
       </c>
@@ -15987,7 +16015,7 @@
       <c r="AO95" s="1"/>
       <c r="AP95" s="1"/>
     </row>
-    <row r="96" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>138</v>
       </c>
@@ -16041,7 +16069,7 @@
       <c r="AO96" s="1"/>
       <c r="AP96" s="1"/>
     </row>
-    <row r="97" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>138</v>
       </c>
@@ -16095,7 +16123,7 @@
       <c r="AO97" s="1"/>
       <c r="AP97" s="1"/>
     </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>138</v>
       </c>
@@ -16146,7 +16174,7 @@
       <c r="AO98" s="1"/>
       <c r="AP98" s="1"/>
     </row>
-    <row r="99" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>138</v>
       </c>
@@ -16203,7 +16231,7 @@
       <c r="AO99" s="1"/>
       <c r="AP99" s="1"/>
     </row>
-    <row r="100" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>138</v>
       </c>
@@ -16260,7 +16288,7 @@
       <c r="AO100" s="1"/>
       <c r="AP100" s="1"/>
     </row>
-    <row r="101" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>138</v>
       </c>
@@ -16317,7 +16345,7 @@
       <c r="AO101" s="1"/>
       <c r="AP101" s="1"/>
     </row>
-    <row r="102" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>155</v>
       </c>
@@ -16371,7 +16399,7 @@
       <c r="AO102" s="1"/>
       <c r="AP102" s="1"/>
     </row>
-    <row r="103" spans="1:42" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:42" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>155</v>
       </c>
@@ -16495,7 +16523,7 @@
       <c r="AO103" s="1"/>
       <c r="AP103" s="1"/>
     </row>
-    <row r="104" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>138</v>
       </c>
@@ -16549,7 +16577,7 @@
       <c r="AO104" s="1"/>
       <c r="AP104" s="1"/>
     </row>
-    <row r="105" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>412</v>
       </c>
@@ -16606,7 +16634,7 @@
       <c r="AO105" s="1"/>
       <c r="AP105" s="1"/>
     </row>
-    <row r="106" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>138</v>
       </c>
@@ -16657,7 +16685,7 @@
       <c r="AO106" s="1"/>
       <c r="AP106" s="1"/>
     </row>
-    <row r="107" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>138</v>
       </c>
@@ -16711,7 +16739,7 @@
       <c r="AO107" s="1"/>
       <c r="AP107" s="1"/>
     </row>
-    <row r="108" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>138</v>
       </c>
@@ -16765,7 +16793,7 @@
       <c r="AO108" s="1"/>
       <c r="AP108" s="1"/>
     </row>
-    <row r="109" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>138</v>
       </c>
@@ -16825,7 +16853,7 @@
       <c r="AO109" s="1"/>
       <c r="AP109" s="1"/>
     </row>
-    <row r="110" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>138</v>
       </c>
@@ -16876,7 +16904,7 @@
       <c r="AO110" s="1"/>
       <c r="AP110" s="1"/>
     </row>
-    <row r="111" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>138</v>
       </c>
@@ -16936,7 +16964,7 @@
       <c r="AO111" s="1"/>
       <c r="AP111" s="1"/>
     </row>
-    <row r="112" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>138</v>
       </c>
@@ -16990,7 +17018,7 @@
       <c r="AO112" s="1"/>
       <c r="AP112" s="1"/>
     </row>
-    <row r="113" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>412</v>
       </c>
@@ -17114,7 +17142,7 @@
       <c r="AO113" s="1"/>
       <c r="AP113" s="1"/>
     </row>
-    <row r="114" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>412</v>
       </c>
@@ -17133,26 +17161,91 @@
       <c r="F114" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L114" s="1"/>
-      <c r="M114" s="1"/>
-      <c r="N114" s="1"/>
-      <c r="O114" s="1"/>
-      <c r="P114" s="1"/>
-      <c r="Q114" s="1"/>
-      <c r="R114" s="1"/>
-      <c r="S114" s="1"/>
-      <c r="T114" s="1"/>
-      <c r="U114" s="1"/>
-      <c r="V114" s="1"/>
-      <c r="W114" s="1"/>
-      <c r="X114" s="1"/>
-      <c r="Y114" s="1"/>
-      <c r="Z114" s="1"/>
-      <c r="AA114" s="1"/>
-      <c r="AB114" s="1"/>
-      <c r="AC114" s="1"/>
-      <c r="AD114" s="1"/>
-      <c r="AE114" s="1"/>
+      <c r="H114" s="1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="K114" s="6">
+        <f>'[1]RAND Adjusted Estimates'!B$2</f>
+        <v>737348.72370526451</v>
+      </c>
+      <c r="L114" s="6">
+        <f>'[1]RAND Adjusted Estimates'!C$2</f>
+        <v>670983.54912418628</v>
+      </c>
+      <c r="M114" s="6">
+        <f>'[1]RAND Adjusted Estimates'!D$2</f>
+        <v>732226.9959257741</v>
+      </c>
+      <c r="N114" s="6">
+        <f>'[1]RAND Adjusted Estimates'!E$2</f>
+        <v>764684.39245923271</v>
+      </c>
+      <c r="O114" s="6">
+        <f>'[1]RAND Adjusted Estimates'!F$2</f>
+        <v>673043.85125278018</v>
+      </c>
+      <c r="P114" s="6">
+        <f>'[1]RAND Adjusted Estimates'!G$2</f>
+        <v>882617.72652719344</v>
+      </c>
+      <c r="Q114" s="6">
+        <f>'[1]RAND Adjusted Estimates'!H$2</f>
+        <v>728787.3099795162</v>
+      </c>
+      <c r="R114" s="6">
+        <f>'[1]RAND Adjusted Estimates'!I$2</f>
+        <v>995374.01559201255</v>
+      </c>
+      <c r="S114" s="6">
+        <f>'[1]RAND Adjusted Estimates'!J$2</f>
+        <v>772412.62550478789</v>
+      </c>
+      <c r="T114" s="6">
+        <f>'[1]RAND Adjusted Estimates'!K$2</f>
+        <v>1024666.0100058218</v>
+      </c>
+      <c r="U114" s="6">
+        <f>'[1]RAND Adjusted Estimates'!L$2</f>
+        <v>1316792.5968868218</v>
+      </c>
+      <c r="V114" s="6">
+        <f>'[1]RAND Adjusted Estimates'!M$2</f>
+        <v>1335599.830687297</v>
+      </c>
+      <c r="W114" s="6">
+        <f>'[1]RAND Adjusted Estimates'!N$2</f>
+        <v>1590808.859871615</v>
+      </c>
+      <c r="X114" s="6">
+        <f>'[1]RAND Adjusted Estimates'!O$2</f>
+        <v>1565981.4445320296</v>
+      </c>
+      <c r="Y114" s="6">
+        <f>'[1]RAND Adjusted Estimates'!P$2</f>
+        <v>1667232.4977665495</v>
+      </c>
+      <c r="Z114" s="6">
+        <f>'[1]RAND Adjusted Estimates'!Q$2</f>
+        <v>1936510.395643299</v>
+      </c>
+      <c r="AA114" s="6">
+        <f>'[1]RAND Adjusted Estimates'!R$2</f>
+        <v>1923866.4588087033</v>
+      </c>
+      <c r="AB114" s="6">
+        <f>'[1]RAND Adjusted Estimates'!S$2</f>
+        <v>2011537.1025247658</v>
+      </c>
+      <c r="AC114" s="6">
+        <f>'[1]RAND Adjusted Estimates'!T$2</f>
+        <v>2193782.1536960565</v>
+      </c>
+      <c r="AD114" s="6">
+        <v>2193782.1536960565</v>
+      </c>
+      <c r="AE114" s="6">
+        <v>2193782.1536960565</v>
+      </c>
       <c r="AF114" s="1"/>
       <c r="AG114" s="1"/>
       <c r="AH114" s="1"/>
@@ -17165,7 +17258,7 @@
       <c r="AO114" s="1"/>
       <c r="AP114" s="1"/>
     </row>
-    <row r="115" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>138</v>
       </c>
@@ -17219,7 +17312,7 @@
       <c r="AO115" s="1"/>
       <c r="AP115" s="1"/>
     </row>
-    <row r="116" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>138</v>
       </c>
@@ -17282,7 +17375,7 @@
       <c r="AO116" s="1"/>
       <c r="AP116" s="1"/>
     </row>
-    <row r="117" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>412</v>
       </c>
@@ -17345,7 +17438,7 @@
       <c r="AO117" s="1"/>
       <c r="AP117" s="1"/>
     </row>
-    <row r="118" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>138</v>
       </c>
@@ -17399,7 +17492,7 @@
       <c r="AO118" s="1"/>
       <c r="AP118" s="1"/>
     </row>
-    <row r="119" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>138</v>
       </c>
@@ -17453,7 +17546,7 @@
       <c r="AO119" s="1"/>
       <c r="AP119" s="1"/>
     </row>
-    <row r="120" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>138</v>
       </c>
@@ -17510,7 +17603,7 @@
       <c r="AO120" s="1"/>
       <c r="AP120" s="1"/>
     </row>
-    <row r="121" spans="1:42" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>412</v>
       </c>
@@ -17570,7 +17663,7 @@
       <c r="AO121" s="1"/>
       <c r="AP121" s="1"/>
     </row>
-    <row r="122" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>138</v>
       </c>
@@ -17621,7 +17714,7 @@
       <c r="AO122" s="1"/>
       <c r="AP122" s="1"/>
     </row>
-    <row r="123" spans="1:42" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>412</v>
       </c>
@@ -17681,7 +17774,7 @@
       <c r="AO123" s="1"/>
       <c r="AP123" s="1"/>
     </row>
-    <row r="124" spans="1:42" ht="35.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:42" ht="35.549999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>138</v>
       </c>
@@ -17735,7 +17828,7 @@
       <c r="AO124" s="1"/>
       <c r="AP124" s="1"/>
     </row>
-    <row r="125" spans="1:42" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>412</v>
       </c>
@@ -17798,7 +17891,7 @@
       <c r="AO125" s="1"/>
       <c r="AP125" s="1"/>
     </row>
-    <row r="126" spans="1:42" ht="109.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:42" ht="109.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>412</v>
       </c>
@@ -17861,7 +17954,7 @@
       <c r="AO126" s="1"/>
       <c r="AP126" s="1"/>
     </row>
-    <row r="127" spans="1:42" ht="45.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:42" ht="45.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>138</v>
       </c>
@@ -17918,7 +18011,7 @@
       <c r="AO127" s="1"/>
       <c r="AP127" s="1"/>
     </row>
-    <row r="128" spans="1:42" ht="48.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:42" ht="48.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>138</v>
       </c>
@@ -17975,7 +18068,7 @@
       <c r="AO128" s="1"/>
       <c r="AP128" s="1"/>
     </row>
-    <row r="129" spans="1:42" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:42" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>412</v>
       </c>
@@ -18038,7 +18131,7 @@
       <c r="AO129" s="1"/>
       <c r="AP129" s="1"/>
     </row>
-    <row r="130" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>412</v>
       </c>
@@ -18098,7 +18191,7 @@
       <c r="AO130" s="1"/>
       <c r="AP130" s="1"/>
     </row>
-    <row r="131" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>138</v>
       </c>
@@ -18155,7 +18248,7 @@
       <c r="AO131" s="1"/>
       <c r="AP131" s="1"/>
     </row>
-    <row r="132" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -18209,7 +18302,7 @@
       <c r="AO132" s="1"/>
       <c r="AP132" s="1"/>
     </row>
-    <row r="133" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>138</v>
       </c>
@@ -18260,7 +18353,7 @@
       <c r="AO133" s="1"/>
       <c r="AP133" s="1"/>
     </row>
-    <row r="134" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>138</v>
       </c>
@@ -18314,7 +18407,7 @@
       <c r="AO134" s="1"/>
       <c r="AP134" s="1"/>
     </row>
-    <row r="135" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>138</v>
       </c>
@@ -18368,7 +18461,7 @@
       <c r="AO135" s="1"/>
       <c r="AP135" s="1"/>
     </row>
-    <row r="136" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>138</v>
       </c>
@@ -18425,7 +18518,7 @@
       <c r="AO136" s="1"/>
       <c r="AP136" s="1"/>
     </row>
-    <row r="137" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>138</v>
       </c>
@@ -18482,7 +18575,7 @@
       <c r="AO137" s="1"/>
       <c r="AP137" s="1"/>
     </row>
-    <row r="138" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -18533,7 +18626,7 @@
       <c r="AO138" s="1"/>
       <c r="AP138" s="1"/>
     </row>
-    <row r="139" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -18587,7 +18680,7 @@
       <c r="AO139" s="1"/>
       <c r="AP139" s="1"/>
     </row>
-    <row r="140" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -18641,7 +18734,7 @@
       <c r="AO140" s="1"/>
       <c r="AP140" s="1"/>
     </row>
-    <row r="141" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>229</v>
       </c>
@@ -18695,7 +18788,7 @@
       <c r="AO141" s="1"/>
       <c r="AP141" s="1"/>
     </row>
-    <row r="142" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>229</v>
       </c>
@@ -18752,7 +18845,7 @@
       <c r="AO142" s="1"/>
       <c r="AP142" s="1"/>
     </row>
-    <row r="143" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>402</v>
       </c>
@@ -18806,7 +18899,7 @@
       <c r="AO143" s="1"/>
       <c r="AP143" s="1"/>
     </row>
-    <row r="144" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>138</v>
       </c>
@@ -18857,7 +18950,7 @@
       <c r="AO144" s="1"/>
       <c r="AP144" s="1"/>
     </row>
-    <row r="145" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>138</v>
       </c>
@@ -18914,7 +19007,7 @@
       <c r="AO145" s="1"/>
       <c r="AP145" s="1"/>
     </row>
-    <row r="146" spans="1:42" ht="42.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:42" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>138</v>
       </c>
@@ -18974,7 +19067,7 @@
       <c r="AO146" s="1"/>
       <c r="AP146" s="1"/>
     </row>
-    <row r="147" spans="1:42" ht="45.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:42" ht="45.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>412</v>
       </c>
@@ -19025,7 +19118,7 @@
       <c r="AO147" s="1"/>
       <c r="AP147" s="1"/>
     </row>
-    <row r="148" spans="1:42" ht="37.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:42" ht="37.200000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>138</v>
       </c>
@@ -19082,7 +19175,7 @@
       <c r="AO148" s="1"/>
       <c r="AP148" s="1"/>
     </row>
-    <row r="149" spans="1:42" ht="31.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:42" ht="31.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>412</v>
       </c>
@@ -19200,7 +19293,7 @@
       <c r="AO149" s="1"/>
       <c r="AP149" s="1"/>
     </row>
-    <row r="150" spans="1:42" ht="34.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:42" ht="34.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>138</v>
       </c>
@@ -19251,7 +19344,7 @@
       <c r="AO150" s="1"/>
       <c r="AP150" s="1"/>
     </row>
-    <row r="151" spans="1:42" ht="40.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:42" ht="40.200000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>412</v>
       </c>
@@ -19302,7 +19395,7 @@
       <c r="AO151" s="1"/>
       <c r="AP151" s="1"/>
     </row>
-    <row r="152" spans="1:42" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:42" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>412</v>
       </c>
@@ -19423,7 +19516,7 @@
       <c r="AO152" s="1"/>
       <c r="AP152" s="1"/>
     </row>
-    <row r="153" spans="1:42" ht="48.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:42" ht="48.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>138</v>
       </c>
@@ -19474,7 +19567,7 @@
       <c r="AO153" s="1"/>
       <c r="AP153" s="1"/>
     </row>
-    <row r="154" spans="1:42" ht="43.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:42" ht="43.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>412</v>
       </c>
@@ -19528,7 +19621,7 @@
       <c r="AO154" s="1"/>
       <c r="AP154" s="1"/>
     </row>
-    <row r="155" spans="1:42" ht="48.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:42" ht="48.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>412</v>
       </c>
@@ -19652,7 +19745,7 @@
       <c r="AO155" s="1"/>
       <c r="AP155" s="1"/>
     </row>
-    <row r="156" spans="1:42" ht="42.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:42" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>138</v>
       </c>
@@ -19703,7 +19796,7 @@
       <c r="AO156" s="1"/>
       <c r="AP156" s="1"/>
     </row>
-    <row r="157" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>138</v>
       </c>
@@ -19761,7 +19854,7 @@
       <c r="AO157" s="1"/>
       <c r="AP157" s="1"/>
     </row>
-    <row r="158" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>138</v>
       </c>
@@ -19818,7 +19911,7 @@
       <c r="AO158" s="1"/>
       <c r="AP158" s="1"/>
     </row>
-    <row r="159" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>412</v>
       </c>
@@ -19942,7 +20035,7 @@
       <c r="AO159" s="1"/>
       <c r="AP159" s="1"/>
     </row>
-    <row r="160" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>138</v>
       </c>
@@ -19993,7 +20086,7 @@
       <c r="AO160" s="1"/>
       <c r="AP160" s="1"/>
     </row>
-    <row r="161" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>412</v>
       </c>
@@ -20108,7 +20201,7 @@
       <c r="AO161" s="1"/>
       <c r="AP161" s="1"/>
     </row>
-    <row r="162" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>412</v>
       </c>
@@ -20162,7 +20255,7 @@
       <c r="AO162" s="1"/>
       <c r="AP162" s="1"/>
     </row>
-    <row r="163" spans="1:42" ht="230.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:42" ht="230.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>138</v>
       </c>
@@ -20222,7 +20315,7 @@
       <c r="AO163" s="1"/>
       <c r="AP163" s="1"/>
     </row>
-    <row r="164" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>138</v>
       </c>
@@ -20276,7 +20369,7 @@
       <c r="AO164" s="1"/>
       <c r="AP164" s="1"/>
     </row>
-    <row r="165" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>138</v>
       </c>
@@ -20333,7 +20426,7 @@
       <c r="AO165" s="1"/>
       <c r="AP165" s="1"/>
     </row>
-    <row r="166" spans="1:42" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:42" ht="216" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>138</v>
       </c>
@@ -20393,7 +20486,7 @@
       <c r="AO166" s="1"/>
       <c r="AP166" s="1"/>
     </row>
-    <row r="167" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>138</v>
       </c>
@@ -20447,7 +20540,7 @@
       <c r="AO167" s="1"/>
       <c r="AP167" s="1"/>
     </row>
-    <row r="168" spans="1:42" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:42" ht="216" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>138</v>
       </c>
@@ -20507,7 +20600,7 @@
       <c r="AO168" s="1"/>
       <c r="AP168" s="1"/>
     </row>
-    <row r="169" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>138</v>
       </c>
@@ -20567,7 +20660,7 @@
       <c r="AO169" s="1"/>
       <c r="AP169" s="1"/>
     </row>
-    <row r="170" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>138</v>
       </c>
@@ -20621,7 +20714,7 @@
       <c r="AO170" s="1"/>
       <c r="AP170" s="1"/>
     </row>
-    <row r="171" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>138</v>
       </c>
@@ -20675,7 +20768,7 @@
       <c r="AO171" s="1"/>
       <c r="AP171" s="1"/>
     </row>
-    <row r="172" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>229</v>
       </c>
@@ -20723,7 +20816,7 @@
       <c r="AO172" s="1"/>
       <c r="AP172" s="1"/>
     </row>
-    <row r="173" spans="1:42" ht="187.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:42" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>688</v>
       </c>
@@ -20771,7 +20864,7 @@
       <c r="AO173" s="1"/>
       <c r="AP173" s="1"/>
     </row>
-    <row r="174" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>229</v>
       </c>
@@ -20822,7 +20915,7 @@
       <c r="AO174" s="1"/>
       <c r="AP174" s="1"/>
     </row>
-    <row r="175" spans="1:42" ht="36.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:42" ht="36.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>155</v>
       </c>
@@ -20876,7 +20969,7 @@
       <c r="AO175" s="1"/>
       <c r="AP175" s="1"/>
     </row>
-    <row r="176" spans="1:42" ht="32.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:42" ht="32.549999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>155</v>
       </c>
@@ -20927,7 +21020,7 @@
       <c r="AO176" s="1"/>
       <c r="AP176" s="1"/>
     </row>
-    <row r="177" spans="1:42" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:42" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>155</v>
       </c>
@@ -20990,7 +21083,7 @@
       <c r="AO177" s="1"/>
       <c r="AP177" s="1"/>
     </row>
-    <row r="178" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>138</v>
       </c>
@@ -21047,7 +21140,7 @@
       <c r="AO178" s="1"/>
       <c r="AP178" s="1"/>
     </row>
-    <row r="179" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>138</v>
       </c>
@@ -21104,7 +21197,7 @@
       <c r="AO179" s="1"/>
       <c r="AP179" s="1"/>
     </row>
-    <row r="180" spans="1:42" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:42" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>138</v>
       </c>
@@ -21164,7 +21257,7 @@
       <c r="AO180" s="1"/>
       <c r="AP180" s="1"/>
     </row>
-    <row r="181" spans="1:42" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:42" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>138</v>
       </c>
@@ -21224,7 +21317,7 @@
       <c r="AO181" s="1"/>
       <c r="AP181" s="1"/>
     </row>
-    <row r="182" spans="1:42" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:42" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>138</v>
       </c>
@@ -21281,7 +21374,7 @@
       <c r="AO182" s="1"/>
       <c r="AP182" s="1"/>
     </row>
-    <row r="183" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>138</v>
       </c>
@@ -21335,7 +21428,7 @@
       <c r="AO183" s="1"/>
       <c r="AP183" s="1"/>
     </row>
-    <row r="184" spans="1:42" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:42" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>138</v>
       </c>
@@ -21389,7 +21482,7 @@
       <c r="AO184" s="1"/>
       <c r="AP184" s="1"/>
     </row>
-    <row r="185" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>138</v>
       </c>
@@ -21446,7 +21539,7 @@
       <c r="AO185" s="1"/>
       <c r="AP185" s="1"/>
     </row>
-    <row r="186" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>229</v>
       </c>
@@ -21497,7 +21590,7 @@
       <c r="AO186" s="1"/>
       <c r="AP186" s="1"/>
     </row>
-    <row r="187" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>138</v>
       </c>
@@ -21551,7 +21644,7 @@
       <c r="AO187" s="1"/>
       <c r="AP187" s="1"/>
     </row>
-    <row r="188" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>412</v>
       </c>
@@ -21602,7 +21695,7 @@
       <c r="AO188" s="1"/>
       <c r="AP188" s="1"/>
     </row>
-    <row r="189" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>412</v>
       </c>
@@ -21726,7 +21819,7 @@
       <c r="AO189" s="1"/>
       <c r="AP189" s="1"/>
     </row>
-    <row r="190" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>138</v>
       </c>
@@ -21780,7 +21873,7 @@
       <c r="AO190" s="1"/>
       <c r="AP190" s="1"/>
     </row>
-    <row r="191" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>412</v>
       </c>
@@ -21840,7 +21933,7 @@
       <c r="AO191" s="1"/>
       <c r="AP191" s="1"/>
     </row>
-    <row r="192" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>138</v>
       </c>
@@ -21894,7 +21987,7 @@
       <c r="AO192" s="1"/>
       <c r="AP192" s="1"/>
     </row>
-    <row r="193" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>138</v>
       </c>
@@ -21948,7 +22041,7 @@
       <c r="AO193" s="1"/>
       <c r="AP193" s="1"/>
     </row>
-    <row r="194" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>138</v>
       </c>
@@ -21999,7 +22092,7 @@
       <c r="AO194" s="1"/>
       <c r="AP194" s="1"/>
     </row>
-    <row r="195" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>138</v>
       </c>
@@ -22053,7 +22146,7 @@
       <c r="AO195" s="1"/>
       <c r="AP195" s="1"/>
     </row>
-    <row r="196" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>138</v>
       </c>
@@ -22107,7 +22200,7 @@
       <c r="AO196" s="1"/>
       <c r="AP196" s="1"/>
     </row>
-    <row r="197" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>138</v>
       </c>
@@ -22161,7 +22254,7 @@
       <c r="AO197" s="1"/>
       <c r="AP197" s="1"/>
     </row>
-    <row r="198" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>412</v>
       </c>
@@ -22218,7 +22311,7 @@
       <c r="AO198" s="1"/>
       <c r="AP198" s="1"/>
     </row>
-    <row r="199" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>138</v>
       </c>
@@ -22269,7 +22362,7 @@
       <c r="AO199" s="1"/>
       <c r="AP199" s="1"/>
     </row>
-    <row r="200" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>138</v>
       </c>
@@ -22320,7 +22413,7 @@
       <c r="AO200" s="1"/>
       <c r="AP200" s="1"/>
     </row>
-    <row r="201" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>138</v>
       </c>
@@ -22371,7 +22464,7 @@
       <c r="AO201" s="1"/>
       <c r="AP201" s="1"/>
     </row>
-    <row r="202" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>138</v>
       </c>
@@ -22422,7 +22515,7 @@
       <c r="AO202" s="1"/>
       <c r="AP202" s="1"/>
     </row>
-    <row r="203" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>138</v>
       </c>
@@ -22473,7 +22566,7 @@
       <c r="AO203" s="1"/>
       <c r="AP203" s="1"/>
     </row>
-    <row r="204" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>138</v>
       </c>
@@ -22524,7 +22617,7 @@
       <c r="AO204" s="1"/>
       <c r="AP204" s="1"/>
     </row>
-    <row r="205" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>138</v>
       </c>
@@ -22575,7 +22668,7 @@
       <c r="AO205" s="1"/>
       <c r="AP205" s="1"/>
     </row>
-    <row r="206" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>138</v>
       </c>
@@ -22626,7 +22719,7 @@
       <c r="AO206" s="1"/>
       <c r="AP206" s="1"/>
     </row>
-    <row r="207" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>138</v>
       </c>
@@ -22677,7 +22770,7 @@
       <c r="AO207" s="1"/>
       <c r="AP207" s="1"/>
     </row>
-    <row r="208" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>138</v>
       </c>
@@ -22728,7 +22821,7 @@
       <c r="AO208" s="1"/>
       <c r="AP208" s="1"/>
     </row>
-    <row r="209" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>138</v>
       </c>
@@ -22782,7 +22875,7 @@
       <c r="AO209" s="1"/>
       <c r="AP209" s="1"/>
     </row>
-    <row r="210" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>138</v>
       </c>
@@ -22833,7 +22926,7 @@
       <c r="AO210" s="1"/>
       <c r="AP210" s="1"/>
     </row>
-    <row r="211" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>138</v>
       </c>
@@ -22884,7 +22977,7 @@
       <c r="AO211" s="1"/>
       <c r="AP211" s="1"/>
     </row>
-    <row r="212" spans="1:42" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>138</v>
       </c>
@@ -22947,7 +23040,7 @@
       <c r="AO212" s="1"/>
       <c r="AP212" s="1"/>
     </row>
-    <row r="213" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>138</v>
       </c>
@@ -22998,7 +23091,7 @@
       <c r="AO213" s="1"/>
       <c r="AP213" s="1"/>
     </row>
-    <row r="214" spans="1:42" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:42" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>138</v>
       </c>
@@ -23061,7 +23154,7 @@
       <c r="AO214" s="1"/>
       <c r="AP214" s="1"/>
     </row>
-    <row r="215" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>138</v>
       </c>
@@ -23124,7 +23217,7 @@
       <c r="AO215" s="1"/>
       <c r="AP215" s="1"/>
     </row>
-    <row r="216" spans="1:42" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:42" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>138</v>
       </c>
@@ -23187,7 +23280,7 @@
       <c r="AO216" s="1"/>
       <c r="AP216" s="1"/>
     </row>
-    <row r="217" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>138</v>
       </c>
@@ -23238,7 +23331,7 @@
       <c r="AO217" s="1"/>
       <c r="AP217" s="1"/>
     </row>
-    <row r="218" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>138</v>
       </c>
@@ -23289,7 +23382,7 @@
       <c r="AO218" s="1"/>
       <c r="AP218" s="1"/>
     </row>
-    <row r="219" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>138</v>
       </c>
@@ -23340,7 +23433,7 @@
       <c r="AO219" s="1"/>
       <c r="AP219" s="1"/>
     </row>
-    <row r="220" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>138</v>
       </c>
@@ -23391,7 +23484,7 @@
       <c r="AO220" s="1"/>
       <c r="AP220" s="1"/>
     </row>
-    <row r="221" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>138</v>
       </c>
@@ -23442,7 +23535,7 @@
       <c r="AO221" s="1"/>
       <c r="AP221" s="1"/>
     </row>
-    <row r="222" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>138</v>
       </c>
@@ -23493,7 +23586,7 @@
       <c r="AO222" s="1"/>
       <c r="AP222" s="1"/>
     </row>
-    <row r="223" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>138</v>
       </c>
@@ -23544,7 +23637,7 @@
       <c r="AO223" s="1"/>
       <c r="AP223" s="1"/>
     </row>
-    <row r="224" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>138</v>
       </c>
@@ -23595,7 +23688,7 @@
       <c r="AO224" s="1"/>
       <c r="AP224" s="1"/>
     </row>
-    <row r="225" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>138</v>
       </c>
@@ -23643,7 +23736,7 @@
       <c r="AO225" s="1"/>
       <c r="AP225" s="1"/>
     </row>
-    <row r="226" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>412</v>
       </c>
@@ -23697,7 +23790,7 @@
       <c r="AO226" s="1"/>
       <c r="AP226" s="1"/>
     </row>
-    <row r="227" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>138</v>
       </c>
@@ -23754,7 +23847,7 @@
       <c r="AO227" s="1"/>
       <c r="AP227" s="1"/>
     </row>
-    <row r="228" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>412</v>
       </c>
@@ -23808,7 +23901,7 @@
       <c r="AO228" s="1"/>
       <c r="AP228" s="1"/>
     </row>
-    <row r="229" spans="1:42" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>138</v>
       </c>
@@ -23862,7 +23955,7 @@
       <c r="AO229" s="1"/>
       <c r="AP229" s="1"/>
     </row>
-    <row r="230" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>138</v>
       </c>
@@ -23916,7 +24009,7 @@
       <c r="AO230" s="1"/>
       <c r="AP230" s="1"/>
     </row>
-    <row r="231" spans="1:42" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:42" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>138</v>
       </c>
@@ -23973,7 +24066,7 @@
       <c r="AO231" s="1"/>
       <c r="AP231" s="1"/>
     </row>
-    <row r="232" spans="1:42" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:42" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>138</v>
       </c>
@@ -24030,7 +24123,7 @@
       <c r="AO232" s="1"/>
       <c r="AP232" s="1"/>
     </row>
-    <row r="233" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>138</v>
       </c>
@@ -24087,7 +24180,7 @@
       <c r="AO233" s="1"/>
       <c r="AP233" s="1"/>
     </row>
-    <row r="234" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>155</v>
       </c>
@@ -24211,7 +24304,7 @@
       <c r="AO234" s="1"/>
       <c r="AP234" s="1"/>
     </row>
-    <row r="235" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>155</v>
       </c>
@@ -24262,7 +24355,7 @@
       <c r="AO235" s="1"/>
       <c r="AP235" s="1"/>
     </row>
-    <row r="236" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>138</v>
       </c>
@@ -24316,7 +24409,7 @@
       <c r="AO236" s="1"/>
       <c r="AP236" s="1"/>
     </row>
-    <row r="237" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>138</v>
       </c>
@@ -24370,7 +24463,7 @@
       <c r="AO237" s="1"/>
       <c r="AP237" s="1"/>
     </row>
-    <row r="238" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>138</v>
       </c>
@@ -24424,7 +24517,7 @@
       <c r="AO238" s="1"/>
       <c r="AP238" s="1"/>
     </row>
-    <row r="239" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>138</v>
       </c>
@@ -24478,7 +24571,7 @@
       <c r="AO239" s="1"/>
       <c r="AP239" s="1"/>
     </row>
-    <row r="240" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>138</v>
       </c>
@@ -24532,7 +24625,7 @@
       <c r="AO240" s="1"/>
       <c r="AP240" s="1"/>
     </row>
-    <row r="241" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>138</v>
       </c>
@@ -24586,7 +24679,7 @@
       <c r="AO241" s="1"/>
       <c r="AP241" s="1"/>
     </row>
-    <row r="242" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>138</v>
       </c>
@@ -24640,7 +24733,7 @@
       <c r="AO242" s="1"/>
       <c r="AP242" s="1"/>
     </row>
-    <row r="243" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>138</v>
       </c>
@@ -24694,7 +24787,7 @@
       <c r="AO243" s="1"/>
       <c r="AP243" s="1"/>
     </row>
-    <row r="244" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>138</v>
       </c>
@@ -24754,7 +24847,7 @@
       <c r="AO244" s="1"/>
       <c r="AP244" s="1"/>
     </row>
-    <row r="245" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>138</v>
       </c>
@@ -24808,7 +24901,7 @@
       <c r="AO245" s="1"/>
       <c r="AP245" s="1"/>
     </row>
-    <row r="246" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>138</v>
       </c>
@@ -24859,7 +24952,7 @@
       <c r="AO246" s="1"/>
       <c r="AP246" s="1"/>
     </row>
-    <row r="247" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>138</v>
       </c>
@@ -24913,7 +25006,7 @@
       <c r="AO247" s="1"/>
       <c r="AP247" s="1"/>
     </row>
-    <row r="248" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>138</v>
       </c>
@@ -24967,7 +25060,7 @@
       <c r="AO248" s="1"/>
       <c r="AP248" s="1"/>
     </row>
-    <row r="249" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>138</v>
       </c>
@@ -25021,7 +25114,7 @@
       <c r="AO249" s="1"/>
       <c r="AP249" s="1"/>
     </row>
-    <row r="250" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>138</v>
       </c>
@@ -25075,7 +25168,7 @@
       <c r="AO250" s="1"/>
       <c r="AP250" s="1"/>
     </row>
-    <row r="251" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>138</v>
       </c>
@@ -25129,7 +25222,7 @@
       <c r="AO251" s="1"/>
       <c r="AP251" s="1"/>
     </row>
-    <row r="252" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>138</v>
       </c>
@@ -25183,7 +25276,7 @@
       <c r="AO252" s="1"/>
       <c r="AP252" s="1"/>
     </row>
-    <row r="253" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>138</v>
       </c>
@@ -25234,7 +25327,7 @@
       <c r="AO253" s="1"/>
       <c r="AP253" s="1"/>
     </row>
-    <row r="254" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>138</v>
       </c>
@@ -25285,7 +25378,7 @@
       <c r="AO254" s="1"/>
       <c r="AP254" s="1"/>
     </row>
-    <row r="255" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>138</v>
       </c>
@@ -25336,7 +25429,7 @@
       <c r="AO255" s="1"/>
       <c r="AP255" s="1"/>
     </row>
-    <row r="256" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>138</v>
       </c>
@@ -25390,7 +25483,7 @@
       <c r="AO256" s="1"/>
       <c r="AP256" s="1"/>
     </row>
-    <row r="257" spans="1:42" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>138</v>
       </c>
@@ -25444,7 +25537,7 @@
       <c r="AO257" s="1"/>
       <c r="AP257" s="1"/>
     </row>
-    <row r="258" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>402</v>
       </c>
@@ -25498,7 +25591,7 @@
       <c r="AO258" s="1"/>
       <c r="AP258" s="1"/>
     </row>
-    <row r="259" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>138</v>
       </c>
@@ -25549,7 +25642,7 @@
       <c r="AO259" s="1"/>
       <c r="AP259" s="1"/>
     </row>
-    <row r="260" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>138</v>
       </c>
@@ -25600,7 +25693,7 @@
       <c r="AO260" s="1"/>
       <c r="AP260" s="1"/>
     </row>
-    <row r="261" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>138</v>
       </c>
@@ -25651,7 +25744,7 @@
       <c r="AO261" s="1"/>
       <c r="AP261" s="1"/>
     </row>
-    <row r="262" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>138</v>
       </c>
@@ -25702,7 +25795,7 @@
       <c r="AO262" s="1"/>
       <c r="AP262" s="1"/>
     </row>
-    <row r="263" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>138</v>
       </c>
@@ -25753,7 +25846,7 @@
       <c r="AO263" s="1"/>
       <c r="AP263" s="1"/>
     </row>
-    <row r="264" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>138</v>
       </c>
@@ -25807,7 +25900,7 @@
       <c r="AO264" s="1"/>
       <c r="AP264" s="1"/>
     </row>
-    <row r="265" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>138</v>
       </c>
@@ -25861,7 +25954,7 @@
       <c r="AO265" s="1"/>
       <c r="AP265" s="1"/>
     </row>
-    <row r="266" spans="1:42" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>138</v>
       </c>
@@ -25924,7 +26017,7 @@
       <c r="AO266" s="1"/>
       <c r="AP266" s="1"/>
     </row>
-    <row r="267" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>138</v>
       </c>
@@ -25978,7 +26071,7 @@
       <c r="AO267" s="1"/>
       <c r="AP267" s="1"/>
     </row>
-    <row r="268" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>138</v>
       </c>
@@ -26032,7 +26125,7 @@
       <c r="AO268" s="1"/>
       <c r="AP268" s="1"/>
     </row>
-    <row r="269" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>138</v>
       </c>
@@ -26086,7 +26179,7 @@
       <c r="AO269" s="1"/>
       <c r="AP269" s="1"/>
     </row>
-    <row r="270" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>138</v>
       </c>
@@ -26140,7 +26233,7 @@
       <c r="AO270" s="1"/>
       <c r="AP270" s="1"/>
     </row>
-    <row r="271" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>138</v>
       </c>
@@ -26194,7 +26287,7 @@
       <c r="AO271" s="1"/>
       <c r="AP271" s="1"/>
     </row>
-    <row r="272" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>138</v>
       </c>
@@ -26248,7 +26341,7 @@
       <c r="AO272" s="1"/>
       <c r="AP272" s="1"/>
     </row>
-    <row r="273" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>138</v>
       </c>
@@ -26302,7 +26395,7 @@
       <c r="AO273" s="1"/>
       <c r="AP273" s="1"/>
     </row>
-    <row r="274" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>138</v>
       </c>
@@ -26356,7 +26449,7 @@
       <c r="AO274" s="1"/>
       <c r="AP274" s="1"/>
     </row>
-    <row r="275" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>138</v>
       </c>
@@ -26410,7 +26503,7 @@
       <c r="AO275" s="1"/>
       <c r="AP275" s="1"/>
     </row>
-    <row r="276" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>138</v>
       </c>
@@ -26464,7 +26557,7 @@
       <c r="AO276" s="1"/>
       <c r="AP276" s="1"/>
     </row>
-    <row r="277" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>138</v>
       </c>
@@ -26518,7 +26611,7 @@
       <c r="AO277" s="1"/>
       <c r="AP277" s="1"/>
     </row>
-    <row r="278" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>138</v>
       </c>
@@ -26569,7 +26662,7 @@
       <c r="AO278" s="1"/>
       <c r="AP278" s="1"/>
     </row>
-    <row r="279" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>138</v>
       </c>
@@ -26620,7 +26713,7 @@
       <c r="AO279" s="1"/>
       <c r="AP279" s="1"/>
     </row>
-    <row r="280" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>138</v>
       </c>
@@ -26671,7 +26764,7 @@
       <c r="AO280" s="1"/>
       <c r="AP280" s="1"/>
     </row>
-    <row r="281" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>138</v>
       </c>
@@ -26722,7 +26815,7 @@
       <c r="AO281" s="1"/>
       <c r="AP281" s="1"/>
     </row>
-    <row r="282" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>138</v>
       </c>
@@ -26773,7 +26866,7 @@
       <c r="AO282" s="1"/>
       <c r="AP282" s="1"/>
     </row>
-    <row r="283" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>138</v>
       </c>
@@ -26833,7 +26926,7 @@
       <c r="AO283" s="1"/>
       <c r="AP283" s="1"/>
     </row>
-    <row r="284" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>138</v>
       </c>
@@ -26890,7 +26983,7 @@
       <c r="AO284" s="1"/>
       <c r="AP284" s="1"/>
     </row>
-    <row r="285" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>138</v>
       </c>
@@ -26944,7 +27037,7 @@
       <c r="AO285" s="1"/>
       <c r="AP285" s="1"/>
     </row>
-    <row r="286" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>138</v>
       </c>
@@ -27001,7 +27094,7 @@
       <c r="AO286" s="1"/>
       <c r="AP286" s="1"/>
     </row>
-    <row r="287" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>138</v>
       </c>
@@ -27058,7 +27151,7 @@
       <c r="AO287" s="1"/>
       <c r="AP287" s="1"/>
     </row>
-    <row r="288" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>138</v>
       </c>
@@ -27112,7 +27205,7 @@
       <c r="AO288" s="1"/>
       <c r="AP288" s="1"/>
     </row>
-    <row r="289" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>138</v>
       </c>
@@ -27166,7 +27259,7 @@
       <c r="AO289" s="1"/>
       <c r="AP289" s="1"/>
     </row>
-    <row r="290" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>138</v>
       </c>
@@ -27220,7 +27313,7 @@
       <c r="AO290" s="1"/>
       <c r="AP290" s="1"/>
     </row>
-    <row r="291" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>138</v>
       </c>
@@ -27274,7 +27367,7 @@
       <c r="AO291" s="1"/>
       <c r="AP291" s="1"/>
     </row>
-    <row r="292" spans="1:42" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>138</v>
       </c>
@@ -27334,7 +27427,7 @@
       <c r="AO292" s="1"/>
       <c r="AP292" s="1"/>
     </row>
-    <row r="293" spans="1:42" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>138</v>
       </c>
@@ -27397,7 +27490,7 @@
       <c r="AO293" s="1"/>
       <c r="AP293" s="1"/>
     </row>
-    <row r="294" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>138</v>
       </c>
@@ -27451,7 +27544,7 @@
       <c r="AO294" s="1"/>
       <c r="AP294" s="1"/>
     </row>
-    <row r="295" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>138</v>
       </c>
@@ -27505,7 +27598,7 @@
       <c r="AO295" s="1"/>
       <c r="AP295" s="1"/>
     </row>
-    <row r="296" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>155</v>
       </c>
@@ -27559,7 +27652,7 @@
       <c r="AO296" s="1"/>
       <c r="AP296" s="1"/>
     </row>
-    <row r="297" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>155</v>
       </c>
@@ -27683,7 +27776,7 @@
       <c r="AO297" s="1"/>
       <c r="AP297" s="1"/>
     </row>
-    <row r="298" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>138</v>
       </c>
@@ -27740,7 +27833,7 @@
       <c r="AO298" s="1"/>
       <c r="AP298" s="1"/>
     </row>
-    <row r="299" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>138</v>
       </c>
@@ -27794,7 +27887,7 @@
       <c r="AO299" s="1"/>
       <c r="AP299" s="1"/>
     </row>
-    <row r="300" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>138</v>
       </c>
@@ -27848,7 +27941,7 @@
       <c r="AO300" s="1"/>
       <c r="AP300" s="1"/>
     </row>
-    <row r="301" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>138</v>
       </c>
@@ -27902,7 +27995,7 @@
       <c r="AO301" s="1"/>
       <c r="AP301" s="1"/>
     </row>
-    <row r="302" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>138</v>
       </c>
@@ -27956,7 +28049,7 @@
       <c r="AO302" s="1"/>
       <c r="AP302" s="1"/>
     </row>
-    <row r="303" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>138</v>
       </c>
@@ -28010,7 +28103,7 @@
       <c r="AO303" s="1"/>
       <c r="AP303" s="1"/>
     </row>
-    <row r="304" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>138</v>
       </c>
@@ -28064,7 +28157,7 @@
       <c r="AO304" s="1"/>
       <c r="AP304" s="1"/>
     </row>
-    <row r="305" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>138</v>
       </c>
@@ -28118,7 +28211,7 @@
       <c r="AO305" s="1"/>
       <c r="AP305" s="1"/>
     </row>
-    <row r="306" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>138</v>
       </c>
@@ -28172,7 +28265,7 @@
       <c r="AO306" s="1"/>
       <c r="AP306" s="1"/>
     </row>
-    <row r="307" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>138</v>
       </c>
@@ -28226,7 +28319,7 @@
       <c r="AO307" s="1"/>
       <c r="AP307" s="1"/>
     </row>
-    <row r="308" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>138</v>
       </c>
@@ -28280,7 +28373,7 @@
       <c r="AO308" s="1"/>
       <c r="AP308" s="1"/>
     </row>
-    <row r="309" spans="1:42" ht="34.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:42" ht="34.200000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>138</v>
       </c>
@@ -28334,7 +28427,7 @@
       <c r="AO309" s="1"/>
       <c r="AP309" s="1"/>
     </row>
-    <row r="310" spans="1:42" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:42" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>138</v>
       </c>
@@ -28397,7 +28490,7 @@
       <c r="AO310" s="1"/>
       <c r="AP310" s="1"/>
     </row>
-    <row r="311" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>138</v>
       </c>
@@ -28451,7 +28544,7 @@
       <c r="AO311" s="1"/>
       <c r="AP311" s="1"/>
     </row>
-    <row r="312" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>138</v>
       </c>
@@ -28505,7 +28598,7 @@
       <c r="AO312" s="1"/>
       <c r="AP312" s="1"/>
     </row>
-    <row r="313" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>138</v>
       </c>
@@ -28559,7 +28652,7 @@
       <c r="AO313" s="1"/>
       <c r="AP313" s="1"/>
     </row>
-    <row r="314" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>138</v>
       </c>
@@ -28613,7 +28706,7 @@
       <c r="AO314" s="1"/>
       <c r="AP314" s="1"/>
     </row>
-    <row r="315" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>138</v>
       </c>
@@ -28670,7 +28763,7 @@
       <c r="AO315" s="1"/>
       <c r="AP315" s="1"/>
     </row>
-    <row r="316" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>138</v>
       </c>
@@ -28724,7 +28817,7 @@
       <c r="AO316" s="1"/>
       <c r="AP316" s="1"/>
     </row>
-    <row r="317" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>138</v>
       </c>
@@ -28778,7 +28871,7 @@
       <c r="AO317" s="1"/>
       <c r="AP317" s="1"/>
     </row>
-    <row r="318" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>138</v>
       </c>
@@ -28832,7 +28925,7 @@
       <c r="AO318" s="1"/>
       <c r="AP318" s="1"/>
     </row>
-    <row r="319" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>138</v>
       </c>
@@ -28886,7 +28979,7 @@
       <c r="AO319" s="1"/>
       <c r="AP319" s="1"/>
     </row>
-    <row r="320" spans="1:42" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>138</v>
       </c>
@@ -28940,7 +29033,7 @@
       <c r="AO320" s="1"/>
       <c r="AP320" s="1"/>
     </row>
-    <row r="321" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>138</v>
       </c>
@@ -28997,7 +29090,7 @@
       <c r="AO321" s="1"/>
       <c r="AP321" s="1"/>
     </row>
-    <row r="322" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>138</v>
       </c>
@@ -29054,7 +29147,7 @@
       <c r="AO322" s="1"/>
       <c r="AP322" s="1"/>
     </row>
-    <row r="323" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>138</v>
       </c>
@@ -29111,7 +29204,7 @@
       <c r="AO323" s="1"/>
       <c r="AP323" s="1"/>
     </row>
-    <row r="324" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>138</v>
       </c>
@@ -29168,7 +29261,7 @@
       <c r="AO324" s="1"/>
       <c r="AP324" s="1"/>
     </row>
-    <row r="325" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>138</v>
       </c>
@@ -29225,7 +29318,7 @@
       <c r="AO325" s="1"/>
       <c r="AP325" s="1"/>
     </row>
-    <row r="326" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>138</v>
       </c>
@@ -29282,7 +29375,7 @@
       <c r="AO326" s="1"/>
       <c r="AP326" s="1"/>
     </row>
-    <row r="327" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>138</v>
       </c>
@@ -29339,7 +29432,7 @@
       <c r="AO327" s="1"/>
       <c r="AP327" s="1"/>
     </row>
-    <row r="328" spans="1:42" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:42" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>138</v>
       </c>
@@ -29396,7 +29489,7 @@
       <c r="AO328" s="1"/>
       <c r="AP328" s="1"/>
     </row>
-    <row r="329" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>229</v>
       </c>
@@ -29447,7 +29540,7 @@
       <c r="AO329" s="1"/>
       <c r="AP329" s="1"/>
     </row>
-    <row r="330" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>688</v>
       </c>
@@ -29501,7 +29594,7 @@
       <c r="AO330" s="1"/>
       <c r="AP330" s="1"/>
     </row>
-    <row r="331" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>688</v>
       </c>
@@ -29552,7 +29645,7 @@
       <c r="AO331" s="1"/>
       <c r="AP331" s="1"/>
     </row>
-    <row r="332" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>688</v>
       </c>
@@ -29603,7 +29696,7 @@
       <c r="AO332" s="1"/>
       <c r="AP332" s="1"/>
     </row>
-    <row r="333" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>688</v>
       </c>
@@ -29654,7 +29747,7 @@
       <c r="AO333" s="1"/>
       <c r="AP333" s="1"/>
     </row>
-    <row r="334" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>688</v>
       </c>
@@ -29705,7 +29798,7 @@
       <c r="AO334" s="1"/>
       <c r="AP334" s="1"/>
     </row>
-    <row r="335" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>688</v>
       </c>
@@ -29756,7 +29849,7 @@
       <c r="AO335" s="1"/>
       <c r="AP335" s="1"/>
     </row>
-    <row r="336" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>688</v>
       </c>
@@ -29807,7 +29900,7 @@
       <c r="AO336" s="1"/>
       <c r="AP336" s="1"/>
     </row>
-    <row r="337" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>138</v>
       </c>
@@ -29858,7 +29951,7 @@
       <c r="AO337" s="1"/>
       <c r="AP337" s="1"/>
     </row>
-    <row r="338" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>138</v>
       </c>
@@ -29909,7 +30002,7 @@
       <c r="AO338" s="1"/>
       <c r="AP338" s="1"/>
     </row>
-    <row r="339" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>688</v>
       </c>
@@ -29960,7 +30053,7 @@
       <c r="AO339" s="1"/>
       <c r="AP339" s="1"/>
     </row>
-    <row r="340" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>688</v>
       </c>
@@ -30011,7 +30104,7 @@
       <c r="AO340" s="1"/>
       <c r="AP340" s="1"/>
     </row>
-    <row r="341" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>688</v>
       </c>
@@ -30062,7 +30155,7 @@
       <c r="AO341" s="1"/>
       <c r="AP341" s="1"/>
     </row>
-    <row r="342" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>688</v>
       </c>
@@ -30113,7 +30206,7 @@
       <c r="AO342" s="1"/>
       <c r="AP342" s="1"/>
     </row>
-    <row r="343" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>688</v>
       </c>
@@ -30164,7 +30257,7 @@
       <c r="AO343" s="1"/>
       <c r="AP343" s="1"/>
     </row>
-    <row r="344" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>688</v>
       </c>
@@ -30215,7 +30308,7 @@
       <c r="AO344" s="1"/>
       <c r="AP344" s="1"/>
     </row>
-    <row r="345" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>688</v>
       </c>
@@ -30266,7 +30359,7 @@
       <c r="AO345" s="1"/>
       <c r="AP345" s="1"/>
     </row>
-    <row r="346" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>688</v>
       </c>
@@ -30317,7 +30410,7 @@
       <c r="AO346" s="1"/>
       <c r="AP346" s="1"/>
     </row>
-    <row r="347" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>688</v>
       </c>
@@ -30368,7 +30461,7 @@
       <c r="AO347" s="1"/>
       <c r="AP347" s="1"/>
     </row>
-    <row r="348" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>688</v>
       </c>
@@ -30419,7 +30512,7 @@
       <c r="AO348" s="1"/>
       <c r="AP348" s="1"/>
     </row>
-    <row r="349" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>688</v>
       </c>
@@ -30470,7 +30563,7 @@
       <c r="AO349" s="1"/>
       <c r="AP349" s="1"/>
     </row>
-    <row r="350" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>688</v>
       </c>
@@ -30521,7 +30614,7 @@
       <c r="AO350" s="1"/>
       <c r="AP350" s="1"/>
     </row>
-    <row r="351" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>138</v>
       </c>
@@ -30572,7 +30665,7 @@
       <c r="AO351" s="1"/>
       <c r="AP351" s="1"/>
     </row>
-    <row r="352" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>688</v>
       </c>
@@ -30623,7 +30716,7 @@
       <c r="AO352" s="1"/>
       <c r="AP352" s="1"/>
     </row>
-    <row r="353" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>688</v>
       </c>
@@ -30674,7 +30767,7 @@
       <c r="AO353" s="1"/>
       <c r="AP353" s="1"/>
     </row>
-    <row r="354" spans="1:42" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>688</v>
       </c>
@@ -30728,7 +30821,7 @@
       <c r="AO354" s="1"/>
       <c r="AP354" s="1"/>
     </row>
-    <row r="355" spans="1:42" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>688</v>
       </c>
@@ -30782,7 +30875,7 @@
       <c r="AO355" s="1"/>
       <c r="AP355" s="1"/>
     </row>
-    <row r="356" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>688</v>
       </c>
@@ -30833,7 +30926,7 @@
       <c r="AO356" s="1"/>
       <c r="AP356" s="1"/>
     </row>
-    <row r="357" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>688</v>
       </c>
@@ -30884,7 +30977,7 @@
       <c r="AO357" s="1"/>
       <c r="AP357" s="1"/>
     </row>
-    <row r="358" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>688</v>
       </c>
@@ -30935,7 +31028,7 @@
       <c r="AO358" s="1"/>
       <c r="AP358" s="1"/>
     </row>
-    <row r="359" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>688</v>
       </c>
@@ -30992,7 +31085,7 @@
       <c r="AO359" s="1"/>
       <c r="AP359" s="1"/>
     </row>
-    <row r="360" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>688</v>
       </c>
@@ -31043,7 +31136,7 @@
       <c r="AO360" s="1"/>
       <c r="AP360" s="1"/>
     </row>
-    <row r="361" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>138</v>
       </c>
@@ -31094,7 +31187,7 @@
       <c r="AO361" s="1"/>
       <c r="AP361" s="1"/>
     </row>
-    <row r="362" spans="1:42" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:42" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>155</v>
       </c>
@@ -31251,7 +31344,7 @@
         <v>295914361.88697094</v>
       </c>
     </row>
-    <row r="363" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>155</v>
       </c>
@@ -31302,7 +31395,7 @@
       <c r="AO363" s="1"/>
       <c r="AP363" s="1"/>
     </row>
-    <row r="364" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>138</v>
       </c>
@@ -31353,7 +31446,7 @@
       <c r="AO364" s="1"/>
       <c r="AP364" s="1"/>
     </row>
-    <row r="365" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>138</v>
       </c>
@@ -31404,7 +31497,7 @@
       <c r="AO365" s="1"/>
       <c r="AP365" s="1"/>
     </row>
-    <row r="366" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>155</v>
       </c>
@@ -31455,7 +31548,7 @@
       <c r="AO366" s="1"/>
       <c r="AP366" s="1"/>
     </row>
-    <row r="367" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>229</v>
       </c>
@@ -31503,7 +31596,7 @@
       <c r="AO367" s="1"/>
       <c r="AP367" s="1"/>
     </row>
-    <row r="368" spans="1:42" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>138</v>
       </c>
@@ -31557,7 +31650,7 @@
       <c r="AO368" s="1"/>
       <c r="AP368" s="1"/>
     </row>
-    <row r="369" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>138</v>
       </c>
@@ -31617,7 +31710,7 @@
       <c r="AO369" s="1"/>
       <c r="AP369" s="1"/>
     </row>
-    <row r="370" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>138</v>
       </c>
@@ -31671,7 +31764,7 @@
       <c r="AO370" s="1"/>
       <c r="AP370" s="1"/>
     </row>
-    <row r="371" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>138</v>
       </c>
@@ -31725,7 +31818,7 @@
       <c r="AO371" s="1"/>
       <c r="AP371" s="1"/>
     </row>
-    <row r="372" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>138</v>
       </c>
@@ -31779,7 +31872,7 @@
       <c r="AO372" s="1"/>
       <c r="AP372" s="1"/>
     </row>
-    <row r="373" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>138</v>
       </c>
@@ -31839,7 +31932,7 @@
       <c r="AO373" s="1"/>
       <c r="AP373" s="1"/>
     </row>
-    <row r="374" spans="1:42" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:42" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>138</v>
       </c>
@@ -31893,7 +31986,7 @@
       <c r="AO374" s="1"/>
       <c r="AP374" s="1"/>
     </row>
-    <row r="375" spans="1:42" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:42" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>138</v>
       </c>
@@ -31953,7 +32046,7 @@
       <c r="AO375" s="1"/>
       <c r="AP375" s="1"/>
     </row>
-    <row r="376" spans="1:42" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:42" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>138</v>
       </c>
@@ -32016,7 +32109,7 @@
       <c r="AO376" s="1"/>
       <c r="AP376" s="1"/>
     </row>
-    <row r="377" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>138</v>
       </c>
@@ -32067,7 +32160,7 @@
       <c r="AO377" s="1"/>
       <c r="AP377" s="1"/>
     </row>
-    <row r="378" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>138</v>
       </c>
@@ -32118,7 +32211,7 @@
       <c r="AO378" s="1"/>
       <c r="AP378" s="1"/>
     </row>
-    <row r="379" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>138</v>
       </c>
@@ -32169,7 +32262,7 @@
       <c r="AO379" s="1"/>
       <c r="AP379" s="1"/>
     </row>
-    <row r="380" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>138</v>
       </c>
@@ -32220,7 +32313,7 @@
       <c r="AO380" s="1"/>
       <c r="AP380" s="1"/>
     </row>
-    <row r="381" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>688</v>
       </c>
@@ -32274,7 +32367,7 @@
       <c r="AO381" s="1"/>
       <c r="AP381" s="1"/>
     </row>
-    <row r="382" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>688</v>
       </c>
@@ -32328,7 +32421,7 @@
       <c r="AO382" s="1"/>
       <c r="AP382" s="1"/>
     </row>
-    <row r="383" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>688</v>
       </c>
@@ -32382,7 +32475,7 @@
       <c r="AO383" s="1"/>
       <c r="AP383" s="1"/>
     </row>
-    <row r="384" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>688</v>
       </c>
@@ -32436,7 +32529,7 @@
       <c r="AO384" s="1"/>
       <c r="AP384" s="1"/>
     </row>
-    <row r="385" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>688</v>
       </c>
@@ -32490,7 +32583,7 @@
       <c r="AO385" s="1"/>
       <c r="AP385" s="1"/>
     </row>
-    <row r="386" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>688</v>
       </c>
@@ -32544,7 +32637,7 @@
       <c r="AO386" s="1"/>
       <c r="AP386" s="1"/>
     </row>
-    <row r="387" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>688</v>
       </c>
@@ -32598,7 +32691,7 @@
       <c r="AO387" s="1"/>
       <c r="AP387" s="1"/>
     </row>
-    <row r="388" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>688</v>
       </c>
@@ -32652,7 +32745,7 @@
       <c r="AO388" s="1"/>
       <c r="AP388" s="1"/>
     </row>
-    <row r="389" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>688</v>
       </c>
@@ -32706,7 +32799,7 @@
       <c r="AO389" s="1"/>
       <c r="AP389" s="1"/>
     </row>
-    <row r="390" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>688</v>
       </c>
@@ -32760,7 +32853,7 @@
       <c r="AO390" s="1"/>
       <c r="AP390" s="1"/>
     </row>
-    <row r="391" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>688</v>
       </c>
@@ -32814,7 +32907,7 @@
       <c r="AO391" s="1"/>
       <c r="AP391" s="1"/>
     </row>
-    <row r="392" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>688</v>
       </c>
@@ -32865,7 +32958,7 @@
       <c r="AO392" s="1"/>
       <c r="AP392" s="1"/>
     </row>
-    <row r="393" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>688</v>
       </c>
@@ -32919,7 +33012,7 @@
       <c r="AO393" s="1"/>
       <c r="AP393" s="1"/>
     </row>
-    <row r="394" spans="1:42" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:42" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>688</v>
       </c>
@@ -32973,7 +33066,7 @@
       <c r="AO394" s="1"/>
       <c r="AP394" s="1"/>
     </row>
-    <row r="395" spans="1:42" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>688</v>
       </c>
@@ -33027,7 +33120,7 @@
       <c r="AO395" s="1"/>
       <c r="AP395" s="1"/>
     </row>
-    <row r="396" spans="1:42" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>688</v>
       </c>
@@ -33081,7 +33174,7 @@
       <c r="AO396" s="1"/>
       <c r="AP396" s="1"/>
     </row>
-    <row r="397" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>688</v>
       </c>
@@ -33135,7 +33228,7 @@
       <c r="AO397" s="1"/>
       <c r="AP397" s="1"/>
     </row>
-    <row r="398" spans="1:42" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:42" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>688</v>
       </c>
@@ -33189,7 +33282,7 @@
       <c r="AO398" s="1"/>
       <c r="AP398" s="1"/>
     </row>
-    <row r="399" spans="1:42" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>688</v>
       </c>
@@ -33244,7 +33337,7 @@
       <c r="AO399" s="1"/>
       <c r="AP399" s="1"/>
     </row>
-    <row r="400" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>688</v>
       </c>
@@ -33299,7 +33392,7 @@
       <c r="AO400" s="1"/>
       <c r="AP400" s="1"/>
     </row>
-    <row r="401" spans="1:42" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:42" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>688</v>
       </c>
@@ -33353,7 +33446,7 @@
       <c r="AO401" s="1"/>
       <c r="AP401" s="1"/>
     </row>
-    <row r="402" spans="1:42" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:42" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>688</v>
       </c>
@@ -33407,7 +33500,7 @@
       <c r="AO402" s="1"/>
       <c r="AP402" s="1"/>
     </row>
-    <row r="403" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>688</v>
       </c>
@@ -33461,7 +33554,7 @@
       <c r="AO403" s="1"/>
       <c r="AP403" s="1"/>
     </row>
-    <row r="404" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>688</v>
       </c>
@@ -33512,7 +33605,7 @@
       <c r="AO404" s="1"/>
       <c r="AP404" s="1"/>
     </row>
-    <row r="405" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>688</v>
       </c>
@@ -33560,7 +33653,7 @@
       <c r="AO405" s="1"/>
       <c r="AP405" s="1"/>
     </row>
-    <row r="406" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>688</v>
       </c>
@@ -33611,7 +33704,7 @@
       <c r="AO406" s="1"/>
       <c r="AP406" s="1"/>
     </row>
-    <row r="407" spans="1:42" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>138</v>
       </c>
@@ -33668,7 +33761,7 @@
       <c r="AO407" s="1"/>
       <c r="AP407" s="1"/>
     </row>
-    <row r="408" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>138</v>
       </c>
@@ -33722,7 +33815,7 @@
       <c r="AO408" s="1"/>
       <c r="AP408" s="1"/>
     </row>
-    <row r="409" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>138</v>
       </c>
@@ -33776,7 +33869,7 @@
       <c r="AO409" s="1"/>
       <c r="AP409" s="1"/>
     </row>
-    <row r="410" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>138</v>
       </c>
@@ -33827,7 +33920,7 @@
       <c r="AO410" s="1"/>
       <c r="AP410" s="1"/>
     </row>
-    <row r="411" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>138</v>
       </c>
@@ -33881,7 +33974,7 @@
       <c r="AO411" s="1"/>
       <c r="AP411" s="1"/>
     </row>
-    <row r="412" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>138</v>
       </c>
@@ -33932,7 +34025,7 @@
       <c r="AO412" s="1"/>
       <c r="AP412" s="1"/>
     </row>
-    <row r="413" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>138</v>
       </c>
@@ -33986,7 +34079,7 @@
       <c r="AO413" s="1"/>
       <c r="AP413" s="1"/>
     </row>
-    <row r="414" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>138</v>
       </c>
@@ -34037,7 +34130,7 @@
       <c r="AO414" s="1"/>
       <c r="AP414" s="1"/>
     </row>
-    <row r="415" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>138</v>
       </c>
@@ -34091,7 +34184,7 @@
       <c r="AO415" s="1"/>
       <c r="AP415" s="1"/>
     </row>
-    <row r="416" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>138</v>
       </c>
@@ -34145,7 +34238,7 @@
       <c r="AO416" s="1"/>
       <c r="AP416" s="1"/>
     </row>
-    <row r="417" spans="1:42" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>138</v>
       </c>
@@ -34208,7 +34301,7 @@
       <c r="AO417" s="1"/>
       <c r="AP417" s="1"/>
     </row>
-    <row r="418" spans="1:42" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>138</v>
       </c>
@@ -34268,7 +34361,7 @@
       <c r="AO418" s="1"/>
       <c r="AP418" s="1"/>
     </row>
-    <row r="419" spans="1:42" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>138</v>
       </c>
@@ -34331,7 +34424,7 @@
       <c r="AO419" s="1"/>
       <c r="AP419" s="1"/>
     </row>
-    <row r="420" spans="1:42" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:42" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>138</v>
       </c>
@@ -34391,7 +34484,7 @@
       <c r="AO420" s="1"/>
       <c r="AP420" s="1"/>
     </row>
-    <row r="421" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>138</v>
       </c>
@@ -34445,7 +34538,7 @@
       <c r="AO421" s="1"/>
       <c r="AP421" s="1"/>
     </row>
-    <row r="422" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>138</v>
       </c>
@@ -34502,7 +34595,7 @@
       <c r="AO422" s="1"/>
       <c r="AP422" s="1"/>
     </row>
-    <row r="423" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>138</v>
       </c>
@@ -34556,7 +34649,7 @@
       <c r="AO423" s="1"/>
       <c r="AP423" s="1"/>
     </row>
-    <row r="424" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>138</v>
       </c>
@@ -34610,7 +34703,7 @@
       <c r="AO424" s="1"/>
       <c r="AP424" s="1"/>
     </row>
-    <row r="425" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>138</v>
       </c>
@@ -34661,7 +34754,7 @@
       <c r="AO425" s="1"/>
       <c r="AP425" s="1"/>
     </row>
-    <row r="426" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>138</v>
       </c>
@@ -34712,7 +34805,7 @@
       <c r="AO426" s="1"/>
       <c r="AP426" s="1"/>
     </row>
-    <row r="427" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>138</v>
       </c>
@@ -34763,7 +34856,7 @@
       <c r="AO427" s="1"/>
       <c r="AP427" s="1"/>
     </row>
-    <row r="428" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>229</v>
       </c>
@@ -34811,7 +34904,7 @@
       <c r="AO428" s="1"/>
       <c r="AP428" s="1"/>
     </row>
-    <row r="429" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>229</v>
       </c>
@@ -34862,7 +34955,7 @@
       <c r="AO429" s="1"/>
       <c r="AP429" s="1"/>
     </row>
-    <row r="430" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>229</v>
       </c>
@@ -34910,7 +35003,7 @@
       <c r="AO430" s="1"/>
       <c r="AP430" s="1"/>
     </row>
-    <row r="431" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>138</v>
       </c>
@@ -34964,7 +35057,7 @@
       <c r="AO431" s="1"/>
       <c r="AP431" s="1"/>
     </row>
-    <row r="432" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>138</v>
       </c>
@@ -35018,7 +35111,7 @@
       <c r="AO432" s="1"/>
       <c r="AP432" s="1"/>
     </row>
-    <row r="433" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>138</v>
       </c>
@@ -35072,7 +35165,7 @@
       <c r="AO433" s="1"/>
       <c r="AP433" s="1"/>
     </row>
-    <row r="434" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>138</v>
       </c>
@@ -35126,7 +35219,7 @@
       <c r="AO434" s="1"/>
       <c r="AP434" s="1"/>
     </row>
-    <row r="435" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>138</v>
       </c>
@@ -35180,7 +35273,7 @@
       <c r="AO435" s="1"/>
       <c r="AP435" s="1"/>
     </row>
-    <row r="436" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>138</v>
       </c>
@@ -35231,7 +35324,7 @@
       <c r="AO436" s="1"/>
       <c r="AP436" s="1"/>
     </row>
-    <row r="437" spans="1:42" ht="216" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:42" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>138</v>
       </c>
@@ -35291,7 +35384,7 @@
       <c r="AO437" s="1"/>
       <c r="AP437" s="1"/>
     </row>
-    <row r="438" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>138</v>
       </c>
@@ -35348,7 +35441,7 @@
       <c r="AO438" s="1"/>
       <c r="AP438" s="1"/>
     </row>
-    <row r="439" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>138</v>
       </c>
@@ -35405,7 +35498,7 @@
       <c r="AO439" s="1"/>
       <c r="AP439" s="1"/>
     </row>
-    <row r="440" spans="1:42" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:42" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>138</v>
       </c>
@@ -35459,7 +35552,7 @@
       <c r="AO440" s="1"/>
       <c r="AP440" s="1"/>
     </row>
-    <row r="441" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>138</v>
       </c>
@@ -35513,7 +35606,7 @@
       <c r="AO441" s="1"/>
       <c r="AP441" s="1"/>
     </row>
-    <row r="442" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>138</v>
       </c>
@@ -35567,7 +35660,7 @@
       <c r="AO442" s="1"/>
       <c r="AP442" s="1"/>
     </row>
-    <row r="443" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>138</v>
       </c>
@@ -35630,7 +35723,7 @@
       <c r="AO443" s="1"/>
       <c r="AP443" s="1"/>
     </row>
-    <row r="444" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>138</v>
       </c>
@@ -35693,7 +35786,7 @@
       <c r="AO444" s="1"/>
       <c r="AP444" s="1"/>
     </row>
-    <row r="445" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>138</v>
       </c>
@@ -35756,7 +35849,7 @@
       <c r="AO445" s="1"/>
       <c r="AP445" s="1"/>
     </row>
-    <row r="446" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>138</v>
       </c>
@@ -35819,7 +35912,7 @@
       <c r="AO446" s="1"/>
       <c r="AP446" s="1"/>
     </row>
-    <row r="447" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>138</v>
       </c>
@@ -35882,7 +35975,7 @@
       <c r="AO447" s="1"/>
       <c r="AP447" s="1"/>
     </row>
-    <row r="448" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>138</v>
       </c>
@@ -35933,7 +36026,7 @@
       <c r="AO448" s="1"/>
       <c r="AP448" s="1"/>
     </row>
-    <row r="449" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>412</v>
       </c>
@@ -36051,7 +36144,7 @@
       <c r="AO449" s="1"/>
       <c r="AP449" s="1"/>
     </row>
-    <row r="450" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>412</v>
       </c>
@@ -36102,7 +36195,7 @@
       <c r="AO450" s="1"/>
       <c r="AP450" s="1"/>
     </row>
-    <row r="451" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>138</v>
       </c>
@@ -36153,7 +36246,7 @@
       <c r="AO451" s="1"/>
       <c r="AP451" s="1"/>
     </row>
-    <row r="452" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>412</v>
       </c>
@@ -36204,7 +36297,7 @@
       <c r="AO452" s="1"/>
       <c r="AP452" s="1"/>
     </row>
-    <row r="453" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>138</v>
       </c>
@@ -36258,7 +36351,7 @@
       <c r="AO453" s="1"/>
       <c r="AP453" s="1"/>
     </row>
-    <row r="454" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>138</v>
       </c>
@@ -36309,7 +36402,7 @@
       <c r="AO454" s="1"/>
       <c r="AP454" s="1"/>
     </row>
-    <row r="455" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>138</v>
       </c>
@@ -36369,7 +36462,7 @@
       <c r="AO455" s="1"/>
       <c r="AP455" s="1"/>
     </row>
-    <row r="456" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>138</v>
       </c>
@@ -36429,7 +36522,7 @@
       <c r="AO456" s="1"/>
       <c r="AP456" s="1"/>
     </row>
-    <row r="457" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>138</v>
       </c>
@@ -36480,7 +36573,7 @@
       <c r="AO457" s="1"/>
       <c r="AP457" s="1"/>
     </row>
-    <row r="458" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>138</v>
       </c>
@@ -36531,7 +36624,7 @@
       <c r="AO458" s="1"/>
       <c r="AP458" s="1"/>
     </row>
-    <row r="459" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>138</v>
       </c>
@@ -36585,7 +36678,7 @@
       <c r="AO459" s="1"/>
       <c r="AP459" s="1"/>
     </row>
-    <row r="460" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>138</v>
       </c>
@@ -36639,7 +36732,7 @@
       <c r="AO460" s="1"/>
       <c r="AP460" s="1"/>
     </row>
-    <row r="461" spans="1:42" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:42" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>138</v>
       </c>
@@ -36690,7 +36783,7 @@
       <c r="AO461" s="1"/>
       <c r="AP461" s="1"/>
     </row>
-    <row r="462" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>412</v>
       </c>
@@ -36814,7 +36907,7 @@
       <c r="AO462" s="1"/>
       <c r="AP462" s="1"/>
     </row>
-    <row r="463" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>138</v>
       </c>
@@ -36868,7 +36961,7 @@
       <c r="AO463" s="1"/>
       <c r="AP463" s="1"/>
     </row>
-    <row r="464" spans="1:42" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>138</v>
       </c>
@@ -36919,7 +37012,7 @@
       <c r="AO464" s="1"/>
       <c r="AP464" s="1"/>
     </row>
-    <row r="465" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>138</v>
       </c>
@@ -36970,7 +37063,7 @@
       <c r="AO465" s="1"/>
       <c r="AP465" s="1"/>
     </row>
-    <row r="466" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>138</v>
       </c>
@@ -37024,7 +37117,7 @@
       <c r="AO466" s="1"/>
       <c r="AP466" s="1"/>
     </row>
-    <row r="467" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>412</v>
       </c>
@@ -37075,7 +37168,7 @@
       <c r="AO467" s="1"/>
       <c r="AP467" s="1"/>
     </row>
-    <row r="468" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>138</v>
       </c>
@@ -37129,7 +37222,7 @@
       <c r="AO468" s="1"/>
       <c r="AP468" s="1"/>
     </row>
-    <row r="469" spans="1:42" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:42" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>138</v>
       </c>
@@ -37180,7 +37273,7 @@
       <c r="AO469" s="1"/>
       <c r="AP469" s="1"/>
     </row>
-    <row r="470" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>412</v>
       </c>
@@ -37298,7 +37391,7 @@
       <c r="AO470" s="1"/>
       <c r="AP470" s="1"/>
     </row>
-    <row r="471" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>138</v>
       </c>
@@ -37349,7 +37442,7 @@
       <c r="AO471" s="1"/>
       <c r="AP471" s="1"/>
     </row>
-    <row r="472" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>412</v>
       </c>
@@ -37437,7 +37530,7 @@
       <c r="AO472" s="1"/>
       <c r="AP472" s="1"/>
     </row>
-    <row r="473" spans="1:42" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>138</v>
       </c>
@@ -37491,7 +37584,7 @@
       <c r="AO473" s="1"/>
       <c r="AP473" s="1"/>
     </row>
-    <row r="474" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>138</v>
       </c>
@@ -37542,7 +37635,7 @@
       <c r="AO474" s="1"/>
       <c r="AP474" s="1"/>
     </row>
-    <row r="475" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>138</v>
       </c>
@@ -37596,7 +37689,7 @@
       <c r="AO475" s="1"/>
       <c r="AP475" s="1"/>
     </row>
-    <row r="476" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>138</v>
       </c>
@@ -37647,7 +37740,7 @@
       <c r="AO476" s="1"/>
       <c r="AP476" s="1"/>
     </row>
-    <row r="477" spans="1:42" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:42" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>138</v>
       </c>
@@ -37701,7 +37794,7 @@
       <c r="AO477" s="1"/>
       <c r="AP477" s="1"/>
     </row>
-    <row r="478" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>138</v>
       </c>
@@ -37758,7 +37851,7 @@
       <c r="AO478" s="1"/>
       <c r="AP478" s="1"/>
     </row>
-    <row r="479" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>138</v>
       </c>
@@ -37812,7 +37905,7 @@
       <c r="AO479" s="1"/>
       <c r="AP479" s="1"/>
     </row>
-    <row r="480" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>138</v>
       </c>
@@ -37866,7 +37959,7 @@
       <c r="AO480" s="1"/>
       <c r="AP480" s="1"/>
     </row>
-    <row r="481" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>138</v>
       </c>
@@ -37920,7 +38013,7 @@
       <c r="AO481" s="1"/>
       <c r="AP481" s="1"/>
     </row>
-    <row r="482" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>138</v>
       </c>
@@ -37974,7 +38067,7 @@
       <c r="AO482" s="1"/>
       <c r="AP482" s="1"/>
     </row>
-    <row r="483" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>138</v>
       </c>
@@ -38028,7 +38121,7 @@
       <c r="AO483" s="1"/>
       <c r="AP483" s="1"/>
     </row>
-    <row r="484" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>138</v>
       </c>
@@ -38082,7 +38175,7 @@
       <c r="AO484" s="1"/>
       <c r="AP484" s="1"/>
     </row>
-    <row r="485" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>138</v>
       </c>
@@ -38136,7 +38229,7 @@
       <c r="AO485" s="1"/>
       <c r="AP485" s="1"/>
     </row>
-    <row r="486" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>138</v>
       </c>
@@ -38187,7 +38280,7 @@
       <c r="AO486" s="1"/>
       <c r="AP486" s="1"/>
     </row>
-    <row r="487" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>402</v>
       </c>
@@ -38241,7 +38334,7 @@
       <c r="AO487" s="1"/>
       <c r="AP487" s="1"/>
     </row>
-    <row r="488" spans="1:42" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="1:42" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>138</v>
       </c>
@@ -38298,7 +38391,7 @@
       <c r="AO488" s="1"/>
       <c r="AP488" s="1"/>
     </row>
-    <row r="489" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>138</v>
       </c>
@@ -38355,7 +38448,7 @@
       <c r="AO489" s="1"/>
       <c r="AP489" s="1"/>
     </row>
-    <row r="490" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>138</v>
       </c>
@@ -38412,7 +38505,7 @@
       <c r="AO490" s="1"/>
       <c r="AP490" s="1"/>
     </row>
-    <row r="491" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>138</v>
       </c>
@@ -38466,7 +38559,7 @@
       <c r="AO491" s="1"/>
       <c r="AP491" s="1"/>
     </row>
-    <row r="492" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>138</v>
       </c>
@@ -38520,7 +38613,7 @@
       <c r="AO492" s="1"/>
       <c r="AP492" s="1"/>
     </row>
-    <row r="493" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>138</v>
       </c>
@@ -38574,7 +38667,7 @@
       <c r="AO493" s="1"/>
       <c r="AP493" s="1"/>
     </row>
-    <row r="494" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>138</v>
       </c>
@@ -38628,7 +38721,7 @@
       <c r="AO494" s="1"/>
       <c r="AP494" s="1"/>
     </row>
-    <row r="495" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>138</v>
       </c>
@@ -38682,7 +38775,7 @@
       <c r="AO495" s="1"/>
       <c r="AP495" s="1"/>
     </row>
-    <row r="496" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>138</v>
       </c>
@@ -38736,7 +38829,7 @@
       <c r="AO496" s="1"/>
       <c r="AP496" s="1"/>
     </row>
-    <row r="497" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>138</v>
       </c>
@@ -38790,7 +38883,7 @@
       <c r="AO497" s="1"/>
       <c r="AP497" s="1"/>
     </row>
-    <row r="498" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>138</v>
       </c>
@@ -38844,7 +38937,7 @@
       <c r="AO498" s="1"/>
       <c r="AP498" s="1"/>
     </row>
-    <row r="499" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>138</v>
       </c>
@@ -38898,7 +38991,7 @@
       <c r="AO499" s="1"/>
       <c r="AP499" s="1"/>
     </row>
-    <row r="500" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>138</v>
       </c>
@@ -38952,7 +39045,7 @@
       <c r="AO500" s="1"/>
       <c r="AP500" s="1"/>
     </row>
-    <row r="501" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>138</v>
       </c>
@@ -39006,7 +39099,7 @@
       <c r="AO501" s="1"/>
       <c r="AP501" s="1"/>
     </row>
-    <row r="502" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>138</v>
       </c>
@@ -39060,7 +39153,7 @@
       <c r="AO502" s="1"/>
       <c r="AP502" s="1"/>
     </row>
-    <row r="503" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>138</v>
       </c>
@@ -39111,7 +39204,7 @@
       <c r="AO503" s="1"/>
       <c r="AP503" s="1"/>
     </row>
-    <row r="504" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>138</v>
       </c>
@@ -39162,7 +39255,7 @@
       <c r="AO504" s="1"/>
       <c r="AP504" s="1"/>
     </row>
-    <row r="505" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>138</v>
       </c>
@@ -39213,7 +39306,7 @@
       <c r="AO505" s="1"/>
       <c r="AP505" s="1"/>
     </row>
-    <row r="506" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>229</v>
       </c>
@@ -39264,7 +39357,7 @@
       <c r="AO506" s="1"/>
       <c r="AP506" s="1"/>
     </row>
-    <row r="507" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>229</v>
       </c>
@@ -39318,7 +39411,7 @@
       <c r="AO507" s="1"/>
       <c r="AP507" s="1"/>
     </row>
-    <row r="508" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>138</v>
       </c>
@@ -39372,7 +39465,7 @@
       <c r="AO508" s="1"/>
       <c r="AP508" s="1"/>
     </row>
-    <row r="509" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>138</v>
       </c>
@@ -39426,7 +39519,7 @@
       <c r="AO509" s="1"/>
       <c r="AP509" s="1"/>
     </row>
-    <row r="510" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>138</v>
       </c>
@@ -39480,7 +39573,7 @@
       <c r="AO510" s="1"/>
       <c r="AP510" s="1"/>
     </row>
-    <row r="511" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>138</v>
       </c>
@@ -39534,7 +39627,7 @@
       <c r="AO511" s="1"/>
       <c r="AP511" s="1"/>
     </row>
-    <row r="512" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>138</v>
       </c>
@@ -39588,7 +39681,7 @@
       <c r="AO512" s="1"/>
       <c r="AP512" s="1"/>
     </row>
-    <row r="513" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>138</v>
       </c>
@@ -39642,7 +39735,7 @@
       <c r="AO513" s="1"/>
       <c r="AP513" s="1"/>
     </row>
-    <row r="514" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>138</v>
       </c>
@@ -39693,7 +39786,7 @@
       <c r="AO514" s="1"/>
       <c r="AP514" s="1"/>
     </row>
-    <row r="515" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>138</v>
       </c>
@@ -39744,7 +39837,7 @@
       <c r="AO515" s="1"/>
       <c r="AP515" s="1"/>
     </row>
-    <row r="516" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>138</v>
       </c>
@@ -39801,7 +39894,7 @@
       <c r="AO516" s="1"/>
       <c r="AP516" s="1"/>
     </row>
-    <row r="517" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>138</v>
       </c>
@@ -39858,7 +39951,7 @@
       <c r="AO517" s="1"/>
       <c r="AP517" s="1"/>
     </row>
-    <row r="518" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>138</v>
       </c>
@@ -39915,7 +40008,7 @@
       <c r="AO518" s="1"/>
       <c r="AP518" s="1"/>
     </row>
-    <row r="519" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>138</v>
       </c>
@@ -39972,7 +40065,7 @@
       <c r="AO519" s="1"/>
       <c r="AP519" s="1"/>
     </row>
-    <row r="520" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>138</v>
       </c>
@@ -40029,7 +40122,7 @@
       <c r="AO520" s="1"/>
       <c r="AP520" s="1"/>
     </row>
-    <row r="521" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>138</v>
       </c>
@@ -40086,7 +40179,7 @@
       <c r="AO521" s="1"/>
       <c r="AP521" s="1"/>
     </row>
-    <row r="522" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>138</v>
       </c>
@@ -40140,7 +40233,7 @@
       <c r="AO522" s="1"/>
       <c r="AP522" s="1"/>
     </row>
-    <row r="523" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>138</v>
       </c>
@@ -40194,7 +40287,7 @@
       <c r="AO523" s="1"/>
       <c r="AP523" s="1"/>
     </row>
-    <row r="524" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>138</v>
       </c>
@@ -40248,7 +40341,7 @@
       <c r="AO524" s="1"/>
       <c r="AP524" s="1"/>
     </row>
-    <row r="525" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>138</v>
       </c>
@@ -40299,7 +40392,7 @@
       <c r="AO525" s="1"/>
       <c r="AP525" s="1"/>
     </row>
-    <row r="526" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>138</v>
       </c>
@@ -40350,7 +40443,7 @@
       <c r="AO526" s="1"/>
       <c r="AP526" s="1"/>
     </row>
-    <row r="527" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>138</v>
       </c>
@@ -40401,7 +40494,7 @@
       <c r="AO527" s="1"/>
       <c r="AP527" s="1"/>
     </row>
-    <row r="528" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>229</v>
       </c>
@@ -40452,7 +40545,7 @@
       <c r="AO528" s="1"/>
       <c r="AP528" s="1"/>
     </row>
-    <row r="529" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>412</v>
       </c>
@@ -40503,7 +40596,7 @@
       <c r="AO529" s="1"/>
       <c r="AP529" s="1"/>
     </row>
-    <row r="530" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>688</v>
       </c>
@@ -40557,7 +40650,7 @@
       <c r="AO530" s="1"/>
       <c r="AP530" s="1"/>
     </row>
-    <row r="531" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>229</v>
       </c>
@@ -40611,7 +40704,7 @@
       <c r="AO531" s="1"/>
       <c r="AP531" s="1"/>
     </row>
-    <row r="532" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>155</v>
       </c>
@@ -40662,7 +40755,7 @@
       <c r="AO532" s="1"/>
       <c r="AP532" s="1"/>
     </row>
-    <row r="533" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>229</v>
       </c>
@@ -40710,7 +40803,7 @@
       <c r="AO533" s="1"/>
       <c r="AP533" s="1"/>
     </row>
-    <row r="534" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>402</v>
       </c>
@@ -40764,7 +40857,7 @@
       <c r="AO534" s="1"/>
       <c r="AP534" s="1"/>
     </row>
-    <row r="535" spans="1:42" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>138</v>
       </c>
@@ -40827,7 +40920,7 @@
       <c r="AO535" s="1"/>
       <c r="AP535" s="1"/>
     </row>
-    <row r="536" spans="1:42" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="1:42" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>138</v>
       </c>
@@ -40887,7 +40980,7 @@
       <c r="AO536" s="1"/>
       <c r="AP536" s="1"/>
     </row>
-    <row r="537" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>138</v>
       </c>
@@ -40938,7 +41031,7 @@
       <c r="AO537" s="1"/>
       <c r="AP537" s="1"/>
     </row>
-    <row r="538" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>138</v>
       </c>
@@ -40992,7 +41085,7 @@
       <c r="AO538" s="1"/>
       <c r="AP538" s="1"/>
     </row>
-    <row r="539" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>138</v>
       </c>
@@ -41043,7 +41136,7 @@
       <c r="AO539" s="1"/>
       <c r="AP539" s="1"/>
     </row>
-    <row r="540" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>412</v>
       </c>
@@ -41094,7 +41187,7 @@
       <c r="AO540" s="1"/>
       <c r="AP540" s="1"/>
     </row>
-    <row r="541" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>412</v>
       </c>
@@ -41215,7 +41308,7 @@
       <c r="AO541" s="1"/>
       <c r="AP541" s="1"/>
     </row>
-    <row r="542" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>138</v>
       </c>
@@ -41266,7 +41359,7 @@
       <c r="AO542" s="1"/>
       <c r="AP542" s="1"/>
     </row>
-    <row r="543" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>412</v>
       </c>
@@ -41317,7 +41410,7 @@
       <c r="AO543" s="1"/>
       <c r="AP543" s="1"/>
     </row>
-    <row r="544" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>138</v>
       </c>
@@ -41368,7 +41461,7 @@
       <c r="AO544" s="1"/>
       <c r="AP544" s="1"/>
     </row>
-    <row r="545" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>138</v>
       </c>
@@ -41422,7 +41515,7 @@
       <c r="AO545" s="1"/>
       <c r="AP545" s="1"/>
     </row>
-    <row r="546" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>138</v>
       </c>
@@ -41476,7 +41569,7 @@
       <c r="AO546" s="1"/>
       <c r="AP546" s="1"/>
     </row>
-    <row r="547" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>138</v>
       </c>
@@ -41530,7 +41623,7 @@
       <c r="AO547" s="1"/>
       <c r="AP547" s="1"/>
     </row>
-    <row r="548" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>138</v>
       </c>
@@ -41581,7 +41674,7 @@
       <c r="AO548" s="1"/>
       <c r="AP548" s="1"/>
     </row>
-    <row r="549" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>138</v>
       </c>
@@ -41632,7 +41725,7 @@
       <c r="AO549" s="1"/>
       <c r="AP549" s="1"/>
     </row>
-    <row r="550" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>138</v>
       </c>
@@ -41683,7 +41776,7 @@
       <c r="AO550" s="1"/>
       <c r="AP550" s="1"/>
     </row>
-    <row r="551" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>412</v>
       </c>
@@ -41734,7 +41827,7 @@
       <c r="AO551" s="1"/>
       <c r="AP551" s="1"/>
     </row>
-    <row r="552" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="552" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>138</v>
       </c>
@@ -41785,7 +41878,7 @@
       <c r="AO552" s="1"/>
       <c r="AP552" s="1"/>
     </row>
-    <row r="553" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="553" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>138</v>
       </c>
@@ -41836,7 +41929,7 @@
       <c r="AO553" s="1"/>
       <c r="AP553" s="1"/>
     </row>
-    <row r="554" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>138</v>
       </c>
@@ -41887,7 +41980,7 @@
       <c r="AO554" s="1"/>
       <c r="AP554" s="1"/>
     </row>
-    <row r="555" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>412</v>
       </c>
@@ -41938,7 +42031,7 @@
       <c r="AO555" s="1"/>
       <c r="AP555" s="1"/>
     </row>
-    <row r="556" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>138</v>
       </c>
@@ -41989,7 +42082,7 @@
       <c r="AO556" s="1"/>
       <c r="AP556" s="1"/>
     </row>
-    <row r="557" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>138</v>
       </c>
@@ -42040,7 +42133,7 @@
       <c r="AO557" s="1"/>
       <c r="AP557" s="1"/>
     </row>
-    <row r="558" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>412</v>
       </c>
@@ -42155,7 +42248,7 @@
       <c r="AO558" s="1"/>
       <c r="AP558" s="1"/>
     </row>
-    <row r="559" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="559" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>138</v>
       </c>
@@ -42206,7 +42299,7 @@
       <c r="AO559" s="1"/>
       <c r="AP559" s="1"/>
     </row>
-    <row r="560" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="560" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>412</v>
       </c>
@@ -42321,7 +42414,7 @@
       <c r="AO560" s="1"/>
       <c r="AP560" s="1"/>
     </row>
-    <row r="561" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="561" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>138</v>
       </c>
@@ -42372,7 +42465,7 @@
       <c r="AO561" s="1"/>
       <c r="AP561" s="1"/>
     </row>
-    <row r="562" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="562" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>138</v>
       </c>
@@ -42423,7 +42516,7 @@
       <c r="AO562" s="1"/>
       <c r="AP562" s="1"/>
     </row>
-    <row r="563" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>138</v>
       </c>
@@ -42474,7 +42567,7 @@
       <c r="AO563" s="1"/>
       <c r="AP563" s="1"/>
     </row>
-    <row r="564" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>412</v>
       </c>
@@ -42525,7 +42618,7 @@
       <c r="AO564" s="1"/>
       <c r="AP564" s="1"/>
     </row>
-    <row r="565" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="565" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>138</v>
       </c>
@@ -42576,7 +42669,7 @@
       <c r="AO565" s="1"/>
       <c r="AP565" s="1"/>
     </row>
-    <row r="566" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="566" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>138</v>
       </c>
@@ -42627,7 +42720,7 @@
       <c r="AO566" s="1"/>
       <c r="AP566" s="1"/>
     </row>
-    <row r="567" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="567" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>138</v>
       </c>
@@ -42678,7 +42771,7 @@
       <c r="AO567" s="1"/>
       <c r="AP567" s="1"/>
     </row>
-    <row r="568" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="568" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>138</v>
       </c>
@@ -42729,7 +42822,7 @@
       <c r="AO568" s="1"/>
       <c r="AP568" s="1"/>
     </row>
-    <row r="569" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="569" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>138</v>
       </c>
@@ -42780,7 +42873,7 @@
       <c r="AO569" s="1"/>
       <c r="AP569" s="1"/>
     </row>
-    <row r="570" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="570" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>138</v>
       </c>
@@ -42834,7 +42927,7 @@
       <c r="AO570" s="1"/>
       <c r="AP570" s="1"/>
     </row>
-    <row r="571" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>412</v>
       </c>
@@ -42952,7 +43045,7 @@
       <c r="AO571" s="1"/>
       <c r="AP571" s="1"/>
     </row>
-    <row r="572" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="572" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>412</v>
       </c>
@@ -43070,7 +43163,7 @@
       <c r="AO572" s="1"/>
       <c r="AP572" s="1"/>
     </row>
-    <row r="573" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="573" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>138</v>
       </c>
@@ -43121,7 +43214,7 @@
       <c r="AO573" s="1"/>
       <c r="AP573" s="1"/>
     </row>
-    <row r="574" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>138</v>
       </c>
@@ -43172,7 +43265,7 @@
       <c r="AO574" s="1"/>
       <c r="AP574" s="1"/>
     </row>
-    <row r="575" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="575" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>138</v>
       </c>
@@ -43226,7 +43319,7 @@
       <c r="AO575" s="1"/>
       <c r="AP575" s="1"/>
     </row>
-    <row r="576" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>138</v>
       </c>
@@ -43280,7 +43373,7 @@
       <c r="AO576" s="1"/>
       <c r="AP576" s="1"/>
     </row>
-    <row r="577" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="577" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>138</v>
       </c>
@@ -43334,7 +43427,7 @@
       <c r="AO577" s="1"/>
       <c r="AP577" s="1"/>
     </row>
-    <row r="578" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>155</v>
       </c>
@@ -43360,91 +43453,91 @@
         <v>451</v>
       </c>
       <c r="K578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!B$4</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!B$3</f>
         <v>156716600</v>
       </c>
       <c r="L578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!C$4</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!C$3</f>
         <v>167976040</v>
       </c>
       <c r="M578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!D$4</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!D$3</f>
         <v>183715880</v>
       </c>
       <c r="N578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!E$4</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!E$3</f>
         <v>187651428</v>
       </c>
       <c r="O578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!F$4</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!F$3</f>
         <v>194953119</v>
       </c>
       <c r="P578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!G$4</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!G$3</f>
         <v>204027579</v>
       </c>
       <c r="Q578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!H$4</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!H$3</f>
         <v>211944467</v>
       </c>
       <c r="R578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!I$4</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!I$3</f>
         <v>224458726</v>
       </c>
       <c r="S578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!J$4</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!J$3</f>
         <v>237583497</v>
       </c>
       <c r="T578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!K$4</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!K$3</f>
         <v>246965271</v>
       </c>
       <c r="U578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!L$4</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!L$3</f>
         <v>253048448</v>
       </c>
       <c r="V578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!M$4</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!M$3</f>
         <v>259934115</v>
       </c>
       <c r="W578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!N$4</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!N$3</f>
         <v>260625937</v>
       </c>
       <c r="X578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!O$4</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!O$3</f>
         <v>263067911</v>
       </c>
       <c r="Y578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!P$4</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!P$3</f>
         <v>253919348</v>
       </c>
       <c r="Z578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!Q$4</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!Q$3</f>
         <v>246326325</v>
       </c>
       <c r="AA578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!R$4</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!R$3</f>
         <v>229140550</v>
       </c>
       <c r="AB578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!S$4</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!S$3</f>
         <v>217313967</v>
       </c>
       <c r="AC578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!T$4</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!T$3</f>
         <v>193782638</v>
       </c>
       <c r="AD578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!U$4</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!U$3</f>
         <v>169863949</v>
       </c>
       <c r="AE578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!V$4</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!V$3</f>
         <v>154658303</v>
       </c>
       <c r="AF578" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!W$4</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!W$3</f>
         <v>144174733</v>
       </c>
       <c r="AG578" s="1"/>
@@ -43458,7 +43551,7 @@
       <c r="AO578" s="1"/>
       <c r="AP578" s="1"/>
     </row>
-    <row r="579" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>138</v>
       </c>
@@ -43512,7 +43605,7 @@
       <c r="AO579" s="1"/>
       <c r="AP579" s="1"/>
     </row>
-    <row r="580" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>412</v>
       </c>
@@ -43633,7 +43726,7 @@
       <c r="AO580" s="1"/>
       <c r="AP580" s="1"/>
     </row>
-    <row r="581" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="581" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>412</v>
       </c>
@@ -43693,7 +43786,7 @@
       <c r="AO581" s="1"/>
       <c r="AP581" s="1"/>
     </row>
-    <row r="582" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="582" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>138</v>
       </c>
@@ -43747,7 +43840,7 @@
       <c r="AO582" s="1"/>
       <c r="AP582" s="1"/>
     </row>
-    <row r="583" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="583" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>155</v>
       </c>
@@ -43773,91 +43866,91 @@
         <v>451</v>
       </c>
       <c r="K583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!B$5</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!B$4</f>
         <v>83860335346.247116</v>
       </c>
       <c r="L583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!C$5</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!C$4</f>
         <v>88243037645.415298</v>
       </c>
       <c r="M583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!D$5</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!D$4</f>
         <v>104432410000.00002</v>
       </c>
       <c r="N583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!E$5</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!E$4</f>
         <v>113914397673</v>
       </c>
       <c r="O583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!F$5</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!F$4</f>
         <v>128182380208</v>
       </c>
       <c r="P583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!G$5</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!G$4</f>
         <v>141266597589</v>
       </c>
       <c r="Q583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!H$5</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!H$4</f>
         <v>152741116253</v>
       </c>
       <c r="R583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!I$5</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!I$4</f>
         <v>172377484435</v>
       </c>
       <c r="S583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!J$5</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!J$4</f>
         <v>194816933897</v>
       </c>
       <c r="T583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!K$5</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!K$4</f>
         <v>214803554568</v>
       </c>
       <c r="U583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!L$5</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!L$4</f>
         <v>227757668789</v>
       </c>
       <c r="V583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!M$5</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!M$4</f>
         <v>245404960604</v>
       </c>
       <c r="W583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!N$5</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!N$4</f>
         <v>246463188398</v>
       </c>
       <c r="X583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!O$5</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!O$4</f>
         <v>239867616739</v>
       </c>
       <c r="Y583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!P$5</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!P$4</f>
         <v>228965844787</v>
       </c>
       <c r="Z583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!Q$5</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!Q$4</f>
         <v>221271525079</v>
       </c>
       <c r="AA583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!R$5</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!R$4</f>
         <v>209409702158</v>
       </c>
       <c r="AB583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!S$5</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!S$4</f>
         <v>197124327717</v>
       </c>
       <c r="AC583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!T$5</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!T$4</f>
         <v>170285611746</v>
       </c>
       <c r="AD583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!U$5</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!U$4</f>
         <v>141100706124</v>
       </c>
       <c r="AE583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!V$5</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!V$4</f>
         <v>120407890118</v>
       </c>
       <c r="AF583" s="10">
-        <f>'[1]Opioid Rx Data IQVIA SH'!W$5</f>
+        <f>'[1]Opioid Rx Data IQVIA SH'!W$4</f>
         <v>110314545203</v>
       </c>
       <c r="AG583" s="1"/>
@@ -43871,7 +43964,7 @@
       <c r="AO583" s="1"/>
       <c r="AP583" s="1"/>
     </row>
-    <row r="584" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="584" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>138</v>
       </c>
@@ -43922,7 +44015,7 @@
       <c r="AO584" s="1"/>
       <c r="AP584" s="1"/>
     </row>
-    <row r="585" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="585" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>138</v>
       </c>
@@ -43976,7 +44069,7 @@
       <c r="AO585" s="1"/>
       <c r="AP585" s="1"/>
     </row>
-    <row r="586" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="586" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>138</v>
       </c>
@@ -44027,7 +44120,7 @@
       <c r="AO586" s="1"/>
       <c r="AP586" s="1"/>
     </row>
-    <row r="587" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="587" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>138</v>
       </c>
@@ -44084,7 +44177,7 @@
       <c r="AO587" s="1"/>
       <c r="AP587" s="1"/>
     </row>
-    <row r="588" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="588" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>412</v>
       </c>
@@ -44135,7 +44228,7 @@
       <c r="AO588" s="1"/>
       <c r="AP588" s="1"/>
     </row>
-    <row r="589" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="589" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>138</v>
       </c>
@@ -44189,7 +44282,7 @@
       <c r="AO589" s="1"/>
       <c r="AP589" s="1"/>
     </row>
-    <row r="590" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="590" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>138</v>
       </c>
@@ -44243,7 +44336,7 @@
       <c r="AO590" s="1"/>
       <c r="AP590" s="1"/>
     </row>
-    <row r="591" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="591" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>138</v>
       </c>
@@ -44297,7 +44390,7 @@
       <c r="AO591" s="1"/>
       <c r="AP591" s="1"/>
     </row>
-    <row r="592" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="592" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>138</v>
       </c>
@@ -44351,7 +44444,7 @@
       <c r="AO592" s="1"/>
       <c r="AP592" s="1"/>
     </row>
-    <row r="593" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="593" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>138</v>
       </c>
@@ -44402,7 +44495,7 @@
       <c r="AO593" s="1"/>
       <c r="AP593" s="1"/>
     </row>
-    <row r="594" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="594" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>138</v>
       </c>
@@ -44456,7 +44549,7 @@
       <c r="AO594" s="1"/>
       <c r="AP594" s="1"/>
     </row>
-    <row r="595" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="595" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>138</v>
       </c>
@@ -44510,7 +44603,7 @@
       <c r="AO595" s="1"/>
       <c r="AP595" s="1"/>
     </row>
-    <row r="596" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="596" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>412</v>
       </c>
@@ -44634,7 +44727,7 @@
       <c r="AO596" s="1"/>
       <c r="AP596" s="1"/>
     </row>
-    <row r="597" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="597" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>138</v>
       </c>
@@ -44688,7 +44781,7 @@
       <c r="AO597" s="1"/>
       <c r="AP597" s="1"/>
     </row>
-    <row r="598" spans="1:42" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="598" spans="1:42" ht="230.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>138</v>
       </c>
@@ -44751,7 +44844,7 @@
       <c r="AO598" s="1"/>
       <c r="AP598" s="1"/>
     </row>
-    <row r="599" spans="1:42" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="599" spans="1:42" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>138</v>
       </c>
@@ -44814,7 +44907,7 @@
       <c r="AO599" s="1"/>
       <c r="AP599" s="1"/>
     </row>
-    <row r="600" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="600" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>688</v>
       </c>
@@ -44871,7 +44964,7 @@
       <c r="AO600" s="1"/>
       <c r="AP600" s="1"/>
     </row>
-    <row r="601" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="601" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>138</v>
       </c>
@@ -44934,7 +45027,7 @@
       <c r="AO601" s="1"/>
       <c r="AP601" s="1"/>
     </row>
-    <row r="602" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="602" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>138</v>
       </c>
@@ -44988,7 +45081,7 @@
       <c r="AO602" s="1"/>
       <c r="AP602" s="1"/>
     </row>
-    <row r="603" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="603" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>138</v>
       </c>
@@ -45042,7 +45135,7 @@
       <c r="AO603" s="1"/>
       <c r="AP603" s="1"/>
     </row>
-    <row r="604" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="604" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>138</v>
       </c>
@@ -45096,7 +45189,7 @@
       <c r="AO604" s="1"/>
       <c r="AP604" s="1"/>
     </row>
-    <row r="605" spans="1:42" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="605" spans="1:42" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>138</v>
       </c>
@@ -45153,7 +45246,7 @@
       <c r="AO605" s="1"/>
       <c r="AP605" s="1"/>
     </row>
-    <row r="606" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="606" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>138</v>
       </c>
@@ -45204,7 +45297,7 @@
       <c r="AO606" s="1"/>
       <c r="AP606" s="1"/>
     </row>
-    <row r="607" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="607" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>138</v>
       </c>
@@ -45255,7 +45348,7 @@
       <c r="AO607" s="1"/>
       <c r="AP607" s="1"/>
     </row>
-    <row r="608" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="608" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>138</v>
       </c>
@@ -45306,7 +45399,7 @@
       <c r="AO608" s="1"/>
       <c r="AP608" s="1"/>
     </row>
-    <row r="609" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="609" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>138</v>
       </c>
@@ -45360,7 +45453,7 @@
       <c r="AO609" s="1"/>
       <c r="AP609" s="1"/>
     </row>
-    <row r="610" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="610" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>138</v>
       </c>
@@ -45414,7 +45507,7 @@
       <c r="AO610" s="1"/>
       <c r="AP610" s="1"/>
     </row>
-    <row r="611" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="611" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>138</v>
       </c>
@@ -45465,7 +45558,7 @@
       <c r="AO611" s="1"/>
       <c r="AP611" s="1"/>
     </row>
-    <row r="612" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="612" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>138</v>
       </c>
@@ -45516,7 +45609,7 @@
       <c r="AO612" s="1"/>
       <c r="AP612" s="1"/>
     </row>
-    <row r="613" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="613" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>138</v>
       </c>
@@ -45567,7 +45660,7 @@
       <c r="AO613" s="1"/>
       <c r="AP613" s="1"/>
     </row>
-    <row r="614" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="614" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>138</v>
       </c>
@@ -45618,7 +45711,7 @@
       <c r="AO614" s="1"/>
       <c r="AP614" s="1"/>
     </row>
-    <row r="615" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="615" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>138</v>
       </c>
@@ -45669,7 +45762,7 @@
       <c r="AO615" s="1"/>
       <c r="AP615" s="1"/>
     </row>
-    <row r="616" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="616" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>138</v>
       </c>
@@ -45720,7 +45813,7 @@
       <c r="AO616" s="1"/>
       <c r="AP616" s="1"/>
     </row>
-    <row r="617" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="617" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>138</v>
       </c>
@@ -45774,7 +45867,7 @@
       <c r="AO617" s="1"/>
       <c r="AP617" s="1"/>
     </row>
-    <row r="618" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="618" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>138</v>
       </c>
@@ -45825,7 +45918,7 @@
       <c r="AO618" s="1"/>
       <c r="AP618" s="1"/>
     </row>
-    <row r="619" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="619" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>138</v>
       </c>
@@ -45879,7 +45972,7 @@
       <c r="AO619" s="1"/>
       <c r="AP619" s="1"/>
     </row>
-    <row r="620" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="620" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>138</v>
       </c>
@@ -45933,7 +46026,7 @@
       <c r="AO620" s="1"/>
       <c r="AP620" s="1"/>
     </row>
-    <row r="621" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="621" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>138</v>
       </c>
@@ -45987,7 +46080,7 @@
       <c r="AO621" s="1"/>
       <c r="AP621" s="1"/>
     </row>
-    <row r="622" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="622" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>138</v>
       </c>
@@ -46038,7 +46131,7 @@
       <c r="AO622" s="1"/>
       <c r="AP622" s="1"/>
     </row>
-    <row r="623" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="623" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>138</v>
       </c>
@@ -46089,7 +46182,7 @@
       <c r="AO623" s="1"/>
       <c r="AP623" s="1"/>
     </row>
-    <row r="624" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="624" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>138</v>
       </c>
@@ -46140,7 +46233,7 @@
       <c r="AO624" s="1"/>
       <c r="AP624" s="1"/>
     </row>
-    <row r="625" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="625" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>138</v>
       </c>
@@ -46194,7 +46287,7 @@
       <c r="AO625" s="1"/>
       <c r="AP625" s="1"/>
     </row>
-    <row r="626" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="626" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>138</v>
       </c>
@@ -46245,7 +46338,7 @@
       <c r="AO626" s="1"/>
       <c r="AP626" s="1"/>
     </row>
-    <row r="627" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="627" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>138</v>
       </c>
@@ -46299,7 +46392,7 @@
       <c r="AO627" s="1"/>
       <c r="AP627" s="1"/>
     </row>
-    <row r="628" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="628" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>138</v>
       </c>
@@ -46353,7 +46446,7 @@
       <c r="AO628" s="1"/>
       <c r="AP628" s="1"/>
     </row>
-    <row r="629" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="629" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>138</v>
       </c>
@@ -46407,7 +46500,7 @@
       <c r="AO629" s="1"/>
       <c r="AP629" s="1"/>
     </row>
-    <row r="630" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="630" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>138</v>
       </c>
@@ -46458,7 +46551,7 @@
       <c r="AO630" s="1"/>
       <c r="AP630" s="1"/>
     </row>
-    <row r="631" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="631" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>138</v>
       </c>
@@ -46509,7 +46602,7 @@
       <c r="AO631" s="1"/>
       <c r="AP631" s="1"/>
     </row>
-    <row r="632" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="632" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>138</v>
       </c>
@@ -46560,7 +46653,7 @@
       <c r="AO632" s="1"/>
       <c r="AP632" s="1"/>
     </row>
-    <row r="633" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="633" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>138</v>
       </c>
@@ -46614,7 +46707,7 @@
       <c r="AO633" s="1"/>
       <c r="AP633" s="1"/>
     </row>
-    <row r="634" spans="1:42" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="634" spans="1:42" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>138</v>
       </c>
@@ -46674,7 +46767,7 @@
       <c r="AO634" s="1"/>
       <c r="AP634" s="1"/>
     </row>
-    <row r="635" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="635" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>138</v>
       </c>
@@ -46731,7 +46824,7 @@
       <c r="AO635" s="1"/>
       <c r="AP635" s="1"/>
     </row>
-    <row r="636" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="636" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>412</v>
       </c>
@@ -46782,7 +46875,7 @@
       <c r="AO636" s="1"/>
       <c r="AP636" s="1"/>
     </row>
-    <row r="637" spans="1:42" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="637" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>412</v>
       </c>
@@ -46909,7 +47002,7 @@
       <c r="AO637" s="1"/>
       <c r="AP637" s="1"/>
     </row>
-    <row r="638" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="638" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>412</v>
       </c>
@@ -47036,7 +47129,7 @@
       <c r="AO638" s="1"/>
       <c r="AP638" s="1"/>
     </row>
-    <row r="639" spans="1:42" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="639" spans="1:42" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>138</v>
       </c>
@@ -47096,7 +47189,7 @@
       <c r="AO639" s="1"/>
       <c r="AP639" s="1"/>
     </row>
-    <row r="640" spans="1:42" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="640" spans="1:42" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>138</v>
       </c>
@@ -47147,7 +47240,7 @@
       <c r="AO640" s="1"/>
       <c r="AP640" s="1"/>
     </row>
-    <row r="641" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="641" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>138</v>
       </c>
@@ -47210,7 +47303,7 @@
       <c r="AO641" s="1"/>
       <c r="AP641" s="1"/>
     </row>
-    <row r="642" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="642" spans="1:42" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>138</v>
       </c>
@@ -47273,7 +47366,7 @@
       <c r="AO642" s="1"/>
       <c r="AP642" s="1"/>
     </row>
-    <row r="643" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="643" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>138</v>
       </c>
@@ -47336,7 +47429,7 @@
       <c r="AO643" s="1"/>
       <c r="AP643" s="1"/>
     </row>
-    <row r="644" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="644" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>138</v>
       </c>
@@ -47393,7 +47486,7 @@
       <c r="AO644" s="1"/>
       <c r="AP644" s="1"/>
     </row>
-    <row r="645" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="645" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>138</v>
       </c>
@@ -47450,7 +47543,7 @@
       <c r="AO645" s="1"/>
       <c r="AP645" s="1"/>
     </row>
-    <row r="646" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="646" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>138</v>
       </c>
@@ -47504,7 +47597,7 @@
       <c r="AO646" s="1"/>
       <c r="AP646" s="1"/>
     </row>
-    <row r="647" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="647" spans="1:42" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>138</v>
       </c>
@@ -47567,7 +47660,7 @@
       <c r="AO647" s="1"/>
       <c r="AP647" s="1"/>
     </row>
-    <row r="648" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="648" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>138</v>
       </c>
@@ -47630,7 +47723,7 @@
       <c r="AO648" s="1"/>
       <c r="AP648" s="1"/>
     </row>
-    <row r="649" spans="1:42" ht="144" x14ac:dyDescent="0.55000000000000004">
+    <row r="649" spans="1:42" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>138</v>
       </c>
@@ -47693,7 +47786,7 @@
       <c r="AO649" s="1"/>
       <c r="AP649" s="1"/>
     </row>
-    <row r="650" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="650" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>138</v>
       </c>
@@ -47753,7 +47846,7 @@
       <c r="AO650" s="1"/>
       <c r="AP650" s="1"/>
     </row>
-    <row r="651" spans="1:42" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="651" spans="1:42" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>138</v>
       </c>
@@ -47804,7 +47897,7 @@
       <c r="AO651" s="1"/>
       <c r="AP651" s="1"/>
     </row>
-    <row r="652" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="652" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>138</v>
       </c>
@@ -47858,7 +47951,7 @@
       <c r="AO652" s="1"/>
       <c r="AP652" s="1"/>
     </row>
-    <row r="653" spans="1:42" ht="144" x14ac:dyDescent="0.55000000000000004">
+    <row r="653" spans="1:42" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>138</v>
       </c>
@@ -47921,7 +48014,7 @@
       <c r="AO653" s="1"/>
       <c r="AP653" s="1"/>
     </row>
-    <row r="654" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="654" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>138</v>
       </c>
@@ -47978,7 +48071,7 @@
       <c r="AO654" s="1"/>
       <c r="AP654" s="1"/>
     </row>
-    <row r="655" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="655" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>138</v>
       </c>
@@ -48032,7 +48125,7 @@
       <c r="AO655" s="1"/>
       <c r="AP655" s="1"/>
     </row>
-    <row r="656" spans="1:42" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="656" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>138</v>
       </c>
@@ -48089,7 +48182,7 @@
       <c r="AO656" s="1"/>
       <c r="AP656" s="1"/>
     </row>
-    <row r="657" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="657" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>138</v>
       </c>
@@ -48143,7 +48236,7 @@
       <c r="AO657" s="1"/>
       <c r="AP657" s="1"/>
     </row>
-    <row r="658" spans="1:42" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="658" spans="1:42" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>138</v>
       </c>
@@ -48200,7 +48293,7 @@
       <c r="AO658" s="1"/>
       <c r="AP658" s="1"/>
     </row>
-    <row r="659" spans="1:42" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="659" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>138</v>
       </c>
@@ -48260,7 +48353,7 @@
       <c r="AO659" s="1"/>
       <c r="AP659" s="1"/>
     </row>
-    <row r="660" spans="1:42" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="660" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>138</v>
       </c>
@@ -48320,7 +48413,7 @@
       <c r="AO660" s="1"/>
       <c r="AP660" s="1"/>
     </row>
-    <row r="661" spans="1:42" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="661" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>138</v>
       </c>
@@ -48380,7 +48473,7 @@
       <c r="AO661" s="1"/>
       <c r="AP661" s="1"/>
     </row>
-    <row r="662" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="662" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>138</v>
       </c>
@@ -48437,7 +48530,7 @@
       <c r="AO662" s="1"/>
       <c r="AP662" s="1"/>
     </row>
-    <row r="663" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="663" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>155</v>
       </c>
@@ -48488,7 +48581,7 @@
       <c r="AO663" s="1"/>
       <c r="AP663" s="1"/>
     </row>
-    <row r="664" spans="1:42" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="664" spans="1:42" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>155</v>
       </c>
@@ -48545,7 +48638,7 @@
       <c r="AO664" s="1"/>
       <c r="AP664" s="1"/>
     </row>
-    <row r="665" spans="1:42" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="665" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>155</v>
       </c>
@@ -48605,7 +48698,7 @@
       <c r="AO665" s="1"/>
       <c r="AP665" s="1"/>
     </row>
-    <row r="666" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="666" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>229</v>
       </c>
@@ -48656,7 +48749,7 @@
       <c r="AO666" s="1"/>
       <c r="AP666" s="1"/>
     </row>
-    <row r="667" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="667" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>229</v>
       </c>
@@ -48707,7 +48800,7 @@
       <c r="AO667" s="1"/>
       <c r="AP667" s="1"/>
     </row>
-    <row r="668" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="668" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>229</v>
       </c>
@@ -48761,100 +48854,102 @@
       <c r="AO668" s="1"/>
       <c r="AP668" s="1"/>
     </row>
-    <row r="669" spans="1:42" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="669" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>138</v>
       </c>
       <c r="B669" s="1" t="s">
         <v>1947</v>
       </c>
-      <c r="D669" s="33"/>
+      <c r="D669" s="33" t="s">
+        <v>161</v>
+      </c>
       <c r="G669" s="3"/>
       <c r="J669" s="3" t="s">
         <v>1948</v>
       </c>
-      <c r="K669" s="1">
-        <f>'[1]Opioid Rx Data IQVIA SH'!B$7</f>
+      <c r="K669" s="10">
+        <f>'[1]Opioid Rx Data IQVIA SH'!B$6</f>
         <v>50608436.274199456</v>
       </c>
-      <c r="L669" s="1">
-        <f>'[1]Opioid Rx Data IQVIA SH'!C$7</f>
+      <c r="L669" s="10">
+        <f>'[1]Opioid Rx Data IQVIA SH'!C$6</f>
         <v>54244443.255739212</v>
       </c>
-      <c r="M669" s="1">
-        <f>'[1]Opioid Rx Data IQVIA SH'!D$7</f>
+      <c r="M669" s="10">
+        <f>'[1]Opioid Rx Data IQVIA SH'!D$6</f>
         <v>59327304.226472974</v>
       </c>
-      <c r="N669" s="1">
-        <f>'[1]Opioid Rx Data IQVIA SH'!E$7</f>
+      <c r="N669" s="10">
+        <f>'[1]Opioid Rx Data IQVIA SH'!E$6</f>
         <v>60598209.351788692</v>
       </c>
-      <c r="O669" s="1">
-        <f>'[1]Opioid Rx Data IQVIA SH'!F$7</f>
+      <c r="O669" s="10">
+        <f>'[1]Opioid Rx Data IQVIA SH'!F$6</f>
         <v>62956141.84692575</v>
       </c>
-      <c r="P669" s="1">
-        <f>'[1]Opioid Rx Data IQVIA SH'!G$7</f>
+      <c r="P669" s="10">
+        <f>'[1]Opioid Rx Data IQVIA SH'!G$6</f>
         <v>65886554.008960731</v>
       </c>
-      <c r="Q669" s="1">
-        <f>'[1]Opioid Rx Data IQVIA SH'!H$7</f>
+      <c r="Q669" s="10">
+        <f>'[1]Opioid Rx Data IQVIA SH'!H$6</f>
         <v>68443151.853975073</v>
       </c>
-      <c r="R669" s="1">
-        <f>'[1]Opioid Rx Data IQVIA SH'!I$7</f>
+      <c r="R669" s="10">
+        <f>'[1]Opioid Rx Data IQVIA SH'!I$6</f>
         <v>72484377.091890693</v>
       </c>
-      <c r="S669" s="1">
-        <f>'[1]Opioid Rx Data IQVIA SH'!J$7</f>
+      <c r="S669" s="10">
+        <f>'[1]Opioid Rx Data IQVIA SH'!J$6</f>
         <v>71731564.967042297</v>
       </c>
-      <c r="T669" s="1">
-        <f>'[1]Opioid Rx Data IQVIA SH'!K$7</f>
+      <c r="T669" s="10">
+        <f>'[1]Opioid Rx Data IQVIA SH'!K$6</f>
         <v>71966640.718910307</v>
       </c>
-      <c r="U669" s="1">
-        <f>'[1]Opioid Rx Data IQVIA SH'!L$7</f>
+      <c r="U669" s="10">
+        <f>'[1]Opioid Rx Data IQVIA SH'!L$6</f>
         <v>70242672.282253996</v>
       </c>
-      <c r="V669" s="1">
-        <f>'[1]Opioid Rx Data IQVIA SH'!M$7</f>
+      <c r="V669" s="10">
+        <f>'[1]Opioid Rx Data IQVIA SH'!M$6</f>
         <v>72196826.934210598</v>
       </c>
-      <c r="W669" s="1">
-        <f>'[1]Opioid Rx Data IQVIA SH'!N$7</f>
+      <c r="W669" s="10">
+        <f>'[1]Opioid Rx Data IQVIA SH'!N$6</f>
         <v>72354218.425861493</v>
       </c>
-      <c r="X669" s="1">
-        <f>'[1]Opioid Rx Data IQVIA SH'!O$7</f>
+      <c r="X669" s="10">
+        <f>'[1]Opioid Rx Data IQVIA SH'!O$6</f>
         <v>72620520.514616698</v>
       </c>
-      <c r="Y669" s="1">
-        <f>'[1]Opioid Rx Data IQVIA SH'!P$7</f>
+      <c r="Y669" s="10">
+        <f>'[1]Opioid Rx Data IQVIA SH'!P$6</f>
         <v>69782268.831006601</v>
       </c>
-      <c r="Z669" s="1">
-        <f>'[1]Opioid Rx Data IQVIA SH'!Q$7</f>
+      <c r="Z669" s="10">
+        <f>'[1]Opioid Rx Data IQVIA SH'!Q$6</f>
         <v>68451960.146435499</v>
       </c>
-      <c r="AA669" s="1">
-        <f>'[1]Opioid Rx Data IQVIA SH'!R$7</f>
+      <c r="AA669" s="10">
+        <f>'[1]Opioid Rx Data IQVIA SH'!R$6</f>
         <v>67098851.729051702</v>
       </c>
-      <c r="AB669" s="1">
-        <f>'[1]Opioid Rx Data IQVIA SH'!S$7</f>
+      <c r="AB669" s="10">
+        <f>'[1]Opioid Rx Data IQVIA SH'!S$6</f>
         <v>64662029.880932502</v>
       </c>
-      <c r="AC669" s="1">
-        <f>'[1]Opioid Rx Data IQVIA SH'!T$7</f>
+      <c r="AC669" s="10">
+        <f>'[1]Opioid Rx Data IQVIA SH'!T$6</f>
         <v>57543442.3193608</v>
       </c>
-      <c r="AD669" s="1">
-        <f>'[1]Opioid Rx Data IQVIA SH'!U$7</f>
+      <c r="AD669" s="10">
+        <f>'[1]Opioid Rx Data IQVIA SH'!U$6</f>
         <v>50847486.582352601</v>
       </c>
-      <c r="AE669" s="1">
-        <f>'[1]Opioid Rx Data IQVIA SH'!V$7</f>
+      <c r="AE669" s="10">
+        <f>'[1]Opioid Rx Data IQVIA SH'!V$6</f>
         <v>45900215</v>
       </c>
       <c r="AF669" s="1"/>
@@ -48887,18 +48982,18 @@
   <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.41796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.83984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="17.83984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="33" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.5546875" customWidth="1"/>
+    <col min="2" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="23" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="33" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>1949</v>
       </c>
@@ -48999,7 +49094,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>276</v>
       </c>
@@ -49092,7 +49187,7 @@
         <v>94223</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>398</v>
       </c>
@@ -49185,7 +49280,7 @@
         <v>0.53636894162713789</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>478</v>
       </c>
@@ -49275,7 +49370,7 @@
       </c>
       <c r="W4" s="27"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>1947</v>
       </c>
@@ -49365,7 +49460,7 @@
       </c>
       <c r="W5" s="27"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>1027</v>
       </c>
@@ -49455,7 +49550,7 @@
       </c>
       <c r="W6" s="27"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>1156</v>
       </c>
@@ -49588,7 +49683,7 @@
         <v>277196227.0557394</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>1703</v>
       </c>
@@ -49681,7 +49776,7 @@
         <v>110314545203</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>1689</v>
       </c>
@@ -49774,7 +49869,7 @@
         <v>144174733</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>159</v>
       </c>
@@ -49867,7 +49962,7 @@
         <v>4.9272336100354815E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>448</v>
       </c>
@@ -49957,7 +50052,7 @@
       </c>
       <c r="W11" s="27"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>442</v>
       </c>
@@ -50047,7 +50142,7 @@
       </c>
       <c r="W12" s="27"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>854</v>
       </c>
@@ -50140,7 +50235,7 @@
         <v>2303624</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>1852</v>
       </c>
@@ -50233,7 +50328,7 @@
         <v>28917.104166666668</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>1847</v>
       </c>
@@ -50336,16 +50431,16 @@
   <dimension ref="A1:AG20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.41796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="22" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="22" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>1949</v>
       </c>
@@ -50446,7 +50541,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>512</v>
       </c>
@@ -50535,7 +50630,7 @@
         <v>1420678.8406968592</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>633</v>
       </c>
@@ -50624,7 +50719,7 @@
         <v>56912.285300718584</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>615</v>
       </c>
@@ -50713,7 +50808,7 @@
         <v>66397.666184171685</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>626</v>
       </c>
@@ -50802,7 +50897,7 @@
         <v>32250.295003740532</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>644</v>
       </c>
@@ -50899,7 +50994,7 @@
       <c r="AC6" s="8"/>
       <c r="AD6" s="8"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>651</v>
       </c>
@@ -50988,7 +51083,7 @@
         <v>727524.18380906538</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>731</v>
       </c>
@@ -51077,7 +51172,7 @@
         <v>832913.11656914616</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>1381</v>
       </c>
@@ -51166,7 +51261,7 @@
         <v>7798728</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>1413</v>
       </c>
@@ -51255,7 +51350,7 @@
         <v>1581223</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>1428</v>
       </c>
@@ -51344,7 +51439,7 @@
         <v>72522.186912999678</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>1950</v>
       </c>
@@ -51433,7 +51528,7 @@
         <v>0.76687717099999997</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>1608</v>
       </c>
@@ -51522,7 +51617,7 @@
         <v>155560.2464886308</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>1646</v>
       </c>
@@ -51611,7 +51706,7 @@
         <v>5344.9308817282599</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>1650</v>
       </c>
@@ -51700,7 +51795,7 @@
         <v>7633.7305661751316</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>1676</v>
       </c>
@@ -51789,7 +51884,7 @@
         <v>28216.687905819526</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>1673</v>
       </c>
@@ -51878,7 +51973,7 @@
         <v>8982.6506462770794</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>1695</v>
       </c>
@@ -51967,7 +52062,7 @@
         <v>1607000</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>1738</v>
       </c>
@@ -52056,93 +52151,93 @@
         <v>1295524</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>517</v>
       </c>
       <c r="B20" s="28">
         <f>VLOOKUP(A:A,Variables!B:AP,10,FALSE)</f>
-        <v>0</v>
+        <v>737348.72370526451</v>
       </c>
       <c r="C20" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,11,FALSE)</f>
-        <v>0</v>
+        <v>670983.54912418628</v>
       </c>
       <c r="D20" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,12,FALSE)</f>
-        <v>0</v>
+        <v>732226.9959257741</v>
       </c>
       <c r="E20" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,13,FALSE)</f>
-        <v>0</v>
+        <v>764684.39245923271</v>
       </c>
       <c r="F20" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,14,FALSE)</f>
-        <v>0</v>
+        <v>673043.85125278018</v>
       </c>
       <c r="G20" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,15,FALSE)</f>
-        <v>0</v>
+        <v>882617.72652719344</v>
       </c>
       <c r="H20" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,16,FALSE)</f>
-        <v>0</v>
+        <v>728787.3099795162</v>
       </c>
       <c r="I20" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,17,FALSE)</f>
-        <v>0</v>
+        <v>995374.01559201255</v>
       </c>
       <c r="J20" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,18,FALSE)</f>
-        <v>0</v>
+        <v>772412.62550478789</v>
       </c>
       <c r="K20" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,19,FALSE)</f>
-        <v>0</v>
+        <v>1024666.0100058218</v>
       </c>
       <c r="L20" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,20,FALSE)</f>
-        <v>0</v>
+        <v>1316792.5968868218</v>
       </c>
       <c r="M20" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,21,FALSE)</f>
-        <v>0</v>
+        <v>1335599.830687297</v>
       </c>
       <c r="N20" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,22,FALSE)</f>
-        <v>0</v>
+        <v>1590808.859871615</v>
       </c>
       <c r="O20" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,23,FALSE)</f>
-        <v>0</v>
+        <v>1565981.4445320296</v>
       </c>
       <c r="P20" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,24,FALSE)</f>
-        <v>0</v>
+        <v>1667232.4977665495</v>
       </c>
       <c r="Q20" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,25,FALSE)</f>
-        <v>0</v>
+        <v>1936510.395643299</v>
       </c>
       <c r="R20" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,26,FALSE)</f>
-        <v>0</v>
+        <v>1923866.4588087033</v>
       </c>
       <c r="S20" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,27,FALSE)</f>
-        <v>0</v>
+        <v>2011537.1025247658</v>
       </c>
       <c r="T20" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,28,FALSE)</f>
-        <v>0</v>
+        <v>2193782.1536960565</v>
       </c>
       <c r="U20" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,29,FALSE)</f>
-        <v>0</v>
+        <v>2193782.1536960565</v>
       </c>
       <c r="V20" s="28">
         <f>VLOOKUP($A:$A,Variables!$B:$AP,30,FALSE)</f>
-        <v>0</v>
+        <v>2193782.1536960565</v>
       </c>
     </row>
   </sheetData>
@@ -52158,9 +52253,9 @@
       <selection sqref="A1:AI34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1949</v>
       </c>
@@ -52264,7 +52359,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>686</v>
       </c>
@@ -52371,7 +52466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>686</v>
       </c>
@@ -52478,7 +52573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>686</v>
       </c>
@@ -52585,7 +52680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>686</v>
       </c>
@@ -52692,7 +52787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>686</v>
       </c>
@@ -52799,7 +52894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>686</v>
       </c>
@@ -52906,7 +53001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>686</v>
       </c>
@@ -53013,7 +53108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>686</v>
       </c>
@@ -53120,7 +53215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>686</v>
       </c>
@@ -53227,7 +53322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>686</v>
       </c>
@@ -53334,7 +53429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>686</v>
       </c>
@@ -53441,7 +53536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>686</v>
       </c>
@@ -53548,7 +53643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>686</v>
       </c>
@@ -53655,7 +53750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>686</v>
       </c>
@@ -53762,7 +53857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>686</v>
       </c>
@@ -53869,7 +53964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>686</v>
       </c>
@@ -53976,7 +54071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>686</v>
       </c>
@@ -54083,7 +54178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>686</v>
       </c>
@@ -54190,7 +54285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>686</v>
       </c>
@@ -54297,7 +54392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>686</v>
       </c>
@@ -54404,7 +54499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>686</v>
       </c>
@@ -54511,7 +54606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>686</v>
       </c>
@@ -54618,7 +54713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>686</v>
       </c>
@@ -54725,7 +54820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>686</v>
       </c>
@@ -54832,7 +54927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>686</v>
       </c>
@@ -54939,7 +55034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>686</v>
       </c>
@@ -55046,7 +55141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>686</v>
       </c>
@@ -55153,7 +55248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>686</v>
       </c>
@@ -55260,7 +55355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>686</v>
       </c>
@@ -55367,7 +55462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>686</v>
       </c>
@@ -55474,7 +55569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>686</v>
       </c>
@@ -55581,7 +55676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>686</v>
       </c>
@@ -55688,7 +55783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>686</v>
       </c>
@@ -55808,13 +55903,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.41796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1949</v>
       </c>
@@ -55885,7 +55980,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>512</v>
       </c>
@@ -55974,7 +56069,7 @@
         <v>1843790.2663262156</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>633</v>
       </c>
@@ -56063,7 +56158,7 @@
         <v>135611.93252714758</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>615</v>
       </c>
@@ -56152,7 +56247,7 @@
         <v>103493.31692861259</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>626</v>
       </c>
@@ -56241,7 +56336,7 @@
         <v>124905.72732763592</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>644</v>
       </c>
@@ -56330,7 +56425,7 @@
         <v>1044206.5073380854</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>651</v>
       </c>
@@ -56419,7 +56514,7 @@
         <v>863793.49266191456</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>731</v>
       </c>
@@ -56508,7 +56603,7 @@
         <v>808561.71558381582</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1381</v>
       </c>
@@ -56597,7 +56692,7 @@
         <v>7663420</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1413</v>
       </c>
@@ -56686,7 +56781,7 @@
         <v>1782701</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1428</v>
       </c>
@@ -56775,7 +56870,7 @@
         <v>120244.95933078184</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>1950</v>
       </c>
@@ -56831,7 +56926,7 @@
         <v>0.76687717099999997</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1608</v>
       </c>
@@ -56920,7 +57015,7 @@
         <v>364010.97678339609</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1646</v>
       </c>
@@ -57009,7 +57104,7 @@
         <v>6055.7969314665343</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1650</v>
       </c>
@@ -57098,7 +57193,7 @@
         <v>8871.7119300599425</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1985</v>
       </c>
@@ -57187,7 +57282,7 @@
         <v>22833.065374045142</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1673</v>
       </c>
@@ -57276,7 +57371,7 @@
         <v>9335.4257644283825</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1695</v>
       </c>
@@ -57365,7 +57460,7 @@
         <v>1908000</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1738</v>
       </c>
@@ -57454,7 +57549,7 @@
         <v>1186830</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1648</v>
       </c>
@@ -57463,7 +57558,7 @@
         <v>3209.6708356521026</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1668</v>
       </c>
@@ -57512,7 +57607,7 @@
         <v>2582.8688817229067</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1986</v>
       </c>
@@ -57561,7 +57656,7 @@
         <v>38224.288069940056</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1642</v>
       </c>
@@ -57650,58 +57745,58 @@
         <v>47096</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="26"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="26"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="26"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="26"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="26"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="26"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="26"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="26"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="26"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="26"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="26"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="26"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="26"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="26"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="26"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="26"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="26"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="26"/>
     </row>
   </sheetData>
@@ -57710,21 +57805,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A183296C2D9DE541958AD9D9A6E59D08" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ef9e81cc8ea135f7dd7143deedbca767">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="12e73323-2992-4b61-9f89-f2ff99442528" xmlns:ns3="60bd3312-76b2-43ff-ab1e-17ba520e0d12" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f6f209b185d7905ebfc3951605bf0c4b" ns2:_="" ns3:_="">
     <xsd:import namespace="12e73323-2992-4b61-9f89-f2ff99442528"/>
@@ -57941,15 +58027,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9C64007-5076-4DDD-B6B0-33978E9411D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69EF2185-4296-4909-B119-96ADB2CF9632}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -57958,7 +58045,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028F4AF9-4E75-413A-803A-46FE3EDDF7A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -57975,4 +58062,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9C64007-5076-4DDD-B6B0-33978E9411D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Data/Documentation Master File Final.xlsx
+++ b/Data/Documentation Master File Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://partnershealthcare.sharepoint.com/sites/FDAOpioidmodelingteam/Shared Documents/Opioid Model/GitHub/PROMISE/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{8CF16721-C5D0-45CA-98FC-49CDD9957E13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E138910-A690-4B0A-8DC3-2D0515E61D40}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{8CF16721-C5D0-45CA-98FC-49CDD9957E13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D205770-5734-4B25-81A9-0D1B3F492328}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2505" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="45900" yWindow="-960" windowWidth="22170" windowHeight="20445" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="2" r:id="rId1"/>
@@ -9221,21 +9221,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AP669" totalsRowShown="0">
-  <autoFilter ref="A1:AP669" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="C"/>
-        <filter val="L"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters>
-        <filter val="ACAL"/>
-        <filter val="ACAL, ASM"/>
-        <filter val="ACAL, ASM, LIT"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AP669" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="42">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Group"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Variable" dataDxfId="38"/>
@@ -10326,8 +10312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP669"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A290" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B422" sqref="B422"/>
+    <sheetView tabSelected="1" topLeftCell="A412" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J420" sqref="J420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10477,7 +10463,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -10531,7 +10517,7 @@
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
     </row>
-    <row r="3" spans="1:42" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>138</v>
       </c>
@@ -10642,7 +10628,7 @@
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
     </row>
-    <row r="5" spans="1:42" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -10696,7 +10682,7 @@
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
     </row>
-    <row r="6" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>155</v>
       </c>
@@ -10820,7 +10806,7 @@
       <c r="AO6" s="1"/>
       <c r="AP6" s="1"/>
     </row>
-    <row r="7" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>138</v>
       </c>
@@ -10877,7 +10863,7 @@
       <c r="AO7" s="1"/>
       <c r="AP7" s="1"/>
     </row>
-    <row r="8" spans="1:42" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>138</v>
       </c>
@@ -10934,7 +10920,7 @@
       <c r="AO8" s="1"/>
       <c r="AP8" s="1"/>
     </row>
-    <row r="9" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>138</v>
       </c>
@@ -10991,7 +10977,7 @@
       <c r="AO9" s="1"/>
       <c r="AP9" s="1"/>
     </row>
-    <row r="10" spans="1:42" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>138</v>
       </c>
@@ -11054,7 +11040,7 @@
       <c r="AO10" s="1"/>
       <c r="AP10" s="1"/>
     </row>
-    <row r="11" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>155</v>
       </c>
@@ -11108,7 +11094,7 @@
       <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
     </row>
-    <row r="12" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>138</v>
       </c>
@@ -11162,7 +11148,7 @@
       <c r="AO12" s="1"/>
       <c r="AP12" s="1"/>
     </row>
-    <row r="13" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>138</v>
       </c>
@@ -11216,7 +11202,7 @@
       <c r="AO13" s="1"/>
       <c r="AP13" s="1"/>
     </row>
-    <row r="14" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -11276,7 +11262,7 @@
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
     </row>
-    <row r="15" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>138</v>
       </c>
@@ -11330,7 +11316,7 @@
       <c r="AO15" s="1"/>
       <c r="AP15" s="1"/>
     </row>
-    <row r="16" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -11384,7 +11370,7 @@
       <c r="AO16" s="1"/>
       <c r="AP16" s="1"/>
     </row>
-    <row r="17" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -11441,7 +11427,7 @@
       <c r="AO17" s="1"/>
       <c r="AP17" s="1"/>
     </row>
-    <row r="18" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>138</v>
       </c>
@@ -11495,7 +11481,7 @@
       <c r="AO18" s="1"/>
       <c r="AP18" s="1"/>
     </row>
-    <row r="19" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>138</v>
       </c>
@@ -11612,7 +11598,7 @@
       <c r="AO20" s="1"/>
       <c r="AP20" s="1"/>
     </row>
-    <row r="21" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>138</v>
       </c>
@@ -11666,7 +11652,7 @@
       <c r="AO21" s="1"/>
       <c r="AP21" s="1"/>
     </row>
-    <row r="22" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>138</v>
       </c>
@@ -11726,7 +11712,7 @@
       <c r="AO22" s="1"/>
       <c r="AP22" s="1"/>
     </row>
-    <row r="23" spans="1:42" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" ht="144" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>229</v>
       </c>
@@ -11780,7 +11766,7 @@
       <c r="AO23" s="1"/>
       <c r="AP23" s="1"/>
     </row>
-    <row r="24" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>138</v>
       </c>
@@ -11834,7 +11820,7 @@
       <c r="AO24" s="1"/>
       <c r="AP24" s="1"/>
     </row>
-    <row r="25" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -11894,7 +11880,7 @@
       <c r="AO25" s="1"/>
       <c r="AP25" s="1"/>
     </row>
-    <row r="26" spans="1:42" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>138</v>
       </c>
@@ -11954,7 +11940,7 @@
       <c r="AO26" s="1"/>
       <c r="AP26" s="1"/>
     </row>
-    <row r="27" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -12008,7 +11994,7 @@
       <c r="AO27" s="1"/>
       <c r="AP27" s="1"/>
     </row>
-    <row r="28" spans="1:42" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>138</v>
       </c>
@@ -12068,7 +12054,7 @@
       <c r="AO28" s="1"/>
       <c r="AP28" s="1"/>
     </row>
-    <row r="29" spans="1:42" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -12122,7 +12108,7 @@
       <c r="AO29" s="1"/>
       <c r="AP29" s="1"/>
     </row>
-    <row r="30" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>138</v>
       </c>
@@ -12176,7 +12162,7 @@
       <c r="AO30" s="1"/>
       <c r="AP30" s="1"/>
     </row>
-    <row r="31" spans="1:42" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:42" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -12230,7 +12216,7 @@
       <c r="AO31" s="1"/>
       <c r="AP31" s="1"/>
     </row>
-    <row r="32" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>138</v>
       </c>
@@ -12288,7 +12274,7 @@
       <c r="AO32" s="1"/>
       <c r="AP32" s="1"/>
     </row>
-    <row r="33" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>138</v>
       </c>
@@ -12342,7 +12328,7 @@
       <c r="AO33" s="1"/>
       <c r="AP33" s="1"/>
     </row>
-    <row r="34" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -12396,7 +12382,7 @@
       <c r="AO34" s="1"/>
       <c r="AP34" s="1"/>
     </row>
-    <row r="35" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>155</v>
       </c>
@@ -12450,7 +12436,7 @@
       <c r="AO35" s="1"/>
       <c r="AP35" s="1"/>
     </row>
-    <row r="36" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>155</v>
       </c>
@@ -12574,7 +12560,7 @@
       <c r="AO36" s="1"/>
       <c r="AP36" s="1"/>
     </row>
-    <row r="37" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>138</v>
       </c>
@@ -12631,7 +12617,7 @@
       <c r="AO37" s="1"/>
       <c r="AP37" s="1"/>
     </row>
-    <row r="38" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>138</v>
       </c>
@@ -12685,7 +12671,7 @@
       <c r="AO38" s="1"/>
       <c r="AP38" s="1"/>
     </row>
-    <row r="39" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>138</v>
       </c>
@@ -12739,7 +12725,7 @@
       <c r="AO39" s="1"/>
       <c r="AP39" s="1"/>
     </row>
-    <row r="40" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>138</v>
       </c>
@@ -12796,7 +12782,7 @@
       <c r="AO40" s="1"/>
       <c r="AP40" s="1"/>
     </row>
-    <row r="41" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>138</v>
       </c>
@@ -12847,7 +12833,7 @@
       <c r="AO41" s="1"/>
       <c r="AP41" s="1"/>
     </row>
-    <row r="42" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -12901,7 +12887,7 @@
       <c r="AO42" s="1"/>
       <c r="AP42" s="1"/>
     </row>
-    <row r="43" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>138</v>
       </c>
@@ -12952,7 +12938,7 @@
       <c r="AO43" s="1"/>
       <c r="AP43" s="1"/>
     </row>
-    <row r="44" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>138</v>
       </c>
@@ -13006,7 +12992,7 @@
       <c r="AO44" s="1"/>
       <c r="AP44" s="1"/>
     </row>
-    <row r="45" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>138</v>
       </c>
@@ -13057,7 +13043,7 @@
       <c r="AO45" s="1"/>
       <c r="AP45" s="1"/>
     </row>
-    <row r="46" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>138</v>
       </c>
@@ -13111,7 +13097,7 @@
       <c r="AO46" s="1"/>
       <c r="AP46" s="1"/>
     </row>
-    <row r="47" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>138</v>
       </c>
@@ -13159,7 +13145,7 @@
       <c r="AO47" s="1"/>
       <c r="AP47" s="1"/>
     </row>
-    <row r="48" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>229</v>
       </c>
@@ -13210,7 +13196,7 @@
       <c r="AO48" s="1"/>
       <c r="AP48" s="1"/>
     </row>
-    <row r="49" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>229</v>
       </c>
@@ -13258,7 +13244,7 @@
       <c r="AO49" s="1"/>
       <c r="AP49" s="1"/>
     </row>
-    <row r="50" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>229</v>
       </c>
@@ -13312,7 +13298,7 @@
       <c r="AO50" s="1"/>
       <c r="AP50" s="1"/>
     </row>
-    <row r="51" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>138</v>
       </c>
@@ -13423,7 +13409,7 @@
       <c r="AO52" s="1"/>
       <c r="AP52" s="1"/>
     </row>
-    <row r="53" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>138</v>
       </c>
@@ -13477,7 +13463,7 @@
       <c r="AO53" s="1"/>
       <c r="AP53" s="1"/>
     </row>
-    <row r="54" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>138</v>
       </c>
@@ -13585,7 +13571,7 @@
       <c r="AO55" s="1"/>
       <c r="AP55" s="1"/>
     </row>
-    <row r="56" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>138</v>
       </c>
@@ -13639,7 +13625,7 @@
       <c r="AO56" s="1"/>
       <c r="AP56" s="1"/>
     </row>
-    <row r="57" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>138</v>
       </c>
@@ -13693,7 +13679,7 @@
       <c r="AO57" s="1"/>
       <c r="AP57" s="1"/>
     </row>
-    <row r="58" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>138</v>
       </c>
@@ -13744,7 +13730,7 @@
       <c r="AO58" s="1"/>
       <c r="AP58" s="1"/>
     </row>
-    <row r="59" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>138</v>
       </c>
@@ -13795,7 +13781,7 @@
       <c r="AO59" s="1"/>
       <c r="AP59" s="1"/>
     </row>
-    <row r="60" spans="1:42" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:42" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>138</v>
       </c>
@@ -13858,7 +13844,7 @@
       <c r="AO60" s="1"/>
       <c r="AP60" s="1"/>
     </row>
-    <row r="61" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>138</v>
       </c>
@@ -13912,7 +13898,7 @@
       <c r="AO61" s="1"/>
       <c r="AP61" s="1"/>
     </row>
-    <row r="62" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>138</v>
       </c>
@@ -13966,7 +13952,7 @@
       <c r="AO62" s="1"/>
       <c r="AP62" s="1"/>
     </row>
-    <row r="63" spans="1:42" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:42" ht="144" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>138</v>
       </c>
@@ -14026,7 +14012,7 @@
       <c r="AO63" s="1"/>
       <c r="AP63" s="1"/>
     </row>
-    <row r="64" spans="1:42" ht="230.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:42" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>138</v>
       </c>
@@ -14086,7 +14072,7 @@
       <c r="AO64" s="1"/>
       <c r="AP64" s="1"/>
     </row>
-    <row r="65" spans="1:42" ht="151.94999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:42" ht="151.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>138</v>
       </c>
@@ -14149,7 +14135,7 @@
       <c r="AO65" s="1"/>
       <c r="AP65" s="1"/>
     </row>
-    <row r="66" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>138</v>
       </c>
@@ -14203,7 +14189,7 @@
       <c r="AO66" s="1"/>
       <c r="AP66" s="1"/>
     </row>
-    <row r="67" spans="1:42" ht="28.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:42" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>138</v>
       </c>
@@ -14257,7 +14243,7 @@
       <c r="AO67" s="1"/>
       <c r="AP67" s="1"/>
     </row>
-    <row r="68" spans="1:42" ht="16.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:42" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>138</v>
       </c>
@@ -14311,7 +14297,7 @@
       <c r="AO68" s="1"/>
       <c r="AP68" s="1"/>
     </row>
-    <row r="69" spans="1:42" ht="25.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:42" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>138</v>
       </c>
@@ -14365,7 +14351,7 @@
       <c r="AO69" s="1"/>
       <c r="AP69" s="1"/>
     </row>
-    <row r="70" spans="1:42" ht="25.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:42" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>229</v>
       </c>
@@ -14476,7 +14462,7 @@
       <c r="AO71" s="1"/>
       <c r="AP71" s="1"/>
     </row>
-    <row r="72" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>138</v>
       </c>
@@ -14539,7 +14525,7 @@
       <c r="AO72" s="1"/>
       <c r="AP72" s="1"/>
     </row>
-    <row r="73" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>155</v>
       </c>
@@ -14593,7 +14579,7 @@
       <c r="AO73" s="1"/>
       <c r="AP73" s="1"/>
     </row>
-    <row r="74" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>155</v>
       </c>
@@ -14653,7 +14639,7 @@
       <c r="AO74" s="1"/>
       <c r="AP74" s="1"/>
     </row>
-    <row r="75" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>155</v>
       </c>
@@ -14707,7 +14693,7 @@
       <c r="AO75" s="1"/>
       <c r="AP75" s="1"/>
     </row>
-    <row r="76" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>155</v>
       </c>
@@ -14831,7 +14817,7 @@
       <c r="AO76" s="1"/>
       <c r="AP76" s="1"/>
     </row>
-    <row r="77" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>402</v>
       </c>
@@ -14885,7 +14871,7 @@
       <c r="AO77" s="1"/>
       <c r="AP77" s="1"/>
     </row>
-    <row r="78" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>138</v>
       </c>
@@ -14939,7 +14925,7 @@
       <c r="AO78" s="1"/>
       <c r="AP78" s="1"/>
     </row>
-    <row r="79" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>138</v>
       </c>
@@ -14996,7 +14982,7 @@
       <c r="AO79" s="1"/>
       <c r="AP79" s="1"/>
     </row>
-    <row r="80" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>138</v>
       </c>
@@ -15050,7 +15036,7 @@
       <c r="AO80" s="1"/>
       <c r="AP80" s="1"/>
     </row>
-    <row r="81" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>412</v>
       </c>
@@ -15107,7 +15093,7 @@
       <c r="AO81" s="1"/>
       <c r="AP81" s="1"/>
     </row>
-    <row r="82" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>138</v>
       </c>
@@ -15161,7 +15147,7 @@
       <c r="AO82" s="1"/>
       <c r="AP82" s="1"/>
     </row>
-    <row r="83" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>412</v>
       </c>
@@ -15218,7 +15204,7 @@
       <c r="AO83" s="1"/>
       <c r="AP83" s="1"/>
     </row>
-    <row r="84" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>138</v>
       </c>
@@ -15272,7 +15258,7 @@
       <c r="AO84" s="1"/>
       <c r="AP84" s="1"/>
     </row>
-    <row r="85" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>412</v>
       </c>
@@ -15329,7 +15315,7 @@
       <c r="AO85" s="1"/>
       <c r="AP85" s="1"/>
     </row>
-    <row r="86" spans="1:42" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:42" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>138</v>
       </c>
@@ -15386,7 +15372,7 @@
       <c r="AO86" s="1"/>
       <c r="AP86" s="1"/>
     </row>
-    <row r="87" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>412</v>
       </c>
@@ -15443,7 +15429,7 @@
       <c r="AO87" s="1"/>
       <c r="AP87" s="1"/>
     </row>
-    <row r="88" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>138</v>
       </c>
@@ -15497,7 +15483,7 @@
       <c r="AO88" s="1"/>
       <c r="AP88" s="1"/>
     </row>
-    <row r="89" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>412</v>
       </c>
@@ -15554,7 +15540,7 @@
       <c r="AO89" s="1"/>
       <c r="AP89" s="1"/>
     </row>
-    <row r="90" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>155</v>
       </c>
@@ -15672,7 +15658,7 @@
       <c r="AO90" s="1"/>
       <c r="AP90" s="1"/>
     </row>
-    <row r="91" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>138</v>
       </c>
@@ -15729,7 +15715,7 @@
       <c r="AO91" s="1"/>
       <c r="AP91" s="1"/>
     </row>
-    <row r="92" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>155</v>
       </c>
@@ -15850,7 +15836,7 @@
       <c r="AO92" s="1"/>
       <c r="AP92" s="1"/>
     </row>
-    <row r="93" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>138</v>
       </c>
@@ -15907,7 +15893,7 @@
       <c r="AO93" s="1"/>
       <c r="AP93" s="1"/>
     </row>
-    <row r="94" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>138</v>
       </c>
@@ -15958,7 +15944,7 @@
       <c r="AO94" s="1"/>
       <c r="AP94" s="1"/>
     </row>
-    <row r="95" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>138</v>
       </c>
@@ -16015,7 +16001,7 @@
       <c r="AO95" s="1"/>
       <c r="AP95" s="1"/>
     </row>
-    <row r="96" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>138</v>
       </c>
@@ -16069,7 +16055,7 @@
       <c r="AO96" s="1"/>
       <c r="AP96" s="1"/>
     </row>
-    <row r="97" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>138</v>
       </c>
@@ -16123,7 +16109,7 @@
       <c r="AO97" s="1"/>
       <c r="AP97" s="1"/>
     </row>
-    <row r="98" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>138</v>
       </c>
@@ -16345,7 +16331,7 @@
       <c r="AO101" s="1"/>
       <c r="AP101" s="1"/>
     </row>
-    <row r="102" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>155</v>
       </c>
@@ -16399,7 +16385,7 @@
       <c r="AO102" s="1"/>
       <c r="AP102" s="1"/>
     </row>
-    <row r="103" spans="1:42" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:42" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>155</v>
       </c>
@@ -16523,7 +16509,7 @@
       <c r="AO103" s="1"/>
       <c r="AP103" s="1"/>
     </row>
-    <row r="104" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>138</v>
       </c>
@@ -16577,7 +16563,7 @@
       <c r="AO104" s="1"/>
       <c r="AP104" s="1"/>
     </row>
-    <row r="105" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>412</v>
       </c>
@@ -16634,7 +16620,7 @@
       <c r="AO105" s="1"/>
       <c r="AP105" s="1"/>
     </row>
-    <row r="106" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>138</v>
       </c>
@@ -16685,7 +16671,7 @@
       <c r="AO106" s="1"/>
       <c r="AP106" s="1"/>
     </row>
-    <row r="107" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>138</v>
       </c>
@@ -16739,7 +16725,7 @@
       <c r="AO107" s="1"/>
       <c r="AP107" s="1"/>
     </row>
-    <row r="108" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>138</v>
       </c>
@@ -16793,7 +16779,7 @@
       <c r="AO108" s="1"/>
       <c r="AP108" s="1"/>
     </row>
-    <row r="109" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>138</v>
       </c>
@@ -16853,7 +16839,7 @@
       <c r="AO109" s="1"/>
       <c r="AP109" s="1"/>
     </row>
-    <row r="110" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>138</v>
       </c>
@@ -16904,7 +16890,7 @@
       <c r="AO110" s="1"/>
       <c r="AP110" s="1"/>
     </row>
-    <row r="111" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>138</v>
       </c>
@@ -16964,7 +16950,7 @@
       <c r="AO111" s="1"/>
       <c r="AP111" s="1"/>
     </row>
-    <row r="112" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>138</v>
       </c>
@@ -17018,7 +17004,7 @@
       <c r="AO112" s="1"/>
       <c r="AP112" s="1"/>
     </row>
-    <row r="113" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>412</v>
       </c>
@@ -17142,7 +17128,7 @@
       <c r="AO113" s="1"/>
       <c r="AP113" s="1"/>
     </row>
-    <row r="114" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>412</v>
       </c>
@@ -17258,7 +17244,7 @@
       <c r="AO114" s="1"/>
       <c r="AP114" s="1"/>
     </row>
-    <row r="115" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>138</v>
       </c>
@@ -17312,7 +17298,7 @@
       <c r="AO115" s="1"/>
       <c r="AP115" s="1"/>
     </row>
-    <row r="116" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>138</v>
       </c>
@@ -17375,7 +17361,7 @@
       <c r="AO116" s="1"/>
       <c r="AP116" s="1"/>
     </row>
-    <row r="117" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>412</v>
       </c>
@@ -17438,7 +17424,7 @@
       <c r="AO117" s="1"/>
       <c r="AP117" s="1"/>
     </row>
-    <row r="118" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>138</v>
       </c>
@@ -17492,7 +17478,7 @@
       <c r="AO118" s="1"/>
       <c r="AP118" s="1"/>
     </row>
-    <row r="119" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>138</v>
       </c>
@@ -17546,7 +17532,7 @@
       <c r="AO119" s="1"/>
       <c r="AP119" s="1"/>
     </row>
-    <row r="120" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>138</v>
       </c>
@@ -17603,7 +17589,7 @@
       <c r="AO120" s="1"/>
       <c r="AP120" s="1"/>
     </row>
-    <row r="121" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>412</v>
       </c>
@@ -17663,7 +17649,7 @@
       <c r="AO121" s="1"/>
       <c r="AP121" s="1"/>
     </row>
-    <row r="122" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>138</v>
       </c>
@@ -17714,7 +17700,7 @@
       <c r="AO122" s="1"/>
       <c r="AP122" s="1"/>
     </row>
-    <row r="123" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>412</v>
       </c>
@@ -17774,7 +17760,7 @@
       <c r="AO123" s="1"/>
       <c r="AP123" s="1"/>
     </row>
-    <row r="124" spans="1:42" ht="35.549999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:42" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>138</v>
       </c>
@@ -17828,7 +17814,7 @@
       <c r="AO124" s="1"/>
       <c r="AP124" s="1"/>
     </row>
-    <row r="125" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>412</v>
       </c>
@@ -17891,7 +17877,7 @@
       <c r="AO125" s="1"/>
       <c r="AP125" s="1"/>
     </row>
-    <row r="126" spans="1:42" ht="109.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:42" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>412</v>
       </c>
@@ -17954,7 +17940,7 @@
       <c r="AO126" s="1"/>
       <c r="AP126" s="1"/>
     </row>
-    <row r="127" spans="1:42" ht="45.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:42" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>138</v>
       </c>
@@ -18011,7 +17997,7 @@
       <c r="AO127" s="1"/>
       <c r="AP127" s="1"/>
     </row>
-    <row r="128" spans="1:42" ht="48.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:42" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>138</v>
       </c>
@@ -18068,7 +18054,7 @@
       <c r="AO128" s="1"/>
       <c r="AP128" s="1"/>
     </row>
-    <row r="129" spans="1:42" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:42" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>412</v>
       </c>
@@ -18131,7 +18117,7 @@
       <c r="AO129" s="1"/>
       <c r="AP129" s="1"/>
     </row>
-    <row r="130" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>412</v>
       </c>
@@ -18191,7 +18177,7 @@
       <c r="AO130" s="1"/>
       <c r="AP130" s="1"/>
     </row>
-    <row r="131" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>138</v>
       </c>
@@ -18248,7 +18234,7 @@
       <c r="AO131" s="1"/>
       <c r="AP131" s="1"/>
     </row>
-    <row r="132" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -18302,7 +18288,7 @@
       <c r="AO132" s="1"/>
       <c r="AP132" s="1"/>
     </row>
-    <row r="133" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>138</v>
       </c>
@@ -18353,7 +18339,7 @@
       <c r="AO133" s="1"/>
       <c r="AP133" s="1"/>
     </row>
-    <row r="134" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>138</v>
       </c>
@@ -18407,7 +18393,7 @@
       <c r="AO134" s="1"/>
       <c r="AP134" s="1"/>
     </row>
-    <row r="135" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>138</v>
       </c>
@@ -18461,7 +18447,7 @@
       <c r="AO135" s="1"/>
       <c r="AP135" s="1"/>
     </row>
-    <row r="136" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>138</v>
       </c>
@@ -18518,7 +18504,7 @@
       <c r="AO136" s="1"/>
       <c r="AP136" s="1"/>
     </row>
-    <row r="137" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>138</v>
       </c>
@@ -18575,7 +18561,7 @@
       <c r="AO137" s="1"/>
       <c r="AP137" s="1"/>
     </row>
-    <row r="138" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -18626,7 +18612,7 @@
       <c r="AO138" s="1"/>
       <c r="AP138" s="1"/>
     </row>
-    <row r="139" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -18680,7 +18666,7 @@
       <c r="AO139" s="1"/>
       <c r="AP139" s="1"/>
     </row>
-    <row r="140" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -18734,7 +18720,7 @@
       <c r="AO140" s="1"/>
       <c r="AP140" s="1"/>
     </row>
-    <row r="141" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>229</v>
       </c>
@@ -18845,7 +18831,7 @@
       <c r="AO142" s="1"/>
       <c r="AP142" s="1"/>
     </row>
-    <row r="143" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>402</v>
       </c>
@@ -18899,7 +18885,7 @@
       <c r="AO143" s="1"/>
       <c r="AP143" s="1"/>
     </row>
-    <row r="144" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>138</v>
       </c>
@@ -18950,7 +18936,7 @@
       <c r="AO144" s="1"/>
       <c r="AP144" s="1"/>
     </row>
-    <row r="145" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>138</v>
       </c>
@@ -19007,7 +18993,7 @@
       <c r="AO145" s="1"/>
       <c r="AP145" s="1"/>
     </row>
-    <row r="146" spans="1:42" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:42" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>138</v>
       </c>
@@ -19067,7 +19053,7 @@
       <c r="AO146" s="1"/>
       <c r="AP146" s="1"/>
     </row>
-    <row r="147" spans="1:42" ht="45.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:42" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>412</v>
       </c>
@@ -19118,7 +19104,7 @@
       <c r="AO147" s="1"/>
       <c r="AP147" s="1"/>
     </row>
-    <row r="148" spans="1:42" ht="37.200000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:42" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>138</v>
       </c>
@@ -19175,7 +19161,7 @@
       <c r="AO148" s="1"/>
       <c r="AP148" s="1"/>
     </row>
-    <row r="149" spans="1:42" ht="31.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:42" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>412</v>
       </c>
@@ -19293,7 +19279,7 @@
       <c r="AO149" s="1"/>
       <c r="AP149" s="1"/>
     </row>
-    <row r="150" spans="1:42" ht="34.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:42" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>138</v>
       </c>
@@ -19344,7 +19330,7 @@
       <c r="AO150" s="1"/>
       <c r="AP150" s="1"/>
     </row>
-    <row r="151" spans="1:42" ht="40.200000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:42" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>412</v>
       </c>
@@ -19395,7 +19381,7 @@
       <c r="AO151" s="1"/>
       <c r="AP151" s="1"/>
     </row>
-    <row r="152" spans="1:42" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:42" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>412</v>
       </c>
@@ -19516,7 +19502,7 @@
       <c r="AO152" s="1"/>
       <c r="AP152" s="1"/>
     </row>
-    <row r="153" spans="1:42" ht="48.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:42" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>138</v>
       </c>
@@ -19567,7 +19553,7 @@
       <c r="AO153" s="1"/>
       <c r="AP153" s="1"/>
     </row>
-    <row r="154" spans="1:42" ht="43.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:42" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>412</v>
       </c>
@@ -19621,7 +19607,7 @@
       <c r="AO154" s="1"/>
       <c r="AP154" s="1"/>
     </row>
-    <row r="155" spans="1:42" ht="48.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:42" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>412</v>
       </c>
@@ -19745,7 +19731,7 @@
       <c r="AO155" s="1"/>
       <c r="AP155" s="1"/>
     </row>
-    <row r="156" spans="1:42" ht="42.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:42" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>138</v>
       </c>
@@ -19796,7 +19782,7 @@
       <c r="AO156" s="1"/>
       <c r="AP156" s="1"/>
     </row>
-    <row r="157" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>138</v>
       </c>
@@ -19854,7 +19840,7 @@
       <c r="AO157" s="1"/>
       <c r="AP157" s="1"/>
     </row>
-    <row r="158" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>138</v>
       </c>
@@ -19911,7 +19897,7 @@
       <c r="AO158" s="1"/>
       <c r="AP158" s="1"/>
     </row>
-    <row r="159" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>412</v>
       </c>
@@ -20035,7 +20021,7 @@
       <c r="AO159" s="1"/>
       <c r="AP159" s="1"/>
     </row>
-    <row r="160" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>138</v>
       </c>
@@ -20086,7 +20072,7 @@
       <c r="AO160" s="1"/>
       <c r="AP160" s="1"/>
     </row>
-    <row r="161" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>412</v>
       </c>
@@ -20201,7 +20187,7 @@
       <c r="AO161" s="1"/>
       <c r="AP161" s="1"/>
     </row>
-    <row r="162" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>412</v>
       </c>
@@ -20255,7 +20241,7 @@
       <c r="AO162" s="1"/>
       <c r="AP162" s="1"/>
     </row>
-    <row r="163" spans="1:42" ht="230.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:42" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>138</v>
       </c>
@@ -20315,7 +20301,7 @@
       <c r="AO163" s="1"/>
       <c r="AP163" s="1"/>
     </row>
-    <row r="164" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>138</v>
       </c>
@@ -20369,7 +20355,7 @@
       <c r="AO164" s="1"/>
       <c r="AP164" s="1"/>
     </row>
-    <row r="165" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>138</v>
       </c>
@@ -20426,7 +20412,7 @@
       <c r="AO165" s="1"/>
       <c r="AP165" s="1"/>
     </row>
-    <row r="166" spans="1:42" ht="216" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:42" ht="216" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>138</v>
       </c>
@@ -20486,7 +20472,7 @@
       <c r="AO166" s="1"/>
       <c r="AP166" s="1"/>
     </row>
-    <row r="167" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>138</v>
       </c>
@@ -20540,7 +20526,7 @@
       <c r="AO167" s="1"/>
       <c r="AP167" s="1"/>
     </row>
-    <row r="168" spans="1:42" ht="216" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:42" ht="216" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>138</v>
       </c>
@@ -20600,7 +20586,7 @@
       <c r="AO168" s="1"/>
       <c r="AP168" s="1"/>
     </row>
-    <row r="169" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>138</v>
       </c>
@@ -20660,7 +20646,7 @@
       <c r="AO169" s="1"/>
       <c r="AP169" s="1"/>
     </row>
-    <row r="170" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>138</v>
       </c>
@@ -20714,7 +20700,7 @@
       <c r="AO170" s="1"/>
       <c r="AP170" s="1"/>
     </row>
-    <row r="171" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>138</v>
       </c>
@@ -20768,7 +20754,7 @@
       <c r="AO171" s="1"/>
       <c r="AP171" s="1"/>
     </row>
-    <row r="172" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>229</v>
       </c>
@@ -20816,7 +20802,7 @@
       <c r="AO172" s="1"/>
       <c r="AP172" s="1"/>
     </row>
-    <row r="173" spans="1:42" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:42" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>688</v>
       </c>
@@ -20864,7 +20850,7 @@
       <c r="AO173" s="1"/>
       <c r="AP173" s="1"/>
     </row>
-    <row r="174" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>229</v>
       </c>
@@ -20915,7 +20901,7 @@
       <c r="AO174" s="1"/>
       <c r="AP174" s="1"/>
     </row>
-    <row r="175" spans="1:42" ht="36.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:42" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>155</v>
       </c>
@@ -20969,7 +20955,7 @@
       <c r="AO175" s="1"/>
       <c r="AP175" s="1"/>
     </row>
-    <row r="176" spans="1:42" ht="32.549999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:42" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>155</v>
       </c>
@@ -21020,7 +21006,7 @@
       <c r="AO176" s="1"/>
       <c r="AP176" s="1"/>
     </row>
-    <row r="177" spans="1:42" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:42" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>155</v>
       </c>
@@ -21197,7 +21183,7 @@
       <c r="AO179" s="1"/>
       <c r="AP179" s="1"/>
     </row>
-    <row r="180" spans="1:42" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:42" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>138</v>
       </c>
@@ -21257,7 +21243,7 @@
       <c r="AO180" s="1"/>
       <c r="AP180" s="1"/>
     </row>
-    <row r="181" spans="1:42" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:42" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>138</v>
       </c>
@@ -21317,7 +21303,7 @@
       <c r="AO181" s="1"/>
       <c r="AP181" s="1"/>
     </row>
-    <row r="182" spans="1:42" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:42" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>138</v>
       </c>
@@ -21374,7 +21360,7 @@
       <c r="AO182" s="1"/>
       <c r="AP182" s="1"/>
     </row>
-    <row r="183" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>138</v>
       </c>
@@ -21428,7 +21414,7 @@
       <c r="AO183" s="1"/>
       <c r="AP183" s="1"/>
     </row>
-    <row r="184" spans="1:42" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:42" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>138</v>
       </c>
@@ -21482,7 +21468,7 @@
       <c r="AO184" s="1"/>
       <c r="AP184" s="1"/>
     </row>
-    <row r="185" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>138</v>
       </c>
@@ -21539,7 +21525,7 @@
       <c r="AO185" s="1"/>
       <c r="AP185" s="1"/>
     </row>
-    <row r="186" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>229</v>
       </c>
@@ -21590,7 +21576,7 @@
       <c r="AO186" s="1"/>
       <c r="AP186" s="1"/>
     </row>
-    <row r="187" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>138</v>
       </c>
@@ -21644,7 +21630,7 @@
       <c r="AO187" s="1"/>
       <c r="AP187" s="1"/>
     </row>
-    <row r="188" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>412</v>
       </c>
@@ -21695,7 +21681,7 @@
       <c r="AO188" s="1"/>
       <c r="AP188" s="1"/>
     </row>
-    <row r="189" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>412</v>
       </c>
@@ -21819,7 +21805,7 @@
       <c r="AO189" s="1"/>
       <c r="AP189" s="1"/>
     </row>
-    <row r="190" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>138</v>
       </c>
@@ -21873,7 +21859,7 @@
       <c r="AO190" s="1"/>
       <c r="AP190" s="1"/>
     </row>
-    <row r="191" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>412</v>
       </c>
@@ -21933,7 +21919,7 @@
       <c r="AO191" s="1"/>
       <c r="AP191" s="1"/>
     </row>
-    <row r="192" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>138</v>
       </c>
@@ -21987,7 +21973,7 @@
       <c r="AO192" s="1"/>
       <c r="AP192" s="1"/>
     </row>
-    <row r="193" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>138</v>
       </c>
@@ -22041,7 +22027,7 @@
       <c r="AO193" s="1"/>
       <c r="AP193" s="1"/>
     </row>
-    <row r="194" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>138</v>
       </c>
@@ -22092,7 +22078,7 @@
       <c r="AO194" s="1"/>
       <c r="AP194" s="1"/>
     </row>
-    <row r="195" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>138</v>
       </c>
@@ -22146,7 +22132,7 @@
       <c r="AO195" s="1"/>
       <c r="AP195" s="1"/>
     </row>
-    <row r="196" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>138</v>
       </c>
@@ -22200,7 +22186,7 @@
       <c r="AO196" s="1"/>
       <c r="AP196" s="1"/>
     </row>
-    <row r="197" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>138</v>
       </c>
@@ -22254,7 +22240,7 @@
       <c r="AO197" s="1"/>
       <c r="AP197" s="1"/>
     </row>
-    <row r="198" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>412</v>
       </c>
@@ -22311,7 +22297,7 @@
       <c r="AO198" s="1"/>
       <c r="AP198" s="1"/>
     </row>
-    <row r="199" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>138</v>
       </c>
@@ -22362,7 +22348,7 @@
       <c r="AO199" s="1"/>
       <c r="AP199" s="1"/>
     </row>
-    <row r="200" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>138</v>
       </c>
@@ -22413,7 +22399,7 @@
       <c r="AO200" s="1"/>
       <c r="AP200" s="1"/>
     </row>
-    <row r="201" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>138</v>
       </c>
@@ -22464,7 +22450,7 @@
       <c r="AO201" s="1"/>
       <c r="AP201" s="1"/>
     </row>
-    <row r="202" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>138</v>
       </c>
@@ -22515,7 +22501,7 @@
       <c r="AO202" s="1"/>
       <c r="AP202" s="1"/>
     </row>
-    <row r="203" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>138</v>
       </c>
@@ -22566,7 +22552,7 @@
       <c r="AO203" s="1"/>
       <c r="AP203" s="1"/>
     </row>
-    <row r="204" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>138</v>
       </c>
@@ -22617,7 +22603,7 @@
       <c r="AO204" s="1"/>
       <c r="AP204" s="1"/>
     </row>
-    <row r="205" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>138</v>
       </c>
@@ -22668,7 +22654,7 @@
       <c r="AO205" s="1"/>
       <c r="AP205" s="1"/>
     </row>
-    <row r="206" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>138</v>
       </c>
@@ -22719,7 +22705,7 @@
       <c r="AO206" s="1"/>
       <c r="AP206" s="1"/>
     </row>
-    <row r="207" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>138</v>
       </c>
@@ -22770,7 +22756,7 @@
       <c r="AO207" s="1"/>
       <c r="AP207" s="1"/>
     </row>
-    <row r="208" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>138</v>
       </c>
@@ -22821,7 +22807,7 @@
       <c r="AO208" s="1"/>
       <c r="AP208" s="1"/>
     </row>
-    <row r="209" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>138</v>
       </c>
@@ -22875,7 +22861,7 @@
       <c r="AO209" s="1"/>
       <c r="AP209" s="1"/>
     </row>
-    <row r="210" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>138</v>
       </c>
@@ -22926,7 +22912,7 @@
       <c r="AO210" s="1"/>
       <c r="AP210" s="1"/>
     </row>
-    <row r="211" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>138</v>
       </c>
@@ -22977,7 +22963,7 @@
       <c r="AO211" s="1"/>
       <c r="AP211" s="1"/>
     </row>
-    <row r="212" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>138</v>
       </c>
@@ -23040,7 +23026,7 @@
       <c r="AO212" s="1"/>
       <c r="AP212" s="1"/>
     </row>
-    <row r="213" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>138</v>
       </c>
@@ -23091,7 +23077,7 @@
       <c r="AO213" s="1"/>
       <c r="AP213" s="1"/>
     </row>
-    <row r="214" spans="1:42" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:42" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>138</v>
       </c>
@@ -23154,7 +23140,7 @@
       <c r="AO214" s="1"/>
       <c r="AP214" s="1"/>
     </row>
-    <row r="215" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>138</v>
       </c>
@@ -23217,7 +23203,7 @@
       <c r="AO215" s="1"/>
       <c r="AP215" s="1"/>
     </row>
-    <row r="216" spans="1:42" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:42" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>138</v>
       </c>
@@ -23280,7 +23266,7 @@
       <c r="AO216" s="1"/>
       <c r="AP216" s="1"/>
     </row>
-    <row r="217" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>138</v>
       </c>
@@ -23331,7 +23317,7 @@
       <c r="AO217" s="1"/>
       <c r="AP217" s="1"/>
     </row>
-    <row r="218" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>138</v>
       </c>
@@ -23382,7 +23368,7 @@
       <c r="AO218" s="1"/>
       <c r="AP218" s="1"/>
     </row>
-    <row r="219" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>138</v>
       </c>
@@ -23433,7 +23419,7 @@
       <c r="AO219" s="1"/>
       <c r="AP219" s="1"/>
     </row>
-    <row r="220" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>138</v>
       </c>
@@ -23484,7 +23470,7 @@
       <c r="AO220" s="1"/>
       <c r="AP220" s="1"/>
     </row>
-    <row r="221" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>138</v>
       </c>
@@ -23535,7 +23521,7 @@
       <c r="AO221" s="1"/>
       <c r="AP221" s="1"/>
     </row>
-    <row r="222" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>138</v>
       </c>
@@ -23586,7 +23572,7 @@
       <c r="AO222" s="1"/>
       <c r="AP222" s="1"/>
     </row>
-    <row r="223" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>138</v>
       </c>
@@ -23637,7 +23623,7 @@
       <c r="AO223" s="1"/>
       <c r="AP223" s="1"/>
     </row>
-    <row r="224" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>138</v>
       </c>
@@ -23688,7 +23674,7 @@
       <c r="AO224" s="1"/>
       <c r="AP224" s="1"/>
     </row>
-    <row r="225" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>138</v>
       </c>
@@ -23736,7 +23722,7 @@
       <c r="AO225" s="1"/>
       <c r="AP225" s="1"/>
     </row>
-    <row r="226" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>412</v>
       </c>
@@ -23790,7 +23776,7 @@
       <c r="AO226" s="1"/>
       <c r="AP226" s="1"/>
     </row>
-    <row r="227" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>138</v>
       </c>
@@ -23847,7 +23833,7 @@
       <c r="AO227" s="1"/>
       <c r="AP227" s="1"/>
     </row>
-    <row r="228" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>412</v>
       </c>
@@ -23955,7 +23941,7 @@
       <c r="AO229" s="1"/>
       <c r="AP229" s="1"/>
     </row>
-    <row r="230" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>138</v>
       </c>
@@ -24009,7 +23995,7 @@
       <c r="AO230" s="1"/>
       <c r="AP230" s="1"/>
     </row>
-    <row r="231" spans="1:42" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:42" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>138</v>
       </c>
@@ -24066,7 +24052,7 @@
       <c r="AO231" s="1"/>
       <c r="AP231" s="1"/>
     </row>
-    <row r="232" spans="1:42" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:42" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>138</v>
       </c>
@@ -24123,7 +24109,7 @@
       <c r="AO232" s="1"/>
       <c r="AP232" s="1"/>
     </row>
-    <row r="233" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>138</v>
       </c>
@@ -24180,7 +24166,7 @@
       <c r="AO233" s="1"/>
       <c r="AP233" s="1"/>
     </row>
-    <row r="234" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>155</v>
       </c>
@@ -24304,7 +24290,7 @@
       <c r="AO234" s="1"/>
       <c r="AP234" s="1"/>
     </row>
-    <row r="235" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>155</v>
       </c>
@@ -24355,7 +24341,7 @@
       <c r="AO235" s="1"/>
       <c r="AP235" s="1"/>
     </row>
-    <row r="236" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>138</v>
       </c>
@@ -24409,7 +24395,7 @@
       <c r="AO236" s="1"/>
       <c r="AP236" s="1"/>
     </row>
-    <row r="237" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>138</v>
       </c>
@@ -24463,7 +24449,7 @@
       <c r="AO237" s="1"/>
       <c r="AP237" s="1"/>
     </row>
-    <row r="238" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>138</v>
       </c>
@@ -24517,7 +24503,7 @@
       <c r="AO238" s="1"/>
       <c r="AP238" s="1"/>
     </row>
-    <row r="239" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>138</v>
       </c>
@@ -24571,7 +24557,7 @@
       <c r="AO239" s="1"/>
       <c r="AP239" s="1"/>
     </row>
-    <row r="240" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>138</v>
       </c>
@@ -24625,7 +24611,7 @@
       <c r="AO240" s="1"/>
       <c r="AP240" s="1"/>
     </row>
-    <row r="241" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>138</v>
       </c>
@@ -24679,7 +24665,7 @@
       <c r="AO241" s="1"/>
       <c r="AP241" s="1"/>
     </row>
-    <row r="242" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>138</v>
       </c>
@@ -24733,7 +24719,7 @@
       <c r="AO242" s="1"/>
       <c r="AP242" s="1"/>
     </row>
-    <row r="243" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>138</v>
       </c>
@@ -24787,7 +24773,7 @@
       <c r="AO243" s="1"/>
       <c r="AP243" s="1"/>
     </row>
-    <row r="244" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>138</v>
       </c>
@@ -24847,7 +24833,7 @@
       <c r="AO244" s="1"/>
       <c r="AP244" s="1"/>
     </row>
-    <row r="245" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>138</v>
       </c>
@@ -24901,7 +24887,7 @@
       <c r="AO245" s="1"/>
       <c r="AP245" s="1"/>
     </row>
-    <row r="246" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>138</v>
       </c>
@@ -24952,7 +24938,7 @@
       <c r="AO246" s="1"/>
       <c r="AP246" s="1"/>
     </row>
-    <row r="247" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>138</v>
       </c>
@@ -25006,7 +24992,7 @@
       <c r="AO247" s="1"/>
       <c r="AP247" s="1"/>
     </row>
-    <row r="248" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>138</v>
       </c>
@@ -25060,7 +25046,7 @@
       <c r="AO248" s="1"/>
       <c r="AP248" s="1"/>
     </row>
-    <row r="249" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>138</v>
       </c>
@@ -25114,7 +25100,7 @@
       <c r="AO249" s="1"/>
       <c r="AP249" s="1"/>
     </row>
-    <row r="250" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>138</v>
       </c>
@@ -25168,7 +25154,7 @@
       <c r="AO250" s="1"/>
       <c r="AP250" s="1"/>
     </row>
-    <row r="251" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>138</v>
       </c>
@@ -25222,7 +25208,7 @@
       <c r="AO251" s="1"/>
       <c r="AP251" s="1"/>
     </row>
-    <row r="252" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>138</v>
       </c>
@@ -25276,7 +25262,7 @@
       <c r="AO252" s="1"/>
       <c r="AP252" s="1"/>
     </row>
-    <row r="253" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>138</v>
       </c>
@@ -25327,7 +25313,7 @@
       <c r="AO253" s="1"/>
       <c r="AP253" s="1"/>
     </row>
-    <row r="254" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>138</v>
       </c>
@@ -25378,7 +25364,7 @@
       <c r="AO254" s="1"/>
       <c r="AP254" s="1"/>
     </row>
-    <row r="255" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>138</v>
       </c>
@@ -25429,7 +25415,7 @@
       <c r="AO255" s="1"/>
       <c r="AP255" s="1"/>
     </row>
-    <row r="256" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>138</v>
       </c>
@@ -25483,7 +25469,7 @@
       <c r="AO256" s="1"/>
       <c r="AP256" s="1"/>
     </row>
-    <row r="257" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>138</v>
       </c>
@@ -25537,7 +25523,7 @@
       <c r="AO257" s="1"/>
       <c r="AP257" s="1"/>
     </row>
-    <row r="258" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>402</v>
       </c>
@@ -25591,7 +25577,7 @@
       <c r="AO258" s="1"/>
       <c r="AP258" s="1"/>
     </row>
-    <row r="259" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>138</v>
       </c>
@@ -25642,7 +25628,7 @@
       <c r="AO259" s="1"/>
       <c r="AP259" s="1"/>
     </row>
-    <row r="260" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>138</v>
       </c>
@@ -25693,7 +25679,7 @@
       <c r="AO260" s="1"/>
       <c r="AP260" s="1"/>
     </row>
-    <row r="261" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>138</v>
       </c>
@@ -25744,7 +25730,7 @@
       <c r="AO261" s="1"/>
       <c r="AP261" s="1"/>
     </row>
-    <row r="262" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>138</v>
       </c>
@@ -25795,7 +25781,7 @@
       <c r="AO262" s="1"/>
       <c r="AP262" s="1"/>
     </row>
-    <row r="263" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>138</v>
       </c>
@@ -25846,7 +25832,7 @@
       <c r="AO263" s="1"/>
       <c r="AP263" s="1"/>
     </row>
-    <row r="264" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>138</v>
       </c>
@@ -25900,7 +25886,7 @@
       <c r="AO264" s="1"/>
       <c r="AP264" s="1"/>
     </row>
-    <row r="265" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>138</v>
       </c>
@@ -25954,7 +25940,7 @@
       <c r="AO265" s="1"/>
       <c r="AP265" s="1"/>
     </row>
-    <row r="266" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>138</v>
       </c>
@@ -26017,7 +26003,7 @@
       <c r="AO266" s="1"/>
       <c r="AP266" s="1"/>
     </row>
-    <row r="267" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>138</v>
       </c>
@@ -26071,7 +26057,7 @@
       <c r="AO267" s="1"/>
       <c r="AP267" s="1"/>
     </row>
-    <row r="268" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>138</v>
       </c>
@@ -26125,7 +26111,7 @@
       <c r="AO268" s="1"/>
       <c r="AP268" s="1"/>
     </row>
-    <row r="269" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>138</v>
       </c>
@@ -26179,7 +26165,7 @@
       <c r="AO269" s="1"/>
       <c r="AP269" s="1"/>
     </row>
-    <row r="270" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>138</v>
       </c>
@@ -26233,7 +26219,7 @@
       <c r="AO270" s="1"/>
       <c r="AP270" s="1"/>
     </row>
-    <row r="271" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>138</v>
       </c>
@@ -26287,7 +26273,7 @@
       <c r="AO271" s="1"/>
       <c r="AP271" s="1"/>
     </row>
-    <row r="272" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>138</v>
       </c>
@@ -26341,7 +26327,7 @@
       <c r="AO272" s="1"/>
       <c r="AP272" s="1"/>
     </row>
-    <row r="273" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>138</v>
       </c>
@@ -26395,7 +26381,7 @@
       <c r="AO273" s="1"/>
       <c r="AP273" s="1"/>
     </row>
-    <row r="274" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>138</v>
       </c>
@@ -26449,7 +26435,7 @@
       <c r="AO274" s="1"/>
       <c r="AP274" s="1"/>
     </row>
-    <row r="275" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>138</v>
       </c>
@@ -26503,7 +26489,7 @@
       <c r="AO275" s="1"/>
       <c r="AP275" s="1"/>
     </row>
-    <row r="276" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>138</v>
       </c>
@@ -26557,7 +26543,7 @@
       <c r="AO276" s="1"/>
       <c r="AP276" s="1"/>
     </row>
-    <row r="277" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>138</v>
       </c>
@@ -26611,7 +26597,7 @@
       <c r="AO277" s="1"/>
       <c r="AP277" s="1"/>
     </row>
-    <row r="278" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>138</v>
       </c>
@@ -26662,7 +26648,7 @@
       <c r="AO278" s="1"/>
       <c r="AP278" s="1"/>
     </row>
-    <row r="279" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>138</v>
       </c>
@@ -26713,7 +26699,7 @@
       <c r="AO279" s="1"/>
       <c r="AP279" s="1"/>
     </row>
-    <row r="280" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>138</v>
       </c>
@@ -26764,7 +26750,7 @@
       <c r="AO280" s="1"/>
       <c r="AP280" s="1"/>
     </row>
-    <row r="281" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>138</v>
       </c>
@@ -26815,7 +26801,7 @@
       <c r="AO281" s="1"/>
       <c r="AP281" s="1"/>
     </row>
-    <row r="282" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>138</v>
       </c>
@@ -26866,7 +26852,7 @@
       <c r="AO282" s="1"/>
       <c r="AP282" s="1"/>
     </row>
-    <row r="283" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>138</v>
       </c>
@@ -26926,7 +26912,7 @@
       <c r="AO283" s="1"/>
       <c r="AP283" s="1"/>
     </row>
-    <row r="284" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>138</v>
       </c>
@@ -27151,7 +27137,7 @@
       <c r="AO287" s="1"/>
       <c r="AP287" s="1"/>
     </row>
-    <row r="288" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>138</v>
       </c>
@@ -27205,7 +27191,7 @@
       <c r="AO288" s="1"/>
       <c r="AP288" s="1"/>
     </row>
-    <row r="289" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>138</v>
       </c>
@@ -27313,7 +27299,7 @@
       <c r="AO290" s="1"/>
       <c r="AP290" s="1"/>
     </row>
-    <row r="291" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>138</v>
       </c>
@@ -27367,7 +27353,7 @@
       <c r="AO291" s="1"/>
       <c r="AP291" s="1"/>
     </row>
-    <row r="292" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>138</v>
       </c>
@@ -27427,7 +27413,7 @@
       <c r="AO292" s="1"/>
       <c r="AP292" s="1"/>
     </row>
-    <row r="293" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>138</v>
       </c>
@@ -27490,7 +27476,7 @@
       <c r="AO293" s="1"/>
       <c r="AP293" s="1"/>
     </row>
-    <row r="294" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>138</v>
       </c>
@@ -27544,7 +27530,7 @@
       <c r="AO294" s="1"/>
       <c r="AP294" s="1"/>
     </row>
-    <row r="295" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>138</v>
       </c>
@@ -27598,7 +27584,7 @@
       <c r="AO295" s="1"/>
       <c r="AP295" s="1"/>
     </row>
-    <row r="296" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>155</v>
       </c>
@@ -27652,7 +27638,7 @@
       <c r="AO296" s="1"/>
       <c r="AP296" s="1"/>
     </row>
-    <row r="297" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>155</v>
       </c>
@@ -27776,7 +27762,7 @@
       <c r="AO297" s="1"/>
       <c r="AP297" s="1"/>
     </row>
-    <row r="298" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>138</v>
       </c>
@@ -27833,7 +27819,7 @@
       <c r="AO298" s="1"/>
       <c r="AP298" s="1"/>
     </row>
-    <row r="299" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>138</v>
       </c>
@@ -27887,7 +27873,7 @@
       <c r="AO299" s="1"/>
       <c r="AP299" s="1"/>
     </row>
-    <row r="300" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>138</v>
       </c>
@@ -27941,7 +27927,7 @@
       <c r="AO300" s="1"/>
       <c r="AP300" s="1"/>
     </row>
-    <row r="301" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>138</v>
       </c>
@@ -27995,7 +27981,7 @@
       <c r="AO301" s="1"/>
       <c r="AP301" s="1"/>
     </row>
-    <row r="302" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>138</v>
       </c>
@@ -28049,7 +28035,7 @@
       <c r="AO302" s="1"/>
       <c r="AP302" s="1"/>
     </row>
-    <row r="303" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>138</v>
       </c>
@@ -28103,7 +28089,7 @@
       <c r="AO303" s="1"/>
       <c r="AP303" s="1"/>
     </row>
-    <row r="304" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>138</v>
       </c>
@@ -28157,7 +28143,7 @@
       <c r="AO304" s="1"/>
       <c r="AP304" s="1"/>
     </row>
-    <row r="305" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>138</v>
       </c>
@@ -28211,7 +28197,7 @@
       <c r="AO305" s="1"/>
       <c r="AP305" s="1"/>
     </row>
-    <row r="306" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>138</v>
       </c>
@@ -28265,7 +28251,7 @@
       <c r="AO306" s="1"/>
       <c r="AP306" s="1"/>
     </row>
-    <row r="307" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>138</v>
       </c>
@@ -28319,7 +28305,7 @@
       <c r="AO307" s="1"/>
       <c r="AP307" s="1"/>
     </row>
-    <row r="308" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>138</v>
       </c>
@@ -28373,7 +28359,7 @@
       <c r="AO308" s="1"/>
       <c r="AP308" s="1"/>
     </row>
-    <row r="309" spans="1:42" ht="34.200000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:42" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>138</v>
       </c>
@@ -28427,7 +28413,7 @@
       <c r="AO309" s="1"/>
       <c r="AP309" s="1"/>
     </row>
-    <row r="310" spans="1:42" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:42" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>138</v>
       </c>
@@ -28490,7 +28476,7 @@
       <c r="AO310" s="1"/>
       <c r="AP310" s="1"/>
     </row>
-    <row r="311" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>138</v>
       </c>
@@ -28544,7 +28530,7 @@
       <c r="AO311" s="1"/>
       <c r="AP311" s="1"/>
     </row>
-    <row r="312" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>138</v>
       </c>
@@ -28598,7 +28584,7 @@
       <c r="AO312" s="1"/>
       <c r="AP312" s="1"/>
     </row>
-    <row r="313" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>138</v>
       </c>
@@ -28652,7 +28638,7 @@
       <c r="AO313" s="1"/>
       <c r="AP313" s="1"/>
     </row>
-    <row r="314" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>138</v>
       </c>
@@ -28706,7 +28692,7 @@
       <c r="AO314" s="1"/>
       <c r="AP314" s="1"/>
     </row>
-    <row r="315" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>138</v>
       </c>
@@ -28763,7 +28749,7 @@
       <c r="AO315" s="1"/>
       <c r="AP315" s="1"/>
     </row>
-    <row r="316" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>138</v>
       </c>
@@ -28817,7 +28803,7 @@
       <c r="AO316" s="1"/>
       <c r="AP316" s="1"/>
     </row>
-    <row r="317" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>138</v>
       </c>
@@ -28871,7 +28857,7 @@
       <c r="AO317" s="1"/>
       <c r="AP317" s="1"/>
     </row>
-    <row r="318" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>138</v>
       </c>
@@ -28925,7 +28911,7 @@
       <c r="AO318" s="1"/>
       <c r="AP318" s="1"/>
     </row>
-    <row r="319" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>138</v>
       </c>
@@ -29432,7 +29418,7 @@
       <c r="AO327" s="1"/>
       <c r="AP327" s="1"/>
     </row>
-    <row r="328" spans="1:42" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:42" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>138</v>
       </c>
@@ -29489,7 +29475,7 @@
       <c r="AO328" s="1"/>
       <c r="AP328" s="1"/>
     </row>
-    <row r="329" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>229</v>
       </c>
@@ -29540,7 +29526,7 @@
       <c r="AO329" s="1"/>
       <c r="AP329" s="1"/>
     </row>
-    <row r="330" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>688</v>
       </c>
@@ -29594,7 +29580,7 @@
       <c r="AO330" s="1"/>
       <c r="AP330" s="1"/>
     </row>
-    <row r="331" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>688</v>
       </c>
@@ -29645,7 +29631,7 @@
       <c r="AO331" s="1"/>
       <c r="AP331" s="1"/>
     </row>
-    <row r="332" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>688</v>
       </c>
@@ -29696,7 +29682,7 @@
       <c r="AO332" s="1"/>
       <c r="AP332" s="1"/>
     </row>
-    <row r="333" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>688</v>
       </c>
@@ -29747,7 +29733,7 @@
       <c r="AO333" s="1"/>
       <c r="AP333" s="1"/>
     </row>
-    <row r="334" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>688</v>
       </c>
@@ -29798,7 +29784,7 @@
       <c r="AO334" s="1"/>
       <c r="AP334" s="1"/>
     </row>
-    <row r="335" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>688</v>
       </c>
@@ -29849,7 +29835,7 @@
       <c r="AO335" s="1"/>
       <c r="AP335" s="1"/>
     </row>
-    <row r="336" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>688</v>
       </c>
@@ -29900,7 +29886,7 @@
       <c r="AO336" s="1"/>
       <c r="AP336" s="1"/>
     </row>
-    <row r="337" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>138</v>
       </c>
@@ -29951,7 +29937,7 @@
       <c r="AO337" s="1"/>
       <c r="AP337" s="1"/>
     </row>
-    <row r="338" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>138</v>
       </c>
@@ -30002,7 +29988,7 @@
       <c r="AO338" s="1"/>
       <c r="AP338" s="1"/>
     </row>
-    <row r="339" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>688</v>
       </c>
@@ -30053,7 +30039,7 @@
       <c r="AO339" s="1"/>
       <c r="AP339" s="1"/>
     </row>
-    <row r="340" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>688</v>
       </c>
@@ -30104,7 +30090,7 @@
       <c r="AO340" s="1"/>
       <c r="AP340" s="1"/>
     </row>
-    <row r="341" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>688</v>
       </c>
@@ -30155,7 +30141,7 @@
       <c r="AO341" s="1"/>
       <c r="AP341" s="1"/>
     </row>
-    <row r="342" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>688</v>
       </c>
@@ -30206,7 +30192,7 @@
       <c r="AO342" s="1"/>
       <c r="AP342" s="1"/>
     </row>
-    <row r="343" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>688</v>
       </c>
@@ -30257,7 +30243,7 @@
       <c r="AO343" s="1"/>
       <c r="AP343" s="1"/>
     </row>
-    <row r="344" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>688</v>
       </c>
@@ -30308,7 +30294,7 @@
       <c r="AO344" s="1"/>
       <c r="AP344" s="1"/>
     </row>
-    <row r="345" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>688</v>
       </c>
@@ -30359,7 +30345,7 @@
       <c r="AO345" s="1"/>
       <c r="AP345" s="1"/>
     </row>
-    <row r="346" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>688</v>
       </c>
@@ -30410,7 +30396,7 @@
       <c r="AO346" s="1"/>
       <c r="AP346" s="1"/>
     </row>
-    <row r="347" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>688</v>
       </c>
@@ -30461,7 +30447,7 @@
       <c r="AO347" s="1"/>
       <c r="AP347" s="1"/>
     </row>
-    <row r="348" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>688</v>
       </c>
@@ -30512,7 +30498,7 @@
       <c r="AO348" s="1"/>
       <c r="AP348" s="1"/>
     </row>
-    <row r="349" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>688</v>
       </c>
@@ -30563,7 +30549,7 @@
       <c r="AO349" s="1"/>
       <c r="AP349" s="1"/>
     </row>
-    <row r="350" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>688</v>
       </c>
@@ -30614,7 +30600,7 @@
       <c r="AO350" s="1"/>
       <c r="AP350" s="1"/>
     </row>
-    <row r="351" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>138</v>
       </c>
@@ -30665,7 +30651,7 @@
       <c r="AO351" s="1"/>
       <c r="AP351" s="1"/>
     </row>
-    <row r="352" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>688</v>
       </c>
@@ -30716,7 +30702,7 @@
       <c r="AO352" s="1"/>
       <c r="AP352" s="1"/>
     </row>
-    <row r="353" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>688</v>
       </c>
@@ -30767,7 +30753,7 @@
       <c r="AO353" s="1"/>
       <c r="AP353" s="1"/>
     </row>
-    <row r="354" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>688</v>
       </c>
@@ -30821,7 +30807,7 @@
       <c r="AO354" s="1"/>
       <c r="AP354" s="1"/>
     </row>
-    <row r="355" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>688</v>
       </c>
@@ -30875,7 +30861,7 @@
       <c r="AO355" s="1"/>
       <c r="AP355" s="1"/>
     </row>
-    <row r="356" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>688</v>
       </c>
@@ -30926,7 +30912,7 @@
       <c r="AO356" s="1"/>
       <c r="AP356" s="1"/>
     </row>
-    <row r="357" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>688</v>
       </c>
@@ -30977,7 +30963,7 @@
       <c r="AO357" s="1"/>
       <c r="AP357" s="1"/>
     </row>
-    <row r="358" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>688</v>
       </c>
@@ -31028,7 +31014,7 @@
       <c r="AO358" s="1"/>
       <c r="AP358" s="1"/>
     </row>
-    <row r="359" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>688</v>
       </c>
@@ -31085,7 +31071,7 @@
       <c r="AO359" s="1"/>
       <c r="AP359" s="1"/>
     </row>
-    <row r="360" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>688</v>
       </c>
@@ -31136,7 +31122,7 @@
       <c r="AO360" s="1"/>
       <c r="AP360" s="1"/>
     </row>
-    <row r="361" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>138</v>
       </c>
@@ -31187,7 +31173,7 @@
       <c r="AO361" s="1"/>
       <c r="AP361" s="1"/>
     </row>
-    <row r="362" spans="1:42" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:42" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>155</v>
       </c>
@@ -31344,7 +31330,7 @@
         <v>295914361.88697094</v>
       </c>
     </row>
-    <row r="363" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>155</v>
       </c>
@@ -31395,7 +31381,7 @@
       <c r="AO363" s="1"/>
       <c r="AP363" s="1"/>
     </row>
-    <row r="364" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>138</v>
       </c>
@@ -31446,7 +31432,7 @@
       <c r="AO364" s="1"/>
       <c r="AP364" s="1"/>
     </row>
-    <row r="365" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>138</v>
       </c>
@@ -31497,7 +31483,7 @@
       <c r="AO365" s="1"/>
       <c r="AP365" s="1"/>
     </row>
-    <row r="366" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>155</v>
       </c>
@@ -31548,7 +31534,7 @@
       <c r="AO366" s="1"/>
       <c r="AP366" s="1"/>
     </row>
-    <row r="367" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>229</v>
       </c>
@@ -31596,7 +31582,7 @@
       <c r="AO367" s="1"/>
       <c r="AP367" s="1"/>
     </row>
-    <row r="368" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>138</v>
       </c>
@@ -31650,7 +31636,7 @@
       <c r="AO368" s="1"/>
       <c r="AP368" s="1"/>
     </row>
-    <row r="369" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>138</v>
       </c>
@@ -31710,7 +31696,7 @@
       <c r="AO369" s="1"/>
       <c r="AP369" s="1"/>
     </row>
-    <row r="370" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>138</v>
       </c>
@@ -31764,7 +31750,7 @@
       <c r="AO370" s="1"/>
       <c r="AP370" s="1"/>
     </row>
-    <row r="371" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>138</v>
       </c>
@@ -31818,7 +31804,7 @@
       <c r="AO371" s="1"/>
       <c r="AP371" s="1"/>
     </row>
-    <row r="372" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>138</v>
       </c>
@@ -31872,7 +31858,7 @@
       <c r="AO372" s="1"/>
       <c r="AP372" s="1"/>
     </row>
-    <row r="373" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>138</v>
       </c>
@@ -31932,7 +31918,7 @@
       <c r="AO373" s="1"/>
       <c r="AP373" s="1"/>
     </row>
-    <row r="374" spans="1:42" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:42" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>138</v>
       </c>
@@ -31986,7 +31972,7 @@
       <c r="AO374" s="1"/>
       <c r="AP374" s="1"/>
     </row>
-    <row r="375" spans="1:42" ht="273.60000000000002" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:42" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>138</v>
       </c>
@@ -32046,7 +32032,7 @@
       <c r="AO375" s="1"/>
       <c r="AP375" s="1"/>
     </row>
-    <row r="376" spans="1:42" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:42" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>138</v>
       </c>
@@ -32109,7 +32095,7 @@
       <c r="AO376" s="1"/>
       <c r="AP376" s="1"/>
     </row>
-    <row r="377" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>138</v>
       </c>
@@ -32160,7 +32146,7 @@
       <c r="AO377" s="1"/>
       <c r="AP377" s="1"/>
     </row>
-    <row r="378" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>138</v>
       </c>
@@ -32211,7 +32197,7 @@
       <c r="AO378" s="1"/>
       <c r="AP378" s="1"/>
     </row>
-    <row r="379" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>138</v>
       </c>
@@ -32262,7 +32248,7 @@
       <c r="AO379" s="1"/>
       <c r="AP379" s="1"/>
     </row>
-    <row r="380" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>138</v>
       </c>
@@ -32313,7 +32299,7 @@
       <c r="AO380" s="1"/>
       <c r="AP380" s="1"/>
     </row>
-    <row r="381" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>688</v>
       </c>
@@ -32367,7 +32353,7 @@
       <c r="AO381" s="1"/>
       <c r="AP381" s="1"/>
     </row>
-    <row r="382" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>688</v>
       </c>
@@ -32421,7 +32407,7 @@
       <c r="AO382" s="1"/>
       <c r="AP382" s="1"/>
     </row>
-    <row r="383" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>688</v>
       </c>
@@ -32475,7 +32461,7 @@
       <c r="AO383" s="1"/>
       <c r="AP383" s="1"/>
     </row>
-    <row r="384" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>688</v>
       </c>
@@ -32529,7 +32515,7 @@
       <c r="AO384" s="1"/>
       <c r="AP384" s="1"/>
     </row>
-    <row r="385" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>688</v>
       </c>
@@ -32583,7 +32569,7 @@
       <c r="AO385" s="1"/>
       <c r="AP385" s="1"/>
     </row>
-    <row r="386" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>688</v>
       </c>
@@ -32637,7 +32623,7 @@
       <c r="AO386" s="1"/>
       <c r="AP386" s="1"/>
     </row>
-    <row r="387" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>688</v>
       </c>
@@ -32691,7 +32677,7 @@
       <c r="AO387" s="1"/>
       <c r="AP387" s="1"/>
     </row>
-    <row r="388" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>688</v>
       </c>
@@ -32745,7 +32731,7 @@
       <c r="AO388" s="1"/>
       <c r="AP388" s="1"/>
     </row>
-    <row r="389" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>688</v>
       </c>
@@ -32799,7 +32785,7 @@
       <c r="AO389" s="1"/>
       <c r="AP389" s="1"/>
     </row>
-    <row r="390" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>688</v>
       </c>
@@ -32853,7 +32839,7 @@
       <c r="AO390" s="1"/>
       <c r="AP390" s="1"/>
     </row>
-    <row r="391" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>688</v>
       </c>
@@ -32907,7 +32893,7 @@
       <c r="AO391" s="1"/>
       <c r="AP391" s="1"/>
     </row>
-    <row r="392" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>688</v>
       </c>
@@ -32958,7 +32944,7 @@
       <c r="AO392" s="1"/>
       <c r="AP392" s="1"/>
     </row>
-    <row r="393" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>688</v>
       </c>
@@ -33012,7 +32998,7 @@
       <c r="AO393" s="1"/>
       <c r="AP393" s="1"/>
     </row>
-    <row r="394" spans="1:42" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:42" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>688</v>
       </c>
@@ -33066,7 +33052,7 @@
       <c r="AO394" s="1"/>
       <c r="AP394" s="1"/>
     </row>
-    <row r="395" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>688</v>
       </c>
@@ -33120,7 +33106,7 @@
       <c r="AO395" s="1"/>
       <c r="AP395" s="1"/>
     </row>
-    <row r="396" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>688</v>
       </c>
@@ -33174,7 +33160,7 @@
       <c r="AO396" s="1"/>
       <c r="AP396" s="1"/>
     </row>
-    <row r="397" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>688</v>
       </c>
@@ -33228,7 +33214,7 @@
       <c r="AO397" s="1"/>
       <c r="AP397" s="1"/>
     </row>
-    <row r="398" spans="1:42" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:42" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>688</v>
       </c>
@@ -33282,7 +33268,7 @@
       <c r="AO398" s="1"/>
       <c r="AP398" s="1"/>
     </row>
-    <row r="399" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>688</v>
       </c>
@@ -33337,7 +33323,7 @@
       <c r="AO399" s="1"/>
       <c r="AP399" s="1"/>
     </row>
-    <row r="400" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>688</v>
       </c>
@@ -33392,7 +33378,7 @@
       <c r="AO400" s="1"/>
       <c r="AP400" s="1"/>
     </row>
-    <row r="401" spans="1:42" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:42" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>688</v>
       </c>
@@ -33446,7 +33432,7 @@
       <c r="AO401" s="1"/>
       <c r="AP401" s="1"/>
     </row>
-    <row r="402" spans="1:42" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:42" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>688</v>
       </c>
@@ -33500,7 +33486,7 @@
       <c r="AO402" s="1"/>
       <c r="AP402" s="1"/>
     </row>
-    <row r="403" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>688</v>
       </c>
@@ -33554,7 +33540,7 @@
       <c r="AO403" s="1"/>
       <c r="AP403" s="1"/>
     </row>
-    <row r="404" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>688</v>
       </c>
@@ -33605,7 +33591,7 @@
       <c r="AO404" s="1"/>
       <c r="AP404" s="1"/>
     </row>
-    <row r="405" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>688</v>
       </c>
@@ -33653,7 +33639,7 @@
       <c r="AO405" s="1"/>
       <c r="AP405" s="1"/>
     </row>
-    <row r="406" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>688</v>
       </c>
@@ -33704,7 +33690,7 @@
       <c r="AO406" s="1"/>
       <c r="AP406" s="1"/>
     </row>
-    <row r="407" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>138</v>
       </c>
@@ -33815,7 +33801,7 @@
       <c r="AO408" s="1"/>
       <c r="AP408" s="1"/>
     </row>
-    <row r="409" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>138</v>
       </c>
@@ -33869,7 +33855,7 @@
       <c r="AO409" s="1"/>
       <c r="AP409" s="1"/>
     </row>
-    <row r="410" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>138</v>
       </c>
@@ -33920,7 +33906,7 @@
       <c r="AO410" s="1"/>
       <c r="AP410" s="1"/>
     </row>
-    <row r="411" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>138</v>
       </c>
@@ -33974,7 +33960,7 @@
       <c r="AO411" s="1"/>
       <c r="AP411" s="1"/>
     </row>
-    <row r="412" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>138</v>
       </c>
@@ -34025,7 +34011,7 @@
       <c r="AO412" s="1"/>
       <c r="AP412" s="1"/>
     </row>
-    <row r="413" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>138</v>
       </c>
@@ -34079,7 +34065,7 @@
       <c r="AO413" s="1"/>
       <c r="AP413" s="1"/>
     </row>
-    <row r="414" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>138</v>
       </c>
@@ -34130,7 +34116,7 @@
       <c r="AO414" s="1"/>
       <c r="AP414" s="1"/>
     </row>
-    <row r="415" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>138</v>
       </c>
@@ -34184,7 +34170,7 @@
       <c r="AO415" s="1"/>
       <c r="AP415" s="1"/>
     </row>
-    <row r="416" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>138</v>
       </c>
@@ -34238,7 +34224,7 @@
       <c r="AO416" s="1"/>
       <c r="AP416" s="1"/>
     </row>
-    <row r="417" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>138</v>
       </c>
@@ -34301,7 +34287,7 @@
       <c r="AO417" s="1"/>
       <c r="AP417" s="1"/>
     </row>
-    <row r="418" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>138</v>
       </c>
@@ -34361,7 +34347,7 @@
       <c r="AO418" s="1"/>
       <c r="AP418" s="1"/>
     </row>
-    <row r="419" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>138</v>
       </c>
@@ -34424,7 +34410,7 @@
       <c r="AO419" s="1"/>
       <c r="AP419" s="1"/>
     </row>
-    <row r="420" spans="1:42" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:42" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>138</v>
       </c>
@@ -34484,7 +34470,7 @@
       <c r="AO420" s="1"/>
       <c r="AP420" s="1"/>
     </row>
-    <row r="421" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>138</v>
       </c>
@@ -34595,7 +34581,7 @@
       <c r="AO422" s="1"/>
       <c r="AP422" s="1"/>
     </row>
-    <row r="423" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>138</v>
       </c>
@@ -34649,7 +34635,7 @@
       <c r="AO423" s="1"/>
       <c r="AP423" s="1"/>
     </row>
-    <row r="424" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>138</v>
       </c>
@@ -34703,7 +34689,7 @@
       <c r="AO424" s="1"/>
       <c r="AP424" s="1"/>
     </row>
-    <row r="425" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>138</v>
       </c>
@@ -34754,7 +34740,7 @@
       <c r="AO425" s="1"/>
       <c r="AP425" s="1"/>
     </row>
-    <row r="426" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>138</v>
       </c>
@@ -34805,7 +34791,7 @@
       <c r="AO426" s="1"/>
       <c r="AP426" s="1"/>
     </row>
-    <row r="427" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>138</v>
       </c>
@@ -34856,7 +34842,7 @@
       <c r="AO427" s="1"/>
       <c r="AP427" s="1"/>
     </row>
-    <row r="428" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>229</v>
       </c>
@@ -34904,7 +34890,7 @@
       <c r="AO428" s="1"/>
       <c r="AP428" s="1"/>
     </row>
-    <row r="429" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>229</v>
       </c>
@@ -34955,7 +34941,7 @@
       <c r="AO429" s="1"/>
       <c r="AP429" s="1"/>
     </row>
-    <row r="430" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>229</v>
       </c>
@@ -35003,7 +34989,7 @@
       <c r="AO430" s="1"/>
       <c r="AP430" s="1"/>
     </row>
-    <row r="431" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>138</v>
       </c>
@@ -35057,7 +35043,7 @@
       <c r="AO431" s="1"/>
       <c r="AP431" s="1"/>
     </row>
-    <row r="432" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>138</v>
       </c>
@@ -35111,7 +35097,7 @@
       <c r="AO432" s="1"/>
       <c r="AP432" s="1"/>
     </row>
-    <row r="433" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>138</v>
       </c>
@@ -35165,7 +35151,7 @@
       <c r="AO433" s="1"/>
       <c r="AP433" s="1"/>
     </row>
-    <row r="434" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>138</v>
       </c>
@@ -35219,7 +35205,7 @@
       <c r="AO434" s="1"/>
       <c r="AP434" s="1"/>
     </row>
-    <row r="435" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>138</v>
       </c>
@@ -35273,7 +35259,7 @@
       <c r="AO435" s="1"/>
       <c r="AP435" s="1"/>
     </row>
-    <row r="436" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>138</v>
       </c>
@@ -35498,7 +35484,7 @@
       <c r="AO439" s="1"/>
       <c r="AP439" s="1"/>
     </row>
-    <row r="440" spans="1:42" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:42" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>138</v>
       </c>
@@ -35552,7 +35538,7 @@
       <c r="AO440" s="1"/>
       <c r="AP440" s="1"/>
     </row>
-    <row r="441" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>138</v>
       </c>
@@ -35606,7 +35592,7 @@
       <c r="AO441" s="1"/>
       <c r="AP441" s="1"/>
     </row>
-    <row r="442" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>138</v>
       </c>
@@ -35660,7 +35646,7 @@
       <c r="AO442" s="1"/>
       <c r="AP442" s="1"/>
     </row>
-    <row r="443" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>138</v>
       </c>
@@ -35723,7 +35709,7 @@
       <c r="AO443" s="1"/>
       <c r="AP443" s="1"/>
     </row>
-    <row r="444" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>138</v>
       </c>
@@ -35786,7 +35772,7 @@
       <c r="AO444" s="1"/>
       <c r="AP444" s="1"/>
     </row>
-    <row r="445" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>138</v>
       </c>
@@ -35849,7 +35835,7 @@
       <c r="AO445" s="1"/>
       <c r="AP445" s="1"/>
     </row>
-    <row r="446" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>138</v>
       </c>
@@ -35912,7 +35898,7 @@
       <c r="AO446" s="1"/>
       <c r="AP446" s="1"/>
     </row>
-    <row r="447" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>138</v>
       </c>
@@ -35975,7 +35961,7 @@
       <c r="AO447" s="1"/>
       <c r="AP447" s="1"/>
     </row>
-    <row r="448" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>138</v>
       </c>
@@ -36026,7 +36012,7 @@
       <c r="AO448" s="1"/>
       <c r="AP448" s="1"/>
     </row>
-    <row r="449" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>412</v>
       </c>
@@ -36144,7 +36130,7 @@
       <c r="AO449" s="1"/>
       <c r="AP449" s="1"/>
     </row>
-    <row r="450" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>412</v>
       </c>
@@ -36195,7 +36181,7 @@
       <c r="AO450" s="1"/>
       <c r="AP450" s="1"/>
     </row>
-    <row r="451" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>138</v>
       </c>
@@ -36246,7 +36232,7 @@
       <c r="AO451" s="1"/>
       <c r="AP451" s="1"/>
     </row>
-    <row r="452" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>412</v>
       </c>
@@ -36297,7 +36283,7 @@
       <c r="AO452" s="1"/>
       <c r="AP452" s="1"/>
     </row>
-    <row r="453" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>138</v>
       </c>
@@ -36351,7 +36337,7 @@
       <c r="AO453" s="1"/>
       <c r="AP453" s="1"/>
     </row>
-    <row r="454" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>138</v>
       </c>
@@ -36402,7 +36388,7 @@
       <c r="AO454" s="1"/>
       <c r="AP454" s="1"/>
     </row>
-    <row r="455" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>138</v>
       </c>
@@ -36462,7 +36448,7 @@
       <c r="AO455" s="1"/>
       <c r="AP455" s="1"/>
     </row>
-    <row r="456" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>138</v>
       </c>
@@ -36522,7 +36508,7 @@
       <c r="AO456" s="1"/>
       <c r="AP456" s="1"/>
     </row>
-    <row r="457" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>138</v>
       </c>
@@ -36573,7 +36559,7 @@
       <c r="AO457" s="1"/>
       <c r="AP457" s="1"/>
     </row>
-    <row r="458" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>138</v>
       </c>
@@ -36624,7 +36610,7 @@
       <c r="AO458" s="1"/>
       <c r="AP458" s="1"/>
     </row>
-    <row r="459" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>138</v>
       </c>
@@ -36678,7 +36664,7 @@
       <c r="AO459" s="1"/>
       <c r="AP459" s="1"/>
     </row>
-    <row r="460" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>138</v>
       </c>
@@ -36732,7 +36718,7 @@
       <c r="AO460" s="1"/>
       <c r="AP460" s="1"/>
     </row>
-    <row r="461" spans="1:42" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:42" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>138</v>
       </c>
@@ -36783,7 +36769,7 @@
       <c r="AO461" s="1"/>
       <c r="AP461" s="1"/>
     </row>
-    <row r="462" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>412</v>
       </c>
@@ -36907,7 +36893,7 @@
       <c r="AO462" s="1"/>
       <c r="AP462" s="1"/>
     </row>
-    <row r="463" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>138</v>
       </c>
@@ -36961,7 +36947,7 @@
       <c r="AO463" s="1"/>
       <c r="AP463" s="1"/>
     </row>
-    <row r="464" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>138</v>
       </c>
@@ -37012,7 +36998,7 @@
       <c r="AO464" s="1"/>
       <c r="AP464" s="1"/>
     </row>
-    <row r="465" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>138</v>
       </c>
@@ -37063,7 +37049,7 @@
       <c r="AO465" s="1"/>
       <c r="AP465" s="1"/>
     </row>
-    <row r="466" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>138</v>
       </c>
@@ -37117,7 +37103,7 @@
       <c r="AO466" s="1"/>
       <c r="AP466" s="1"/>
     </row>
-    <row r="467" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>412</v>
       </c>
@@ -37168,7 +37154,7 @@
       <c r="AO467" s="1"/>
       <c r="AP467" s="1"/>
     </row>
-    <row r="468" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>138</v>
       </c>
@@ -37222,7 +37208,7 @@
       <c r="AO468" s="1"/>
       <c r="AP468" s="1"/>
     </row>
-    <row r="469" spans="1:42" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:42" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>138</v>
       </c>
@@ -37273,7 +37259,7 @@
       <c r="AO469" s="1"/>
       <c r="AP469" s="1"/>
     </row>
-    <row r="470" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>412</v>
       </c>
@@ -37391,7 +37377,7 @@
       <c r="AO470" s="1"/>
       <c r="AP470" s="1"/>
     </row>
-    <row r="471" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>138</v>
       </c>
@@ -37442,7 +37428,7 @@
       <c r="AO471" s="1"/>
       <c r="AP471" s="1"/>
     </row>
-    <row r="472" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>412</v>
       </c>
@@ -37530,7 +37516,7 @@
       <c r="AO472" s="1"/>
       <c r="AP472" s="1"/>
     </row>
-    <row r="473" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>138</v>
       </c>
@@ -37584,7 +37570,7 @@
       <c r="AO473" s="1"/>
       <c r="AP473" s="1"/>
     </row>
-    <row r="474" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>138</v>
       </c>
@@ -37635,7 +37621,7 @@
       <c r="AO474" s="1"/>
       <c r="AP474" s="1"/>
     </row>
-    <row r="475" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>138</v>
       </c>
@@ -37689,7 +37675,7 @@
       <c r="AO475" s="1"/>
       <c r="AP475" s="1"/>
     </row>
-    <row r="476" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>138</v>
       </c>
@@ -37740,7 +37726,7 @@
       <c r="AO476" s="1"/>
       <c r="AP476" s="1"/>
     </row>
-    <row r="477" spans="1:42" ht="172.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:42" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>138</v>
       </c>
@@ -37794,7 +37780,7 @@
       <c r="AO477" s="1"/>
       <c r="AP477" s="1"/>
     </row>
-    <row r="478" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>138</v>
       </c>
@@ -37851,7 +37837,7 @@
       <c r="AO478" s="1"/>
       <c r="AP478" s="1"/>
     </row>
-    <row r="479" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>138</v>
       </c>
@@ -37905,7 +37891,7 @@
       <c r="AO479" s="1"/>
       <c r="AP479" s="1"/>
     </row>
-    <row r="480" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>138</v>
       </c>
@@ -37959,7 +37945,7 @@
       <c r="AO480" s="1"/>
       <c r="AP480" s="1"/>
     </row>
-    <row r="481" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>138</v>
       </c>
@@ -38175,7 +38161,7 @@
       <c r="AO484" s="1"/>
       <c r="AP484" s="1"/>
     </row>
-    <row r="485" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>138</v>
       </c>
@@ -38229,7 +38215,7 @@
       <c r="AO485" s="1"/>
       <c r="AP485" s="1"/>
     </row>
-    <row r="486" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>138</v>
       </c>
@@ -38280,7 +38266,7 @@
       <c r="AO486" s="1"/>
       <c r="AP486" s="1"/>
     </row>
-    <row r="487" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>402</v>
       </c>
@@ -38334,7 +38320,7 @@
       <c r="AO487" s="1"/>
       <c r="AP487" s="1"/>
     </row>
-    <row r="488" spans="1:42" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:42" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>138</v>
       </c>
@@ -38391,7 +38377,7 @@
       <c r="AO488" s="1"/>
       <c r="AP488" s="1"/>
     </row>
-    <row r="489" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>138</v>
       </c>
@@ -38448,7 +38434,7 @@
       <c r="AO489" s="1"/>
       <c r="AP489" s="1"/>
     </row>
-    <row r="490" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>138</v>
       </c>
@@ -38505,7 +38491,7 @@
       <c r="AO490" s="1"/>
       <c r="AP490" s="1"/>
     </row>
-    <row r="491" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>138</v>
       </c>
@@ -38559,7 +38545,7 @@
       <c r="AO491" s="1"/>
       <c r="AP491" s="1"/>
     </row>
-    <row r="492" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>138</v>
       </c>
@@ -38613,7 +38599,7 @@
       <c r="AO492" s="1"/>
       <c r="AP492" s="1"/>
     </row>
-    <row r="493" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>138</v>
       </c>
@@ -38667,7 +38653,7 @@
       <c r="AO493" s="1"/>
       <c r="AP493" s="1"/>
     </row>
-    <row r="494" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>138</v>
       </c>
@@ -38721,7 +38707,7 @@
       <c r="AO494" s="1"/>
       <c r="AP494" s="1"/>
     </row>
-    <row r="495" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>138</v>
       </c>
@@ -38775,7 +38761,7 @@
       <c r="AO495" s="1"/>
       <c r="AP495" s="1"/>
     </row>
-    <row r="496" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>138</v>
       </c>
@@ -38829,7 +38815,7 @@
       <c r="AO496" s="1"/>
       <c r="AP496" s="1"/>
     </row>
-    <row r="497" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>138</v>
       </c>
@@ -38883,7 +38869,7 @@
       <c r="AO497" s="1"/>
       <c r="AP497" s="1"/>
     </row>
-    <row r="498" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>138</v>
       </c>
@@ -38937,7 +38923,7 @@
       <c r="AO498" s="1"/>
       <c r="AP498" s="1"/>
     </row>
-    <row r="499" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>138</v>
       </c>
@@ -38991,7 +38977,7 @@
       <c r="AO499" s="1"/>
       <c r="AP499" s="1"/>
     </row>
-    <row r="500" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>138</v>
       </c>
@@ -39045,7 +39031,7 @@
       <c r="AO500" s="1"/>
       <c r="AP500" s="1"/>
     </row>
-    <row r="501" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>138</v>
       </c>
@@ -39099,7 +39085,7 @@
       <c r="AO501" s="1"/>
       <c r="AP501" s="1"/>
     </row>
-    <row r="502" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>138</v>
       </c>
@@ -39153,7 +39139,7 @@
       <c r="AO502" s="1"/>
       <c r="AP502" s="1"/>
     </row>
-    <row r="503" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>138</v>
       </c>
@@ -39204,7 +39190,7 @@
       <c r="AO503" s="1"/>
       <c r="AP503" s="1"/>
     </row>
-    <row r="504" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>138</v>
       </c>
@@ -39255,7 +39241,7 @@
       <c r="AO504" s="1"/>
       <c r="AP504" s="1"/>
     </row>
-    <row r="505" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>138</v>
       </c>
@@ -39306,7 +39292,7 @@
       <c r="AO505" s="1"/>
       <c r="AP505" s="1"/>
     </row>
-    <row r="506" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>229</v>
       </c>
@@ -39357,7 +39343,7 @@
       <c r="AO506" s="1"/>
       <c r="AP506" s="1"/>
     </row>
-    <row r="507" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>229</v>
       </c>
@@ -39411,7 +39397,7 @@
       <c r="AO507" s="1"/>
       <c r="AP507" s="1"/>
     </row>
-    <row r="508" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>138</v>
       </c>
@@ -39465,7 +39451,7 @@
       <c r="AO508" s="1"/>
       <c r="AP508" s="1"/>
     </row>
-    <row r="509" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>138</v>
       </c>
@@ -39519,7 +39505,7 @@
       <c r="AO509" s="1"/>
       <c r="AP509" s="1"/>
     </row>
-    <row r="510" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>138</v>
       </c>
@@ -39573,7 +39559,7 @@
       <c r="AO510" s="1"/>
       <c r="AP510" s="1"/>
     </row>
-    <row r="511" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>138</v>
       </c>
@@ -39627,7 +39613,7 @@
       <c r="AO511" s="1"/>
       <c r="AP511" s="1"/>
     </row>
-    <row r="512" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>138</v>
       </c>
@@ -39681,7 +39667,7 @@
       <c r="AO512" s="1"/>
       <c r="AP512" s="1"/>
     </row>
-    <row r="513" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>138</v>
       </c>
@@ -39735,7 +39721,7 @@
       <c r="AO513" s="1"/>
       <c r="AP513" s="1"/>
     </row>
-    <row r="514" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>138</v>
       </c>
@@ -39786,7 +39772,7 @@
       <c r="AO514" s="1"/>
       <c r="AP514" s="1"/>
     </row>
-    <row r="515" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>138</v>
       </c>
@@ -40179,7 +40165,7 @@
       <c r="AO521" s="1"/>
       <c r="AP521" s="1"/>
     </row>
-    <row r="522" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>138</v>
       </c>
@@ -40233,7 +40219,7 @@
       <c r="AO522" s="1"/>
       <c r="AP522" s="1"/>
     </row>
-    <row r="523" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>138</v>
       </c>
@@ -40287,7 +40273,7 @@
       <c r="AO523" s="1"/>
       <c r="AP523" s="1"/>
     </row>
-    <row r="524" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>138</v>
       </c>
@@ -40341,7 +40327,7 @@
       <c r="AO524" s="1"/>
       <c r="AP524" s="1"/>
     </row>
-    <row r="525" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>138</v>
       </c>
@@ -40392,7 +40378,7 @@
       <c r="AO525" s="1"/>
       <c r="AP525" s="1"/>
     </row>
-    <row r="526" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>138</v>
       </c>
@@ -40443,7 +40429,7 @@
       <c r="AO526" s="1"/>
       <c r="AP526" s="1"/>
     </row>
-    <row r="527" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>138</v>
       </c>
@@ -40494,7 +40480,7 @@
       <c r="AO527" s="1"/>
       <c r="AP527" s="1"/>
     </row>
-    <row r="528" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>229</v>
       </c>
@@ -40545,7 +40531,7 @@
       <c r="AO528" s="1"/>
       <c r="AP528" s="1"/>
     </row>
-    <row r="529" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>412</v>
       </c>
@@ -40596,7 +40582,7 @@
       <c r="AO529" s="1"/>
       <c r="AP529" s="1"/>
     </row>
-    <row r="530" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>688</v>
       </c>
@@ -40650,7 +40636,7 @@
       <c r="AO530" s="1"/>
       <c r="AP530" s="1"/>
     </row>
-    <row r="531" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>229</v>
       </c>
@@ -40704,7 +40690,7 @@
       <c r="AO531" s="1"/>
       <c r="AP531" s="1"/>
     </row>
-    <row r="532" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>155</v>
       </c>
@@ -40755,7 +40741,7 @@
       <c r="AO532" s="1"/>
       <c r="AP532" s="1"/>
     </row>
-    <row r="533" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>229</v>
       </c>
@@ -40803,7 +40789,7 @@
       <c r="AO533" s="1"/>
       <c r="AP533" s="1"/>
     </row>
-    <row r="534" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>402</v>
       </c>
@@ -40857,7 +40843,7 @@
       <c r="AO534" s="1"/>
       <c r="AP534" s="1"/>
     </row>
-    <row r="535" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>138</v>
       </c>
@@ -40920,7 +40906,7 @@
       <c r="AO535" s="1"/>
       <c r="AP535" s="1"/>
     </row>
-    <row r="536" spans="1:42" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:42" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>138</v>
       </c>
@@ -40980,7 +40966,7 @@
       <c r="AO536" s="1"/>
       <c r="AP536" s="1"/>
     </row>
-    <row r="537" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>138</v>
       </c>
@@ -41031,7 +41017,7 @@
       <c r="AO537" s="1"/>
       <c r="AP537" s="1"/>
     </row>
-    <row r="538" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>138</v>
       </c>
@@ -41085,7 +41071,7 @@
       <c r="AO538" s="1"/>
       <c r="AP538" s="1"/>
     </row>
-    <row r="539" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>138</v>
       </c>
@@ -41136,7 +41122,7 @@
       <c r="AO539" s="1"/>
       <c r="AP539" s="1"/>
     </row>
-    <row r="540" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>412</v>
       </c>
@@ -41187,7 +41173,7 @@
       <c r="AO540" s="1"/>
       <c r="AP540" s="1"/>
     </row>
-    <row r="541" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>412</v>
       </c>
@@ -41308,7 +41294,7 @@
       <c r="AO541" s="1"/>
       <c r="AP541" s="1"/>
     </row>
-    <row r="542" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>138</v>
       </c>
@@ -41359,7 +41345,7 @@
       <c r="AO542" s="1"/>
       <c r="AP542" s="1"/>
     </row>
-    <row r="543" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>412</v>
       </c>
@@ -41410,7 +41396,7 @@
       <c r="AO543" s="1"/>
       <c r="AP543" s="1"/>
     </row>
-    <row r="544" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>138</v>
       </c>
@@ -41461,7 +41447,7 @@
       <c r="AO544" s="1"/>
       <c r="AP544" s="1"/>
     </row>
-    <row r="545" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>138</v>
       </c>
@@ -41515,7 +41501,7 @@
       <c r="AO545" s="1"/>
       <c r="AP545" s="1"/>
     </row>
-    <row r="546" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>138</v>
       </c>
@@ -41569,7 +41555,7 @@
       <c r="AO546" s="1"/>
       <c r="AP546" s="1"/>
     </row>
-    <row r="547" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>138</v>
       </c>
@@ -41623,7 +41609,7 @@
       <c r="AO547" s="1"/>
       <c r="AP547" s="1"/>
     </row>
-    <row r="548" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>138</v>
       </c>
@@ -41674,7 +41660,7 @@
       <c r="AO548" s="1"/>
       <c r="AP548" s="1"/>
     </row>
-    <row r="549" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>138</v>
       </c>
@@ -41725,7 +41711,7 @@
       <c r="AO549" s="1"/>
       <c r="AP549" s="1"/>
     </row>
-    <row r="550" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>138</v>
       </c>
@@ -41776,7 +41762,7 @@
       <c r="AO550" s="1"/>
       <c r="AP550" s="1"/>
     </row>
-    <row r="551" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>412</v>
       </c>
@@ -41827,7 +41813,7 @@
       <c r="AO551" s="1"/>
       <c r="AP551" s="1"/>
     </row>
-    <row r="552" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>138</v>
       </c>
@@ -41878,7 +41864,7 @@
       <c r="AO552" s="1"/>
       <c r="AP552" s="1"/>
     </row>
-    <row r="553" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>138</v>
       </c>
@@ -41929,7 +41915,7 @@
       <c r="AO553" s="1"/>
       <c r="AP553" s="1"/>
     </row>
-    <row r="554" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>138</v>
       </c>
@@ -41980,7 +41966,7 @@
       <c r="AO554" s="1"/>
       <c r="AP554" s="1"/>
     </row>
-    <row r="555" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>412</v>
       </c>
@@ -42031,7 +42017,7 @@
       <c r="AO555" s="1"/>
       <c r="AP555" s="1"/>
     </row>
-    <row r="556" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>138</v>
       </c>
@@ -42082,7 +42068,7 @@
       <c r="AO556" s="1"/>
       <c r="AP556" s="1"/>
     </row>
-    <row r="557" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>138</v>
       </c>
@@ -42133,7 +42119,7 @@
       <c r="AO557" s="1"/>
       <c r="AP557" s="1"/>
     </row>
-    <row r="558" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>412</v>
       </c>
@@ -42248,7 +42234,7 @@
       <c r="AO558" s="1"/>
       <c r="AP558" s="1"/>
     </row>
-    <row r="559" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>138</v>
       </c>
@@ -42299,7 +42285,7 @@
       <c r="AO559" s="1"/>
       <c r="AP559" s="1"/>
     </row>
-    <row r="560" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>412</v>
       </c>
@@ -42414,7 +42400,7 @@
       <c r="AO560" s="1"/>
       <c r="AP560" s="1"/>
     </row>
-    <row r="561" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>138</v>
       </c>
@@ -42465,7 +42451,7 @@
       <c r="AO561" s="1"/>
       <c r="AP561" s="1"/>
     </row>
-    <row r="562" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>138</v>
       </c>
@@ -42516,7 +42502,7 @@
       <c r="AO562" s="1"/>
       <c r="AP562" s="1"/>
     </row>
-    <row r="563" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>138</v>
       </c>
@@ -42567,7 +42553,7 @@
       <c r="AO563" s="1"/>
       <c r="AP563" s="1"/>
     </row>
-    <row r="564" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>412</v>
       </c>
@@ -42618,7 +42604,7 @@
       <c r="AO564" s="1"/>
       <c r="AP564" s="1"/>
     </row>
-    <row r="565" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>138</v>
       </c>
@@ -42669,7 +42655,7 @@
       <c r="AO565" s="1"/>
       <c r="AP565" s="1"/>
     </row>
-    <row r="566" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>138</v>
       </c>
@@ -42720,7 +42706,7 @@
       <c r="AO566" s="1"/>
       <c r="AP566" s="1"/>
     </row>
-    <row r="567" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>138</v>
       </c>
@@ -42771,7 +42757,7 @@
       <c r="AO567" s="1"/>
       <c r="AP567" s="1"/>
     </row>
-    <row r="568" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>138</v>
       </c>
@@ -42822,7 +42808,7 @@
       <c r="AO568" s="1"/>
       <c r="AP568" s="1"/>
     </row>
-    <row r="569" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>138</v>
       </c>
@@ -42873,7 +42859,7 @@
       <c r="AO569" s="1"/>
       <c r="AP569" s="1"/>
     </row>
-    <row r="570" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>138</v>
       </c>
@@ -42927,7 +42913,7 @@
       <c r="AO570" s="1"/>
       <c r="AP570" s="1"/>
     </row>
-    <row r="571" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>412</v>
       </c>
@@ -43045,7 +43031,7 @@
       <c r="AO571" s="1"/>
       <c r="AP571" s="1"/>
     </row>
-    <row r="572" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>412</v>
       </c>
@@ -43163,7 +43149,7 @@
       <c r="AO572" s="1"/>
       <c r="AP572" s="1"/>
     </row>
-    <row r="573" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>138</v>
       </c>
@@ -43214,7 +43200,7 @@
       <c r="AO573" s="1"/>
       <c r="AP573" s="1"/>
     </row>
-    <row r="574" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>138</v>
       </c>
@@ -43265,7 +43251,7 @@
       <c r="AO574" s="1"/>
       <c r="AP574" s="1"/>
     </row>
-    <row r="575" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>138</v>
       </c>
@@ -43319,7 +43305,7 @@
       <c r="AO575" s="1"/>
       <c r="AP575" s="1"/>
     </row>
-    <row r="576" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>138</v>
       </c>
@@ -43373,7 +43359,7 @@
       <c r="AO576" s="1"/>
       <c r="AP576" s="1"/>
     </row>
-    <row r="577" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>138</v>
       </c>
@@ -43427,7 +43413,7 @@
       <c r="AO577" s="1"/>
       <c r="AP577" s="1"/>
     </row>
-    <row r="578" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>155</v>
       </c>
@@ -43551,7 +43537,7 @@
       <c r="AO578" s="1"/>
       <c r="AP578" s="1"/>
     </row>
-    <row r="579" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>138</v>
       </c>
@@ -43605,7 +43591,7 @@
       <c r="AO579" s="1"/>
       <c r="AP579" s="1"/>
     </row>
-    <row r="580" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>412</v>
       </c>
@@ -43726,7 +43712,7 @@
       <c r="AO580" s="1"/>
       <c r="AP580" s="1"/>
     </row>
-    <row r="581" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>412</v>
       </c>
@@ -43786,7 +43772,7 @@
       <c r="AO581" s="1"/>
       <c r="AP581" s="1"/>
     </row>
-    <row r="582" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>138</v>
       </c>
@@ -43840,7 +43826,7 @@
       <c r="AO582" s="1"/>
       <c r="AP582" s="1"/>
     </row>
-    <row r="583" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>155</v>
       </c>
@@ -43964,7 +43950,7 @@
       <c r="AO583" s="1"/>
       <c r="AP583" s="1"/>
     </row>
-    <row r="584" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>138</v>
       </c>
@@ -44015,7 +44001,7 @@
       <c r="AO584" s="1"/>
       <c r="AP584" s="1"/>
     </row>
-    <row r="585" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>138</v>
       </c>
@@ -44069,7 +44055,7 @@
       <c r="AO585" s="1"/>
       <c r="AP585" s="1"/>
     </row>
-    <row r="586" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>138</v>
       </c>
@@ -44120,7 +44106,7 @@
       <c r="AO586" s="1"/>
       <c r="AP586" s="1"/>
     </row>
-    <row r="587" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>138</v>
       </c>
@@ -44177,7 +44163,7 @@
       <c r="AO587" s="1"/>
       <c r="AP587" s="1"/>
     </row>
-    <row r="588" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>412</v>
       </c>
@@ -44228,7 +44214,7 @@
       <c r="AO588" s="1"/>
       <c r="AP588" s="1"/>
     </row>
-    <row r="589" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>138</v>
       </c>
@@ -44282,7 +44268,7 @@
       <c r="AO589" s="1"/>
       <c r="AP589" s="1"/>
     </row>
-    <row r="590" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>138</v>
       </c>
@@ -44336,7 +44322,7 @@
       <c r="AO590" s="1"/>
       <c r="AP590" s="1"/>
     </row>
-    <row r="591" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>138</v>
       </c>
@@ -44390,7 +44376,7 @@
       <c r="AO591" s="1"/>
       <c r="AP591" s="1"/>
     </row>
-    <row r="592" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>138</v>
       </c>
@@ -44444,7 +44430,7 @@
       <c r="AO592" s="1"/>
       <c r="AP592" s="1"/>
     </row>
-    <row r="593" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>138</v>
       </c>
@@ -44495,7 +44481,7 @@
       <c r="AO593" s="1"/>
       <c r="AP593" s="1"/>
     </row>
-    <row r="594" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>138</v>
       </c>
@@ -44549,7 +44535,7 @@
       <c r="AO594" s="1"/>
       <c r="AP594" s="1"/>
     </row>
-    <row r="595" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>138</v>
       </c>
@@ -44603,7 +44589,7 @@
       <c r="AO595" s="1"/>
       <c r="AP595" s="1"/>
     </row>
-    <row r="596" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>412</v>
       </c>
@@ -44727,7 +44713,7 @@
       <c r="AO596" s="1"/>
       <c r="AP596" s="1"/>
     </row>
-    <row r="597" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>138</v>
       </c>
@@ -44781,7 +44767,7 @@
       <c r="AO597" s="1"/>
       <c r="AP597" s="1"/>
     </row>
-    <row r="598" spans="1:42" ht="230.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:42" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>138</v>
       </c>
@@ -44844,7 +44830,7 @@
       <c r="AO598" s="1"/>
       <c r="AP598" s="1"/>
     </row>
-    <row r="599" spans="1:42" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:42" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>138</v>
       </c>
@@ -44907,7 +44893,7 @@
       <c r="AO599" s="1"/>
       <c r="AP599" s="1"/>
     </row>
-    <row r="600" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>688</v>
       </c>
@@ -44964,7 +44950,7 @@
       <c r="AO600" s="1"/>
       <c r="AP600" s="1"/>
     </row>
-    <row r="601" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>138</v>
       </c>
@@ -45027,7 +45013,7 @@
       <c r="AO601" s="1"/>
       <c r="AP601" s="1"/>
     </row>
-    <row r="602" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>138</v>
       </c>
@@ -45081,7 +45067,7 @@
       <c r="AO602" s="1"/>
       <c r="AP602" s="1"/>
     </row>
-    <row r="603" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>138</v>
       </c>
@@ -45135,7 +45121,7 @@
       <c r="AO603" s="1"/>
       <c r="AP603" s="1"/>
     </row>
-    <row r="604" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>138</v>
       </c>
@@ -45189,7 +45175,7 @@
       <c r="AO604" s="1"/>
       <c r="AP604" s="1"/>
     </row>
-    <row r="605" spans="1:42" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:42" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>138</v>
       </c>
@@ -45246,7 +45232,7 @@
       <c r="AO605" s="1"/>
       <c r="AP605" s="1"/>
     </row>
-    <row r="606" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>138</v>
       </c>
@@ -45297,7 +45283,7 @@
       <c r="AO606" s="1"/>
       <c r="AP606" s="1"/>
     </row>
-    <row r="607" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>138</v>
       </c>
@@ -45348,7 +45334,7 @@
       <c r="AO607" s="1"/>
       <c r="AP607" s="1"/>
     </row>
-    <row r="608" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>138</v>
       </c>
@@ -45399,7 +45385,7 @@
       <c r="AO608" s="1"/>
       <c r="AP608" s="1"/>
     </row>
-    <row r="609" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>138</v>
       </c>
@@ -45453,7 +45439,7 @@
       <c r="AO609" s="1"/>
       <c r="AP609" s="1"/>
     </row>
-    <row r="610" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>138</v>
       </c>
@@ -45507,7 +45493,7 @@
       <c r="AO610" s="1"/>
       <c r="AP610" s="1"/>
     </row>
-    <row r="611" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>138</v>
       </c>
@@ -45558,7 +45544,7 @@
       <c r="AO611" s="1"/>
       <c r="AP611" s="1"/>
     </row>
-    <row r="612" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>138</v>
       </c>
@@ -45609,7 +45595,7 @@
       <c r="AO612" s="1"/>
       <c r="AP612" s="1"/>
     </row>
-    <row r="613" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>138</v>
       </c>
@@ -45660,7 +45646,7 @@
       <c r="AO613" s="1"/>
       <c r="AP613" s="1"/>
     </row>
-    <row r="614" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>138</v>
       </c>
@@ -45711,7 +45697,7 @@
       <c r="AO614" s="1"/>
       <c r="AP614" s="1"/>
     </row>
-    <row r="615" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>138</v>
       </c>
@@ -45762,7 +45748,7 @@
       <c r="AO615" s="1"/>
       <c r="AP615" s="1"/>
     </row>
-    <row r="616" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>138</v>
       </c>
@@ -45813,7 +45799,7 @@
       <c r="AO616" s="1"/>
       <c r="AP616" s="1"/>
     </row>
-    <row r="617" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>138</v>
       </c>
@@ -45867,7 +45853,7 @@
       <c r="AO617" s="1"/>
       <c r="AP617" s="1"/>
     </row>
-    <row r="618" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>138</v>
       </c>
@@ -45918,7 +45904,7 @@
       <c r="AO618" s="1"/>
       <c r="AP618" s="1"/>
     </row>
-    <row r="619" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>138</v>
       </c>
@@ -45972,7 +45958,7 @@
       <c r="AO619" s="1"/>
       <c r="AP619" s="1"/>
     </row>
-    <row r="620" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>138</v>
       </c>
@@ -46026,7 +46012,7 @@
       <c r="AO620" s="1"/>
       <c r="AP620" s="1"/>
     </row>
-    <row r="621" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>138</v>
       </c>
@@ -46080,7 +46066,7 @@
       <c r="AO621" s="1"/>
       <c r="AP621" s="1"/>
     </row>
-    <row r="622" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>138</v>
       </c>
@@ -46131,7 +46117,7 @@
       <c r="AO622" s="1"/>
       <c r="AP622" s="1"/>
     </row>
-    <row r="623" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>138</v>
       </c>
@@ -46182,7 +46168,7 @@
       <c r="AO623" s="1"/>
       <c r="AP623" s="1"/>
     </row>
-    <row r="624" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>138</v>
       </c>
@@ -46233,7 +46219,7 @@
       <c r="AO624" s="1"/>
       <c r="AP624" s="1"/>
     </row>
-    <row r="625" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>138</v>
       </c>
@@ -46287,7 +46273,7 @@
       <c r="AO625" s="1"/>
       <c r="AP625" s="1"/>
     </row>
-    <row r="626" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>138</v>
       </c>
@@ -46338,7 +46324,7 @@
       <c r="AO626" s="1"/>
       <c r="AP626" s="1"/>
     </row>
-    <row r="627" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>138</v>
       </c>
@@ -46392,7 +46378,7 @@
       <c r="AO627" s="1"/>
       <c r="AP627" s="1"/>
     </row>
-    <row r="628" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>138</v>
       </c>
@@ -46446,7 +46432,7 @@
       <c r="AO628" s="1"/>
       <c r="AP628" s="1"/>
     </row>
-    <row r="629" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>138</v>
       </c>
@@ -46500,7 +46486,7 @@
       <c r="AO629" s="1"/>
       <c r="AP629" s="1"/>
     </row>
-    <row r="630" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>138</v>
       </c>
@@ -46551,7 +46537,7 @@
       <c r="AO630" s="1"/>
       <c r="AP630" s="1"/>
     </row>
-    <row r="631" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>138</v>
       </c>
@@ -46602,7 +46588,7 @@
       <c r="AO631" s="1"/>
       <c r="AP631" s="1"/>
     </row>
-    <row r="632" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>138</v>
       </c>
@@ -46653,7 +46639,7 @@
       <c r="AO632" s="1"/>
       <c r="AP632" s="1"/>
     </row>
-    <row r="633" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>138</v>
       </c>
@@ -46707,7 +46693,7 @@
       <c r="AO633" s="1"/>
       <c r="AP633" s="1"/>
     </row>
-    <row r="634" spans="1:42" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:42" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>138</v>
       </c>
@@ -46767,7 +46753,7 @@
       <c r="AO634" s="1"/>
       <c r="AP634" s="1"/>
     </row>
-    <row r="635" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>138</v>
       </c>
@@ -46824,7 +46810,7 @@
       <c r="AO635" s="1"/>
       <c r="AP635" s="1"/>
     </row>
-    <row r="636" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>412</v>
       </c>
@@ -46875,7 +46861,7 @@
       <c r="AO636" s="1"/>
       <c r="AP636" s="1"/>
     </row>
-    <row r="637" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>412</v>
       </c>
@@ -47002,7 +46988,7 @@
       <c r="AO637" s="1"/>
       <c r="AP637" s="1"/>
     </row>
-    <row r="638" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>412</v>
       </c>
@@ -47129,7 +47115,7 @@
       <c r="AO638" s="1"/>
       <c r="AP638" s="1"/>
     </row>
-    <row r="639" spans="1:42" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:42" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>138</v>
       </c>
@@ -47189,7 +47175,7 @@
       <c r="AO639" s="1"/>
       <c r="AP639" s="1"/>
     </row>
-    <row r="640" spans="1:42" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:42" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>138</v>
       </c>
@@ -47240,7 +47226,7 @@
       <c r="AO640" s="1"/>
       <c r="AP640" s="1"/>
     </row>
-    <row r="641" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>138</v>
       </c>
@@ -47303,7 +47289,7 @@
       <c r="AO641" s="1"/>
       <c r="AP641" s="1"/>
     </row>
-    <row r="642" spans="1:42" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:42" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>138</v>
       </c>
@@ -47366,7 +47352,7 @@
       <c r="AO642" s="1"/>
       <c r="AP642" s="1"/>
     </row>
-    <row r="643" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>138</v>
       </c>
@@ -47429,7 +47415,7 @@
       <c r="AO643" s="1"/>
       <c r="AP643" s="1"/>
     </row>
-    <row r="644" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>138</v>
       </c>
@@ -47486,7 +47472,7 @@
       <c r="AO644" s="1"/>
       <c r="AP644" s="1"/>
     </row>
-    <row r="645" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>138</v>
       </c>
@@ -47543,7 +47529,7 @@
       <c r="AO645" s="1"/>
       <c r="AP645" s="1"/>
     </row>
-    <row r="646" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>138</v>
       </c>
@@ -47597,7 +47583,7 @@
       <c r="AO646" s="1"/>
       <c r="AP646" s="1"/>
     </row>
-    <row r="647" spans="1:42" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:42" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>138</v>
       </c>
@@ -47660,7 +47646,7 @@
       <c r="AO647" s="1"/>
       <c r="AP647" s="1"/>
     </row>
-    <row r="648" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>138</v>
       </c>
@@ -47723,7 +47709,7 @@
       <c r="AO648" s="1"/>
       <c r="AP648" s="1"/>
     </row>
-    <row r="649" spans="1:42" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:42" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>138</v>
       </c>
@@ -47786,7 +47772,7 @@
       <c r="AO649" s="1"/>
       <c r="AP649" s="1"/>
     </row>
-    <row r="650" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>138</v>
       </c>
@@ -47846,7 +47832,7 @@
       <c r="AO650" s="1"/>
       <c r="AP650" s="1"/>
     </row>
-    <row r="651" spans="1:42" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:42" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>138</v>
       </c>
@@ -47897,7 +47883,7 @@
       <c r="AO651" s="1"/>
       <c r="AP651" s="1"/>
     </row>
-    <row r="652" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>138</v>
       </c>
@@ -47951,7 +47937,7 @@
       <c r="AO652" s="1"/>
       <c r="AP652" s="1"/>
     </row>
-    <row r="653" spans="1:42" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:42" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>138</v>
       </c>
@@ -48014,7 +48000,7 @@
       <c r="AO653" s="1"/>
       <c r="AP653" s="1"/>
     </row>
-    <row r="654" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>138</v>
       </c>
@@ -48125,7 +48111,7 @@
       <c r="AO655" s="1"/>
       <c r="AP655" s="1"/>
     </row>
-    <row r="656" spans="1:42" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>138</v>
       </c>
@@ -48182,7 +48168,7 @@
       <c r="AO656" s="1"/>
       <c r="AP656" s="1"/>
     </row>
-    <row r="657" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>138</v>
       </c>
@@ -48236,7 +48222,7 @@
       <c r="AO657" s="1"/>
       <c r="AP657" s="1"/>
     </row>
-    <row r="658" spans="1:42" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:42" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>138</v>
       </c>
@@ -48293,7 +48279,7 @@
       <c r="AO658" s="1"/>
       <c r="AP658" s="1"/>
     </row>
-    <row r="659" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>138</v>
       </c>
@@ -48353,7 +48339,7 @@
       <c r="AO659" s="1"/>
       <c r="AP659" s="1"/>
     </row>
-    <row r="660" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>138</v>
       </c>
@@ -48413,7 +48399,7 @@
       <c r="AO660" s="1"/>
       <c r="AP660" s="1"/>
     </row>
-    <row r="661" spans="1:42" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>138</v>
       </c>
@@ -48473,7 +48459,7 @@
       <c r="AO661" s="1"/>
       <c r="AP661" s="1"/>
     </row>
-    <row r="662" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>138</v>
       </c>
@@ -48530,7 +48516,7 @@
       <c r="AO662" s="1"/>
       <c r="AP662" s="1"/>
     </row>
-    <row r="663" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>155</v>
       </c>
@@ -48581,7 +48567,7 @@
       <c r="AO663" s="1"/>
       <c r="AP663" s="1"/>
     </row>
-    <row r="664" spans="1:42" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:42" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>155</v>
       </c>
@@ -48638,7 +48624,7 @@
       <c r="AO664" s="1"/>
       <c r="AP664" s="1"/>
     </row>
-    <row r="665" spans="1:42" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>155</v>
       </c>
@@ -48698,7 +48684,7 @@
       <c r="AO665" s="1"/>
       <c r="AP665" s="1"/>
     </row>
-    <row r="666" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>229</v>
       </c>
@@ -48749,7 +48735,7 @@
       <c r="AO666" s="1"/>
       <c r="AP666" s="1"/>
     </row>
-    <row r="667" spans="1:42" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>229</v>
       </c>
@@ -48800,7 +48786,7 @@
       <c r="AO667" s="1"/>
       <c r="AP667" s="1"/>
     </row>
-    <row r="668" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>229</v>
       </c>
@@ -48854,7 +48840,7 @@
       <c r="AO668" s="1"/>
       <c r="AP668" s="1"/>
     </row>
-    <row r="669" spans="1:42" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>138</v>
       </c>
